--- a/export.xlsx
+++ b/export.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -664,9 +664,125 @@
         <v>Chicken Burger (x3), Mango Lassi (x1)</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1">
+        <v>45686.22928240741</v>
+      </c>
+      <c r="C10" t="str">
+        <v>Karthik</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>790</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="H10">
+        <v>15</v>
+      </c>
+      <c r="I10" t="str">
+        <v>Vanilla Shake (x4), Mango Lassi (x2)</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1">
+        <v>45672.22928240741</v>
+      </c>
+      <c r="C11" t="str">
+        <v>Reevan</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>500</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11">
+        <v>7</v>
+      </c>
+      <c r="I11" t="str">
+        <v>Chicken Burger (x2), Chicken Cheese Burger (x2), Oreo Shake (x2), Vanilla Shake (x1), Mango Lassi (x4)</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1">
+        <v>45658.22928240741</v>
+      </c>
+      <c r="C12" t="str">
+        <v>Notsla Daniel</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>345</v>
+      </c>
+      <c r="F12">
+        <v>2.3</v>
+      </c>
+      <c r="G12">
+        <v>1.2</v>
+      </c>
+      <c r="H12">
+        <v>3.5</v>
+      </c>
+      <c r="I12" t="str">
+        <v>Chicken Cheese Burger (x5)</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1">
+        <v>45647.22928240741</v>
+      </c>
+      <c r="C13" t="str">
+        <v>Karthik</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
+      </c>
+      <c r="E13">
+        <v>895</v>
+      </c>
+      <c r="F13">
+        <v>3.9</v>
+      </c>
+      <c r="G13">
+        <v>3.2</v>
+      </c>
+      <c r="H13">
+        <v>7.1</v>
+      </c>
+      <c r="I13" t="str">
+        <v>Chicken Cheese Pops (x3)</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I9"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I13"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/export.xlsx
+++ b/export.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -434,31 +434,31 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1">
         <v>45693.22928240741</v>
       </c>
       <c r="C2" t="str">
-        <v>Reevan</v>
+        <v>Karthik</v>
       </c>
       <c r="D2">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="E2">
-        <v>50</v>
+        <v>450</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="I2" t="str">
-        <v>Mango Lassi (x9)</v>
+        <v>Strawberry Shake (x3)</v>
       </c>
     </row>
     <row r="3">
@@ -492,297 +492,65 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>45693.22928240741</v>
+        <v>45686.22928240741</v>
       </c>
       <c r="C4" t="str">
-        <v>Reevan</v>
+        <v>Karthik</v>
       </c>
       <c r="D4">
-        <v>111</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>50</v>
+        <v>790</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="I4" t="str">
-        <v>Veg Cheese Pops (x1)</v>
+        <v>Vanilla Shake (x4), Mango Lassi (x2)</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>45693.22928240741</v>
+        <v>45672.22928240741</v>
       </c>
       <c r="C5" t="str">
-        <v>Karthik</v>
+        <v>Reevan</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E5">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="F5">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H5">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="I5" t="str">
-        <v>Strawberry Shake (x3)</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1">
-        <v>45692.22928240741</v>
-      </c>
-      <c r="C6" t="str">
-        <v>Ajay Francis Anchan</v>
-      </c>
-      <c r="D6">
-        <v>10</v>
-      </c>
-      <c r="E6">
-        <v>870</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6" t="str">
-        <v>Chicken Wrap (x9)</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1">
-        <v>45692.22928240741</v>
-      </c>
-      <c r="C7" t="str">
-        <v>Notsla Daniel</v>
-      </c>
-      <c r="D7">
-        <v>9</v>
-      </c>
-      <c r="E7">
-        <v>800</v>
-      </c>
-      <c r="F7">
-        <v>5</v>
-      </c>
-      <c r="G7">
-        <v>36</v>
-      </c>
-      <c r="H7">
-        <v>11</v>
-      </c>
-      <c r="I7" t="str">
-        <v>Butterscotch Lassi (x8)</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>45692.22928240741</v>
-      </c>
-      <c r="C8" t="str">
-        <v>Ajay Francis Anchan</v>
-      </c>
-      <c r="D8">
-        <v>8</v>
-      </c>
-      <c r="E8">
-        <v>900</v>
-      </c>
-      <c r="F8">
-        <v>5</v>
-      </c>
-      <c r="G8">
-        <v>6</v>
-      </c>
-      <c r="H8">
-        <v>11</v>
-      </c>
-      <c r="I8" t="str">
-        <v>Chicken Burger (x3), Butterscotch Lassi (x7)</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9" s="1">
-        <v>45687.22928240741</v>
-      </c>
-      <c r="C9" t="str">
-        <v>Ajay Francis Anchan</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>130</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="G9">
-        <v>3</v>
-      </c>
-      <c r="H9">
-        <v>5</v>
-      </c>
-      <c r="I9" t="str">
-        <v>Chicken Burger (x3), Mango Lassi (x1)</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10" s="1">
-        <v>45686.22928240741</v>
-      </c>
-      <c r="C10" t="str">
-        <v>Karthik</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="E10">
-        <v>790</v>
-      </c>
-      <c r="F10">
-        <v>10</v>
-      </c>
-      <c r="G10">
-        <v>5</v>
-      </c>
-      <c r="H10">
-        <v>15</v>
-      </c>
-      <c r="I10" t="str">
-        <v>Vanilla Shake (x4), Mango Lassi (x2)</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11">
-        <v>3</v>
-      </c>
-      <c r="B11" s="1">
-        <v>45672.22928240741</v>
-      </c>
-      <c r="C11" t="str">
-        <v>Reevan</v>
-      </c>
-      <c r="D11">
-        <v>4</v>
-      </c>
-      <c r="E11">
-        <v>500</v>
-      </c>
-      <c r="F11">
-        <v>3</v>
-      </c>
-      <c r="G11">
-        <v>4</v>
-      </c>
-      <c r="H11">
-        <v>7</v>
-      </c>
-      <c r="I11" t="str">
-        <v>Chicken Burger (x2), Chicken Cheese Burger (x2), Oreo Shake (x2), Vanilla Shake (x1), Mango Lassi (x4)</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12">
-        <v>4</v>
-      </c>
-      <c r="B12" s="1">
-        <v>45658.22928240741</v>
-      </c>
-      <c r="C12" t="str">
-        <v>Notsla Daniel</v>
-      </c>
-      <c r="D12">
-        <v>5</v>
-      </c>
-      <c r="E12">
-        <v>345</v>
-      </c>
-      <c r="F12">
-        <v>2.3</v>
-      </c>
-      <c r="G12">
-        <v>1.2</v>
-      </c>
-      <c r="H12">
-        <v>3.5</v>
-      </c>
-      <c r="I12" t="str">
-        <v>Chicken Cheese Burger (x5)</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13">
-        <v>5</v>
-      </c>
-      <c r="B13" s="1">
-        <v>45647.22928240741</v>
-      </c>
-      <c r="C13" t="str">
-        <v>Karthik</v>
-      </c>
-      <c r="D13">
-        <v>6</v>
-      </c>
-      <c r="E13">
-        <v>895</v>
-      </c>
-      <c r="F13">
-        <v>3.9</v>
-      </c>
-      <c r="G13">
-        <v>3.2</v>
-      </c>
-      <c r="H13">
-        <v>7.1</v>
-      </c>
-      <c r="I13" t="str">
-        <v>Chicken Cheese Pops (x3)</v>
+        <v>Chicken Burger (x2), Chicken Cheese Burger (x2), Vanilla Shake (x1), Oreo Shake (x2), Mango Lassi (x4)</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I13"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I5"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/export.xlsx
+++ b/export.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -434,31 +434,31 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1">
         <v>45693.22928240741</v>
       </c>
       <c r="C2" t="str">
-        <v>Karthik</v>
+        <v>Reevan</v>
       </c>
       <c r="D2">
-        <v>11</v>
+        <v>121</v>
       </c>
       <c r="E2">
-        <v>450</v>
+        <v>50</v>
       </c>
       <c r="F2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H2">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="I2" t="str">
-        <v>Strawberry Shake (x3)</v>
+        <v>Mango Lassi (x9)</v>
       </c>
     </row>
     <row r="3">
@@ -492,65 +492,181 @@
     </row>
     <row r="4">
       <c r="A4">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1">
+        <v>45693.22928240741</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Reevan</v>
+      </c>
+      <c r="D4">
+        <v>111</v>
+      </c>
+      <c r="E4">
+        <v>50</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
-        <v>45686.22928240741</v>
-      </c>
-      <c r="C4" t="str">
-        <v>Karthik</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>790</v>
-      </c>
-      <c r="F4">
-        <v>10</v>
-      </c>
-      <c r="G4">
-        <v>5</v>
-      </c>
-      <c r="H4">
-        <v>15</v>
-      </c>
       <c r="I4" t="str">
-        <v>Vanilla Shake (x4), Mango Lassi (x2)</v>
+        <v>Veg Cheese Pops (x1)</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1">
+        <v>45693.22928240741</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Karthik</v>
+      </c>
+      <c r="D5">
+        <v>11</v>
+      </c>
+      <c r="E5">
+        <v>450</v>
+      </c>
+      <c r="F5">
+        <v>8</v>
+      </c>
+      <c r="G5">
+        <v>8</v>
+      </c>
+      <c r="H5">
+        <v>16</v>
+      </c>
+      <c r="I5" t="str">
+        <v>Strawberry Shake (x3)</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1">
+        <v>45692.22928240741</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>870</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" t="str">
+        <v>Chicken Wrap (x9)</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1">
+        <v>45692.22928240741</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Notsla Daniel</v>
+      </c>
+      <c r="D7">
+        <v>9</v>
+      </c>
+      <c r="E7">
+        <v>800</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>36</v>
+      </c>
+      <c r="H7">
+        <v>11</v>
+      </c>
+      <c r="I7" t="str">
+        <v>Butterscotch Lassi (x8)</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>45692.22928240741</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D8">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>900</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+      <c r="H8">
+        <v>11</v>
+      </c>
+      <c r="I8" t="str">
+        <v>Chicken Burger (x3), Butterscotch Lassi (x7)</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1">
+        <v>45687.22928240741</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>130</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
-        <v>45672.22928240741</v>
-      </c>
-      <c r="C5" t="str">
-        <v>Reevan</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5">
-        <v>500</v>
-      </c>
-      <c r="F5">
-        <v>3</v>
-      </c>
-      <c r="G5">
-        <v>4</v>
-      </c>
-      <c r="H5">
-        <v>7</v>
-      </c>
-      <c r="I5" t="str">
-        <v>Chicken Burger (x2), Chicken Cheese Burger (x2), Vanilla Shake (x1), Oreo Shake (x2), Mango Lassi (x4)</v>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9" t="str">
+        <v>Chicken Burger (x3), Mango Lassi (x1)</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I9"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/export.xlsx
+++ b/export.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -429,244 +429,847 @@
         <v>Tax (₹)</v>
       </c>
       <c r="I1" t="str">
+        <v>Reason</v>
+      </c>
+      <c r="J1" t="str">
         <v>Food Items</v>
       </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B2" s="1">
-        <v>45693.22928240741</v>
+        <v>45697.22928240741</v>
       </c>
       <c r="C2" t="str">
-        <v>Reevan</v>
+        <v>Ajay Francis Anchan</v>
       </c>
       <c r="D2">
-        <v>121</v>
+        <v>5</v>
       </c>
       <c r="E2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="I2" t="str">
-        <v>Mango Lassi (x9)</v>
+        <v>s</v>
+      </c>
+      <c r="J2" t="str">
+        <v>Lime Juice (x2)</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B3" s="1">
-        <v>45693.22928240741</v>
+        <v>45697.22928240741</v>
       </c>
       <c r="C3" t="str">
-        <v>Karthik</v>
+        <v>Ajay Francis Anchan</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E3">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="F3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H3">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="I3" t="str">
-        <v>Vanilla Shake (x4)</v>
+        <v>dsf</v>
+      </c>
+      <c r="J3" t="str">
+        <v>Mint Lime (x2), Lime Juice (x3), Watermelon Juice (x2), Weed (x2)</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B4" s="1">
-        <v>45693.22928240741</v>
+        <v>45697.22928240741</v>
       </c>
       <c r="C4" t="str">
-        <v>Reevan</v>
+        <v>Ajay Francis Anchan</v>
       </c>
       <c r="D4">
-        <v>111</v>
+        <v>10</v>
       </c>
       <c r="E4">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="I4" t="str">
-        <v>Veg Cheese Pops (x1)</v>
+        <v>asdsd</v>
+      </c>
+      <c r="J4" t="str">
+        <v>Chicken Cheese Burger (x1), 8PM Coffee (x2)</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B5" s="1">
-        <v>45693.22928240741</v>
+        <v>45697.22928240741</v>
       </c>
       <c r="C5" t="str">
-        <v>Karthik</v>
+        <v>Ajay Francis Anchan</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E5">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="F5">
-        <v>8</v>
+        <v>2.6</v>
       </c>
       <c r="G5">
-        <v>8</v>
+        <v>2.6</v>
       </c>
       <c r="H5">
-        <v>16</v>
+        <v>5.2</v>
       </c>
       <c r="I5" t="str">
-        <v>Strawberry Shake (x3)</v>
+        <v>dsgsgd</v>
+      </c>
+      <c r="J5" t="str">
+        <v>Vanilla Shake (x2), Chicken Borgir (x2)</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B6" s="1">
-        <v>45692.22928240741</v>
+        <v>45697.22928240741</v>
       </c>
       <c r="C6" t="str">
         <v>Ajay Francis Anchan</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E6">
-        <v>870</v>
+        <v>180</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="I6" t="str">
-        <v>Chicken Wrap (x9)</v>
+        <v>ygug</v>
+      </c>
+      <c r="J6" t="str">
+        <v>Chicken Borgir (x2), Chicken Cheese Burger (x1)</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B7" s="1">
-        <v>45692.22928240741</v>
+        <v>45697.22928240741</v>
       </c>
       <c r="C7" t="str">
-        <v>Notsla Daniel</v>
+        <v>Ajay Francis Anchan</v>
       </c>
       <c r="D7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E7">
-        <v>800</v>
+        <v>240</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="G7">
-        <v>36</v>
+        <v>3.6</v>
       </c>
       <c r="H7">
-        <v>11</v>
+        <v>7.2</v>
       </c>
       <c r="I7" t="str">
-        <v>Butterscotch Lassi (x8)</v>
+        <v>dsfs</v>
+      </c>
+      <c r="J7" t="str">
+        <v>Chicken Borgir (x2), Chicken Cheese Burger (x2)</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B8" s="1">
-        <v>45692.22928240741</v>
+        <v>45697.22928240741</v>
       </c>
       <c r="C8" t="str">
         <v>Ajay Francis Anchan</v>
       </c>
       <c r="D8">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E8">
-        <v>900</v>
+        <v>130</v>
       </c>
       <c r="F8">
-        <v>5</v>
+        <v>1.43</v>
       </c>
       <c r="G8">
-        <v>6</v>
+        <v>1.43</v>
       </c>
       <c r="H8">
-        <v>11</v>
+        <v>2.85</v>
       </c>
       <c r="I8" t="str">
-        <v>Chicken Burger (x3), Butterscotch Lassi (x7)</v>
+        <v>y</v>
+      </c>
+      <c r="J8" t="str">
+        <v>Oreo Shake (x1), Strawberry Lassi (x1), Vanilla Shake (x1)</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
+        <v>21</v>
+      </c>
+      <c r="B9" s="1">
+        <v>45697.22928240741</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>80</v>
+      </c>
+      <c r="F9">
+        <v>0.8</v>
+      </c>
+      <c r="G9">
+        <v>0.8</v>
+      </c>
+      <c r="H9">
+        <v>1.6</v>
+      </c>
+      <c r="I9" t="str">
+        <v>hard coffee hard cock</v>
+      </c>
+      <c r="J9" t="str">
+        <v>Hard Rock Coffee (x2)</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>20</v>
+      </c>
+      <c r="B10" s="1">
+        <v>45697.22928240741</v>
+      </c>
+      <c r="C10" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>360</v>
+      </c>
+      <c r="F10">
+        <v>5.55</v>
+      </c>
+      <c r="G10">
+        <v>5.55</v>
+      </c>
+      <c r="H10">
+        <v>11.1</v>
+      </c>
+      <c r="I10" t="str">
+        <v>ajsldj</v>
+      </c>
+      <c r="J10" t="str">
+        <v>Chicken Cheese Pops (x1), Veg Cheese Pops (x1), Chicken Borgir (x2), Butterscotch Lassi (x1), Strawberry Lassi (x1)</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1">
+        <v>45697.22928240741</v>
+      </c>
+      <c r="C11" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>1615</v>
+      </c>
+      <c r="F11">
+        <v>19.6</v>
+      </c>
+      <c r="G11">
+        <v>20.35</v>
+      </c>
+      <c r="H11">
+        <v>39.05</v>
+      </c>
+      <c r="I11" t="str">
+        <v>sdf</v>
+      </c>
+      <c r="J11" t="str">
+        <v>Chicken Borgir (x3), Mango Lassi (x1), Vanilla Shake (x2), Butterscotch Lassi (x1), Chicken Wrap (x1), Veg Wrap (x1), Banana Shake (x1), Black Currant Shake (x1), Strawberry Shake (x1), Chocolate Shake (x1), 8PM Coffee (x1), Coffee Italia (x1), Lime Juice (x2), Watermelon Juice (x2), Peri Peri Fries (x1), Hard Rock Coffee (x1), Chicken Momos (x1), Pomogranate Juice (x2), Strawberry Lassi (x1), Chicken Cheese Burger (x3), Oreo Shake (x1), Weed (x2)</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>18</v>
+      </c>
+      <c r="B12" s="1">
+        <v>45697.22928240741</v>
+      </c>
+      <c r="C12" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>1715</v>
+      </c>
+      <c r="F12">
+        <v>20.6</v>
+      </c>
+      <c r="G12">
+        <v>21.35</v>
+      </c>
+      <c r="H12">
+        <v>41.05</v>
+      </c>
+      <c r="I12" t="str">
+        <v>bnfj</v>
+      </c>
+      <c r="J12" t="str">
+        <v>Chicken Borgir (x3), Chicken Cheese Burger (x3), Vanilla Shake (x2), Butterscotch Lassi (x1), Chicken Wrap (x1), Veg Wrap (x1), Banana Shake (x1), Black Currant Shake (x1), Strawberry Shake (x1), Chocolate Shake (x1), Hard Rock Coffee (x1), 8PM Coffee (x1), Coffee Italia (x1), Belgian Coffee (x1), Lime Juice (x2), Mint Lime (x2), Watermelon Juice (x2), Peri Peri Fries (x1), Chicken Momos (x1), Pomogranate Juice (x2), Weed (x2), Mango Lassi (x1), Strawberry Lassi (x1), Oreo Shake (x1)</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>17</v>
+      </c>
+      <c r="B13" s="1">
+        <v>45697.22928240741</v>
+      </c>
+      <c r="C13" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D13">
         <v>1</v>
       </c>
-      <c r="B9" s="1">
+      <c r="E13">
+        <v>1795</v>
+      </c>
+      <c r="F13">
+        <v>23.8</v>
+      </c>
+      <c r="G13">
+        <v>24.55</v>
+      </c>
+      <c r="H13">
+        <v>47.69</v>
+      </c>
+      <c r="I13" t="str">
+        <v>kjhk</v>
+      </c>
+      <c r="J13" t="str">
+        <v>Oreo Shake (x1), Mango Lassi (x1), Strawberry Lassi (x1), Chicken Borgir (x3), Chicken Wrap (x1), Veg Wrap (x1), Banana Shake (x1), Black Currant Shake (x1), Strawberry Shake (x1), Chocolate Shake (x1), 8PM Coffee (x1), Hard Rock Coffee (x1), Coffee Italia (x1), Belgian Coffee (x1), Lime Juice (x2), Mint Lime (x2), Watermelon Juice (x2), Peri Peri Fries (x1), Chicken Momos (x1), Veg Momos (x1), Pomogranate Juice (x2), Vanilla Shake (x2), Weed (x2), Chicken Cheese Burger (x3), Butterscotch Lassi (x1)</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>16</v>
+      </c>
+      <c r="B14" s="1">
+        <v>45697.22928240741</v>
+      </c>
+      <c r="C14" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>840</v>
+      </c>
+      <c r="F14">
+        <v>9</v>
+      </c>
+      <c r="G14">
+        <v>9</v>
+      </c>
+      <c r="H14">
+        <v>18</v>
+      </c>
+      <c r="I14" t="str">
+        <v>fuck</v>
+      </c>
+      <c r="J14" t="str">
+        <v>Vanilla Shake (x4), Coffee Italia (x5), Butterscotch Lassi (x2), Hard Rock Coffee (x3), 8PM Coffee (x6)</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1">
+        <v>45696.22928240741</v>
+      </c>
+      <c r="C15" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>360</v>
+      </c>
+      <c r="F15">
+        <v>4.1</v>
+      </c>
+      <c r="G15">
+        <v>4.1</v>
+      </c>
+      <c r="H15">
+        <v>8.2</v>
+      </c>
+      <c r="I15" t="str">
+        <v>ug</v>
+      </c>
+      <c r="J15" t="str">
+        <v>Vanilla Shake (x4), Oreo Shake (x4)</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
+        <v>45696.22928240741</v>
+      </c>
+      <c r="C16" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>360</v>
+      </c>
+      <c r="F16">
+        <v>4.1</v>
+      </c>
+      <c r="G16">
+        <v>4.1</v>
+      </c>
+      <c r="H16">
+        <v>8.2</v>
+      </c>
+      <c r="I16" t="str">
+        <v>I hate my life</v>
+      </c>
+      <c r="J16" t="str">
+        <v>Oreo Shake (x4), Vanilla Shake (x4)</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="B17" s="1">
+        <v>45693.22928240741</v>
+      </c>
+      <c r="C17" t="str">
+        <v>Reevan</v>
+      </c>
+      <c r="D17">
+        <v>121</v>
+      </c>
+      <c r="E17">
+        <v>50</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17" t="str">
+        <v>lkj</v>
+      </c>
+      <c r="J17" t="str">
+        <v>Mango Lassi (x9)</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>12</v>
+      </c>
+      <c r="B18" s="1">
+        <v>45693.22928240741</v>
+      </c>
+      <c r="C18" t="str">
+        <v>Karthik</v>
+      </c>
+      <c r="D18">
+        <v>12</v>
+      </c>
+      <c r="E18">
+        <v>450</v>
+      </c>
+      <c r="F18">
+        <v>8</v>
+      </c>
+      <c r="G18">
+        <v>8</v>
+      </c>
+      <c r="H18">
+        <v>16</v>
+      </c>
+      <c r="I18" t="str">
+        <v>skibidi</v>
+      </c>
+      <c r="J18" t="str">
+        <v>Vanilla Shake (x4)</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>11</v>
+      </c>
+      <c r="B19" s="1">
+        <v>45693.22928240741</v>
+      </c>
+      <c r="C19" t="str">
+        <v>Reevan</v>
+      </c>
+      <c r="D19">
+        <v>111</v>
+      </c>
+      <c r="E19">
+        <v>50</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="I19" t="str">
+        <v>gimme mony</v>
+      </c>
+      <c r="J19" t="str">
+        <v>Veg Cheese Pops (x1)</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>10</v>
+      </c>
+      <c r="B20" s="1">
+        <v>45693.22928240741</v>
+      </c>
+      <c r="C20" t="str">
+        <v>Karthik</v>
+      </c>
+      <c r="D20">
+        <v>11</v>
+      </c>
+      <c r="E20">
+        <v>450</v>
+      </c>
+      <c r="F20">
+        <v>8</v>
+      </c>
+      <c r="G20">
+        <v>8</v>
+      </c>
+      <c r="H20">
+        <v>16</v>
+      </c>
+      <c r="I20" t="str">
+        <v>I hate the number 10</v>
+      </c>
+      <c r="J20" t="str">
+        <v>Strawberry Shake (x3)</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>254</v>
+      </c>
+      <c r="B21" s="1">
+        <v>45692.22928240741</v>
+      </c>
+      <c r="C21" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D21">
+        <v>909</v>
+      </c>
+      <c r="E21">
+        <v>565</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+      <c r="G21">
+        <v>3</v>
+      </c>
+      <c r="H21">
+        <v>7</v>
+      </c>
+      <c r="I21" t="str">
+        <v>Placement Department ran out of money</v>
+      </c>
+      <c r="J21" t="str">
+        <v>Butterscotch Lassi (x2), Chicken Wrap (x6)</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>9</v>
+      </c>
+      <c r="B22" s="1">
+        <v>45692.22928240741</v>
+      </c>
+      <c r="C22" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D22">
+        <v>10</v>
+      </c>
+      <c r="E22">
+        <v>870</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22" t="str">
+        <v>kjlkj</v>
+      </c>
+      <c r="J22" t="str">
+        <v>Chicken Wrap (x9)</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>8</v>
+      </c>
+      <c r="B23" s="1">
+        <v>45692.22928240741</v>
+      </c>
+      <c r="C23" t="str">
+        <v>notslan Daniel</v>
+      </c>
+      <c r="D23">
+        <v>9</v>
+      </c>
+      <c r="E23">
+        <v>800</v>
+      </c>
+      <c r="F23">
+        <v>5</v>
+      </c>
+      <c r="G23">
+        <v>36</v>
+      </c>
+      <c r="H23">
+        <v>11</v>
+      </c>
+      <c r="I23" t="str">
+        <v>ijlj</v>
+      </c>
+      <c r="J23" t="str">
+        <v>Butterscotch Lassi (x8)</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>7</v>
+      </c>
+      <c r="B24" s="1">
+        <v>45692.22928240741</v>
+      </c>
+      <c r="C24" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D24">
+        <v>8</v>
+      </c>
+      <c r="E24">
+        <v>900</v>
+      </c>
+      <c r="F24">
+        <v>5</v>
+      </c>
+      <c r="G24">
+        <v>6</v>
+      </c>
+      <c r="H24">
+        <v>11</v>
+      </c>
+      <c r="I24" t="str">
+        <v>srcdf</v>
+      </c>
+      <c r="J24" t="str">
+        <v>Chicken Borgir (x3), Butterscotch Lassi (x7)</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>244</v>
+      </c>
+      <c r="B25" s="1">
         <v>45687.22928240741</v>
       </c>
-      <c r="C9" t="str">
-        <v>Ajay Francis Anchan</v>
-      </c>
-      <c r="D9">
+      <c r="C25" t="str">
+        <v>notslan Daniel</v>
+      </c>
+      <c r="D25">
+        <v>849</v>
+      </c>
+      <c r="E25">
+        <v>65</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+      <c r="G25">
+        <v>3</v>
+      </c>
+      <c r="H25">
+        <v>7</v>
+      </c>
+      <c r="I25" t="str">
+        <v>Vegetarian got meat in the mouth</v>
+      </c>
+      <c r="J25" t="str">
+        <v>Black Currant Shake (x4), Chicken Cheese Burger (x1)</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
         <v>1</v>
       </c>
-      <c r="E9">
+      <c r="B26" s="1">
+        <v>45687.22928240741</v>
+      </c>
+      <c r="C26" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
         <v>130</v>
       </c>
-      <c r="F9">
+      <c r="F26">
         <v>2</v>
       </c>
-      <c r="G9">
+      <c r="G26">
         <v>3</v>
       </c>
-      <c r="H9">
+      <c r="H26">
         <v>5</v>
       </c>
-      <c r="I9" t="str">
-        <v>Chicken Burger (x3), Mango Lassi (x1)</v>
+      <c r="I26" t="str">
+        <v>dgcg</v>
+      </c>
+      <c r="J26" t="str">
+        <v>Chicken Borgir (x3), Mango Lassi (x1)</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27" s="1">
+        <v>45686.22928240741</v>
+      </c>
+      <c r="C27" t="str">
+        <v>Karthik</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>790</v>
+      </c>
+      <c r="F27">
+        <v>10</v>
+      </c>
+      <c r="G27">
+        <v>5</v>
+      </c>
+      <c r="H27">
+        <v>15</v>
+      </c>
+      <c r="I27" t="str">
+        <v>kjjjk</v>
+      </c>
+      <c r="J27" t="str">
+        <v>Vanilla Shake (x4), Mango Lassi (x2)</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I9"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J27"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/export.xlsx
+++ b/export.xlsx
@@ -398,14 +398,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>Bill No ▲</v>
+        <v>Bill No</v>
       </c>
       <c r="B1" t="str">
         <v>Date</v>
@@ -429,70 +429,47 @@
         <v>Tax (₹)</v>
       </c>
       <c r="I1" t="str">
+        <v>Reason</v>
+      </c>
+      <c r="J1" t="str">
         <v>Food Items</v>
       </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B2" s="1">
-        <v>45702.22928240741</v>
+        <v>45703.22928240741</v>
       </c>
       <c r="C2" t="str">
         <v>Ajay Francis Anchan</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>420</v>
+        <v>240</v>
       </c>
       <c r="F2">
-        <v>6.3</v>
+        <v>7.2</v>
       </c>
       <c r="G2">
-        <v>6.3</v>
+        <v>7.2</v>
       </c>
       <c r="H2">
-        <v>12.6</v>
+        <v>14.4</v>
       </c>
       <c r="I2" t="str">
-        <v>Chicken Wrap (x7)</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>137</v>
-      </c>
-      <c r="B3" s="1">
-        <v>45702.22928240741</v>
-      </c>
-      <c r="C3" t="str">
-        <v>Ajay Francis Anchan</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>152</v>
-      </c>
-      <c r="F3">
-        <v>2.2</v>
-      </c>
-      <c r="G3">
-        <v>2.2</v>
-      </c>
-      <c r="H3">
-        <v>4.4</v>
-      </c>
-      <c r="I3" t="str">
-        <v>Mango Lassi (x1), Strawberry Lassi (x1), Butterscotch Lassi (x1)</v>
+        <v>dsf</v>
+      </c>
+      <c r="J2" t="str">
+        <v>Chicken Schezwan Sandwich (x1), Veg Schezwan Sandwich (x1), Chicken Sandwich (x1), Veg Sandwich (x1)</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J2"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/export.xlsx
+++ b/export.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -429,47 +429,99 @@
         <v>Tax (₹)</v>
       </c>
       <c r="I1" t="str">
-        <v>Reason</v>
-      </c>
-      <c r="J1" t="str">
         <v>Food Items</v>
       </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="B2" s="1">
-        <v>45703.22928240741</v>
+        <v>45704.22928240741</v>
       </c>
       <c r="C2" t="str">
         <v>Ajay Francis Anchan</v>
       </c>
       <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>40</v>
+      </c>
+      <c r="F2">
+        <v>0.4</v>
+      </c>
+      <c r="G2">
+        <v>0.4</v>
+      </c>
+      <c r="H2">
+        <v>0.8</v>
+      </c>
+      <c r="I2" t="str">
+        <v>Belgian Coffee (x1)</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>162</v>
+      </c>
+      <c r="B3" s="1">
+        <v>45704.22928240741</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D3">
         <v>3</v>
       </c>
-      <c r="E2">
-        <v>240</v>
-      </c>
-      <c r="F2">
-        <v>7.2</v>
-      </c>
-      <c r="G2">
-        <v>7.2</v>
-      </c>
-      <c r="H2">
-        <v>14.4</v>
-      </c>
-      <c r="I2" t="str">
-        <v>dsf</v>
-      </c>
-      <c r="J2" t="str">
-        <v>Chicken Schezwan Sandwich (x1), Veg Schezwan Sandwich (x1), Chicken Sandwich (x1), Veg Sandwich (x1)</v>
+      <c r="E3">
+        <v>80</v>
+      </c>
+      <c r="F3">
+        <v>0.8</v>
+      </c>
+      <c r="G3">
+        <v>0.8</v>
+      </c>
+      <c r="H3">
+        <v>1.6</v>
+      </c>
+      <c r="I3" t="str">
+        <v>8PM Coffee (x1), Coffee Italia (x1)</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>160</v>
+      </c>
+      <c r="B4" s="1">
+        <v>45704.22928240741</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>120</v>
+      </c>
+      <c r="F4">
+        <v>2.73</v>
+      </c>
+      <c r="G4">
+        <v>2.73</v>
+      </c>
+      <c r="H4">
+        <v>5.45</v>
+      </c>
+      <c r="I4" t="str">
+        <v>Veg Wrap (x1), Chicken Schezwan Wrap (x1)</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/export.xlsx
+++ b/export.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -434,94 +434,326 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>163</v>
+        <v>197</v>
       </c>
       <c r="B2" s="1">
-        <v>45704.22928240741</v>
+        <v>45706.22928240741</v>
       </c>
       <c r="C2" t="str">
         <v>Ajay Francis Anchan</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E2">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="F2">
-        <v>0.4</v>
+        <v>1.8</v>
       </c>
       <c r="G2">
-        <v>0.4</v>
+        <v>1.8</v>
       </c>
       <c r="H2">
-        <v>0.8</v>
+        <v>3.6</v>
       </c>
       <c r="I2" t="str">
-        <v>Belgian Coffee (x1)</v>
+        <v>Mango Lassi (x2)</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>162</v>
+        <v>196</v>
       </c>
       <c r="B3" s="1">
-        <v>45704.22928240741</v>
+        <v>45706.22928240741</v>
       </c>
       <c r="C3" t="str">
         <v>Ajay Francis Anchan</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E3">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="F3">
-        <v>0.8</v>
+        <v>2.2</v>
       </c>
       <c r="G3">
-        <v>0.8</v>
+        <v>2.2</v>
       </c>
       <c r="H3">
-        <v>1.6</v>
+        <v>4.4</v>
       </c>
       <c r="I3" t="str">
-        <v>8PM Coffee (x1), Coffee Italia (x1)</v>
+        <v>Chicken Burger (x1), Chicken Cheese Burger (x1), Vanilla Shake (x1)</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
+        <v>195</v>
+      </c>
+      <c r="B4" s="1">
+        <v>45706.22928240741</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D4">
+        <v>14</v>
+      </c>
+      <c r="E4">
+        <v>140</v>
+      </c>
+      <c r="F4">
+        <v>1.4</v>
+      </c>
+      <c r="G4">
+        <v>1.4</v>
+      </c>
+      <c r="H4">
+        <v>2.8</v>
+      </c>
+      <c r="I4" t="str">
+        <v>Strawberry Lassi (x1), Banana Shake (x2)</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>192</v>
+      </c>
+      <c r="B5" s="1">
+        <v>45706.22928240741</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D5">
+        <v>13</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+      <c r="F5">
+        <v>1.3</v>
+      </c>
+      <c r="G5">
+        <v>1.3</v>
+      </c>
+      <c r="H5">
+        <v>2.6</v>
+      </c>
+      <c r="I5" t="str">
+        <v>Strawberry Lassi (x1), Butterscotch Lassi (x1)</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>191</v>
+      </c>
+      <c r="B6" s="1">
+        <v>45706.22928240741</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D6">
+        <v>12</v>
+      </c>
+      <c r="E6">
         <v>160</v>
       </c>
-      <c r="B4" s="1">
-        <v>45704.22928240741</v>
-      </c>
-      <c r="C4" t="str">
-        <v>Ajay Francis Anchan</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
+      <c r="F6">
+        <v>2.2</v>
+      </c>
+      <c r="G6">
+        <v>2.2</v>
+      </c>
+      <c r="H6">
+        <v>4.4</v>
+      </c>
+      <c r="I6" t="str">
+        <v>Strawberry Lassi (x1), Butterscotch Lassi (x1), Chicken Wrap (x1)</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>185</v>
+      </c>
+      <c r="B7" s="1">
+        <v>45706.22928240741</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>1.3</v>
+      </c>
+      <c r="G7">
+        <v>1.3</v>
+      </c>
+      <c r="H7">
+        <v>2.6</v>
+      </c>
+      <c r="I7" t="str">
+        <v>Mango Lassi (x1), Strawberry Lassi (x1)</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>184</v>
+      </c>
+      <c r="B8" s="1">
+        <v>45706.22928240741</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D8">
+        <v>9</v>
+      </c>
+      <c r="E8">
         <v>120</v>
       </c>
-      <c r="F4">
-        <v>2.73</v>
-      </c>
-      <c r="G4">
-        <v>2.73</v>
-      </c>
-      <c r="H4">
-        <v>5.45</v>
-      </c>
-      <c r="I4" t="str">
-        <v>Veg Wrap (x1), Chicken Schezwan Wrap (x1)</v>
+      <c r="F8">
+        <v>1.8</v>
+      </c>
+      <c r="G8">
+        <v>1.8</v>
+      </c>
+      <c r="H8">
+        <v>3.6</v>
+      </c>
+      <c r="I8" t="str">
+        <v>Butterscotch Lassi (x1), Chicken Wrap (x1)</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>183</v>
+      </c>
+      <c r="B9" s="1">
+        <v>45706.22928240741</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>120</v>
+      </c>
+      <c r="F9">
+        <v>1.73</v>
+      </c>
+      <c r="G9">
+        <v>1.73</v>
+      </c>
+      <c r="H9">
+        <v>3.45</v>
+      </c>
+      <c r="I9" t="str">
+        <v>Veg Cheese Pops (x1), Banana Shake (x1)</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>182</v>
+      </c>
+      <c r="B10" s="1">
+        <v>45706.22928240741</v>
+      </c>
+      <c r="C10" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D10">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>70</v>
+      </c>
+      <c r="F10">
+        <v>1.23</v>
+      </c>
+      <c r="G10">
+        <v>1.23</v>
+      </c>
+      <c r="H10">
+        <v>2.45</v>
+      </c>
+      <c r="I10" t="str">
+        <v>Chicken Cheese Pops (x1)</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>181</v>
+      </c>
+      <c r="B11" s="1">
+        <v>45706.22928240741</v>
+      </c>
+      <c r="C11" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D11">
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>100</v>
+      </c>
+      <c r="F11">
+        <v>1.3</v>
+      </c>
+      <c r="G11">
+        <v>1.3</v>
+      </c>
+      <c r="H11">
+        <v>2.6</v>
+      </c>
+      <c r="I11" t="str">
+        <v>Strawberry Lassi (x1), Butterscotch Lassi (x1)</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>180</v>
+      </c>
+      <c r="B12" s="1">
+        <v>45706.22928240741</v>
+      </c>
+      <c r="C12" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>60</v>
+      </c>
+      <c r="F12">
+        <v>0.9</v>
+      </c>
+      <c r="G12">
+        <v>0.9</v>
+      </c>
+      <c r="H12">
+        <v>1.8</v>
+      </c>
+      <c r="I12" t="str">
+        <v>Chicken Cheese Burger (x1)</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I12"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/export.xlsx
+++ b/export.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -434,16 +434,16 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="B2" s="1">
-        <v>45706.22928240741</v>
+        <v>45708.22928240741</v>
       </c>
       <c r="C2" t="str">
         <v>Ajay Francis Anchan</v>
       </c>
       <c r="D2">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>120</v>
@@ -458,302 +458,12 @@
         <v>3.6</v>
       </c>
       <c r="I2" t="str">
-        <v>Mango Lassi (x2)</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>196</v>
-      </c>
-      <c r="B3" s="1">
-        <v>45706.22928240741</v>
-      </c>
-      <c r="C3" t="str">
-        <v>Ajay Francis Anchan</v>
-      </c>
-      <c r="D3">
-        <v>15</v>
-      </c>
-      <c r="E3">
-        <v>160</v>
-      </c>
-      <c r="F3">
-        <v>2.2</v>
-      </c>
-      <c r="G3">
-        <v>2.2</v>
-      </c>
-      <c r="H3">
-        <v>4.4</v>
-      </c>
-      <c r="I3" t="str">
-        <v>Chicken Burger (x1), Chicken Cheese Burger (x1), Vanilla Shake (x1)</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4">
-        <v>195</v>
-      </c>
-      <c r="B4" s="1">
-        <v>45706.22928240741</v>
-      </c>
-      <c r="C4" t="str">
-        <v>Ajay Francis Anchan</v>
-      </c>
-      <c r="D4">
-        <v>14</v>
-      </c>
-      <c r="E4">
-        <v>140</v>
-      </c>
-      <c r="F4">
-        <v>1.4</v>
-      </c>
-      <c r="G4">
-        <v>1.4</v>
-      </c>
-      <c r="H4">
-        <v>2.8</v>
-      </c>
-      <c r="I4" t="str">
-        <v>Strawberry Lassi (x1), Banana Shake (x2)</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5">
-        <v>192</v>
-      </c>
-      <c r="B5" s="1">
-        <v>45706.22928240741</v>
-      </c>
-      <c r="C5" t="str">
-        <v>Ajay Francis Anchan</v>
-      </c>
-      <c r="D5">
-        <v>13</v>
-      </c>
-      <c r="E5">
-        <v>100</v>
-      </c>
-      <c r="F5">
-        <v>1.3</v>
-      </c>
-      <c r="G5">
-        <v>1.3</v>
-      </c>
-      <c r="H5">
-        <v>2.6</v>
-      </c>
-      <c r="I5" t="str">
-        <v>Strawberry Lassi (x1), Butterscotch Lassi (x1)</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6">
-        <v>191</v>
-      </c>
-      <c r="B6" s="1">
-        <v>45706.22928240741</v>
-      </c>
-      <c r="C6" t="str">
-        <v>Ajay Francis Anchan</v>
-      </c>
-      <c r="D6">
-        <v>12</v>
-      </c>
-      <c r="E6">
-        <v>160</v>
-      </c>
-      <c r="F6">
-        <v>2.2</v>
-      </c>
-      <c r="G6">
-        <v>2.2</v>
-      </c>
-      <c r="H6">
-        <v>4.4</v>
-      </c>
-      <c r="I6" t="str">
-        <v>Strawberry Lassi (x1), Butterscotch Lassi (x1), Chicken Wrap (x1)</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7">
-        <v>185</v>
-      </c>
-      <c r="B7" s="1">
-        <v>45706.22928240741</v>
-      </c>
-      <c r="C7" t="str">
-        <v>Ajay Francis Anchan</v>
-      </c>
-      <c r="D7">
-        <v>10</v>
-      </c>
-      <c r="E7">
-        <v>10</v>
-      </c>
-      <c r="F7">
-        <v>1.3</v>
-      </c>
-      <c r="G7">
-        <v>1.3</v>
-      </c>
-      <c r="H7">
-        <v>2.6</v>
-      </c>
-      <c r="I7" t="str">
-        <v>Mango Lassi (x1), Strawberry Lassi (x1)</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8">
-        <v>184</v>
-      </c>
-      <c r="B8" s="1">
-        <v>45706.22928240741</v>
-      </c>
-      <c r="C8" t="str">
-        <v>Ajay Francis Anchan</v>
-      </c>
-      <c r="D8">
-        <v>9</v>
-      </c>
-      <c r="E8">
-        <v>120</v>
-      </c>
-      <c r="F8">
-        <v>1.8</v>
-      </c>
-      <c r="G8">
-        <v>1.8</v>
-      </c>
-      <c r="H8">
-        <v>3.6</v>
-      </c>
-      <c r="I8" t="str">
-        <v>Butterscotch Lassi (x1), Chicken Wrap (x1)</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9">
-        <v>183</v>
-      </c>
-      <c r="B9" s="1">
-        <v>45706.22928240741</v>
-      </c>
-      <c r="C9" t="str">
-        <v>Ajay Francis Anchan</v>
-      </c>
-      <c r="D9">
-        <v>8</v>
-      </c>
-      <c r="E9">
-        <v>120</v>
-      </c>
-      <c r="F9">
-        <v>1.73</v>
-      </c>
-      <c r="G9">
-        <v>1.73</v>
-      </c>
-      <c r="H9">
-        <v>3.45</v>
-      </c>
-      <c r="I9" t="str">
-        <v>Veg Cheese Pops (x1), Banana Shake (x1)</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10">
-        <v>182</v>
-      </c>
-      <c r="B10" s="1">
-        <v>45706.22928240741</v>
-      </c>
-      <c r="C10" t="str">
-        <v>Ajay Francis Anchan</v>
-      </c>
-      <c r="D10">
-        <v>7</v>
-      </c>
-      <c r="E10">
-        <v>70</v>
-      </c>
-      <c r="F10">
-        <v>1.23</v>
-      </c>
-      <c r="G10">
-        <v>1.23</v>
-      </c>
-      <c r="H10">
-        <v>2.45</v>
-      </c>
-      <c r="I10" t="str">
-        <v>Chicken Cheese Pops (x1)</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11">
-        <v>181</v>
-      </c>
-      <c r="B11" s="1">
-        <v>45706.22928240741</v>
-      </c>
-      <c r="C11" t="str">
-        <v>Ajay Francis Anchan</v>
-      </c>
-      <c r="D11">
-        <v>6</v>
-      </c>
-      <c r="E11">
-        <v>100</v>
-      </c>
-      <c r="F11">
-        <v>1.3</v>
-      </c>
-      <c r="G11">
-        <v>1.3</v>
-      </c>
-      <c r="H11">
-        <v>2.6</v>
-      </c>
-      <c r="I11" t="str">
-        <v>Strawberry Lassi (x1), Butterscotch Lassi (x1)</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12">
-        <v>180</v>
-      </c>
-      <c r="B12" s="1">
-        <v>45706.22928240741</v>
-      </c>
-      <c r="C12" t="str">
-        <v>Ajay Francis Anchan</v>
-      </c>
-      <c r="D12">
-        <v>5</v>
-      </c>
-      <c r="E12">
-        <v>60</v>
-      </c>
-      <c r="F12">
-        <v>0.9</v>
-      </c>
-      <c r="G12">
-        <v>0.9</v>
-      </c>
-      <c r="H12">
-        <v>1.8</v>
-      </c>
-      <c r="I12" t="str">
-        <v>Chicken Cheese Burger (x1)</v>
+        <v>Butterscotch Lassi (x2)</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I12"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I2"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/export.xlsx
+++ b/export.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -434,36 +434,2385 @@
     </row>
     <row r="2">
       <c r="A2">
+        <v>229</v>
+      </c>
+      <c r="B2" s="1">
+        <v>45709.22928240741</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>1655</v>
+      </c>
+      <c r="F2">
+        <v>31.35</v>
+      </c>
+      <c r="G2">
+        <v>32.6</v>
+      </c>
+      <c r="H2">
+        <v>63.54</v>
+      </c>
+      <c r="I2" t="str">
+        <v>Chicken Burger (x1), Chicken Cheese Burger (x1), Vanilla Shake (x1), Oreo Shake (x1), Mango Lassi (x1), Strawberry Lassi (x1), Butterscotch Lassi (x1), Chicken Wrap (x1), Veg Wrap (x1), Chicken Cheese Pops (x1), Veg Cheese Pops (x1), Banana Shake (x1), Black Currant Shake (x1), Strawberry Shake (x1), Chocolate Shake (x1), Hard Rock Coffee (x1), 8PM Coffee (x1), Coffee Italia (x1), Belgian Coffee (x1), Lime Juice (x1), Mint Lime (x1), Watermelon Juice (x1), Peri Peri Fries (x1), Chicken Sandwich (x1), Chicken Momos (x1), Veg Burger (x1), Veg Cheese Burger (x1), Veg Sandwich (x1), Chicken Schezwan Wrap (x1), Veg Momos (x1), Veg Schezwan Wrap (x1), Veg Schezwan Sandwich (x1)</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>228</v>
+      </c>
+      <c r="B3" s="1">
+        <v>45709.22928240741</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D3">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>520</v>
+      </c>
+      <c r="F3">
+        <v>5.8</v>
+      </c>
+      <c r="G3">
+        <v>5.8</v>
+      </c>
+      <c r="H3">
+        <v>11.6</v>
+      </c>
+      <c r="I3" t="str">
+        <v>Chicken Cheese Burger (x2), Vanilla Shake (x10)</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>227</v>
+      </c>
+      <c r="B4" s="1">
+        <v>45709.22928240741</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D4">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>80</v>
+      </c>
+      <c r="F4">
+        <v>0.8</v>
+      </c>
+      <c r="G4">
+        <v>0.8</v>
+      </c>
+      <c r="H4">
+        <v>1.6</v>
+      </c>
+      <c r="I4" t="str">
+        <v>Hard Rock Coffee (x1), 8PM Coffee (x1)</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>226</v>
+      </c>
+      <c r="B5" s="1">
+        <v>45709.22928240741</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D5">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>40</v>
+      </c>
+      <c r="F5">
+        <v>0.4</v>
+      </c>
+      <c r="G5">
+        <v>0.4</v>
+      </c>
+      <c r="H5">
+        <v>0.8</v>
+      </c>
+      <c r="I5" t="str">
+        <v>Vanilla Shake (x1)</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>225</v>
+      </c>
+      <c r="B6" s="1">
+        <v>45709.22928240741</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>320</v>
+      </c>
+      <c r="F6">
+        <v>10.4</v>
+      </c>
+      <c r="G6">
+        <v>11.9</v>
+      </c>
+      <c r="H6">
+        <v>23.14</v>
+      </c>
+      <c r="I6" t="str">
+        <v>Veg Shezwan Momos (x1), Chicken Momos (x2), Veg Momos (x1)</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>224</v>
+      </c>
+      <c r="B7" s="1">
+        <v>45709.22928240741</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>280</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7">
+        <v>8</v>
+      </c>
+      <c r="I7" t="str">
+        <v>Strawberry Lassi (x1), Butterscotch Lassi (x1), Chicken Wrap (x3)</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>223</v>
+      </c>
+      <c r="B8" s="1">
+        <v>45709.22928240741</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>240</v>
+      </c>
+      <c r="F8">
+        <v>7.2</v>
+      </c>
+      <c r="G8">
+        <v>7.2</v>
+      </c>
+      <c r="H8">
+        <v>14.4</v>
+      </c>
+      <c r="I8" t="str">
+        <v>Veg Sandwich (x1), Chicken Schezwan Sandwich (x1), Veg Schezwan Sandwich (x2)</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>222</v>
+      </c>
+      <c r="B9" s="1">
+        <v>45709.22928240741</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>160</v>
+      </c>
+      <c r="F9">
+        <v>2.2</v>
+      </c>
+      <c r="G9">
+        <v>2.2</v>
+      </c>
+      <c r="H9">
+        <v>4.4</v>
+      </c>
+      <c r="I9" t="str">
+        <v>Mango Lassi (x1), Strawberry Lassi (x1), Butterscotch Lassi (x1)</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>221</v>
+      </c>
+      <c r="B10" s="1">
+        <v>45709.22928240741</v>
+      </c>
+      <c r="C10" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>180</v>
+      </c>
+      <c r="F10">
+        <v>2.7</v>
+      </c>
+      <c r="G10">
+        <v>2.7</v>
+      </c>
+      <c r="H10">
+        <v>5.4</v>
+      </c>
+      <c r="I10" t="str">
+        <v>Chicken Burger (x1), Mango Lassi (x2)</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>220</v>
+      </c>
+      <c r="B11" s="1">
+        <v>45709.22928240741</v>
+      </c>
+      <c r="C11" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>120</v>
+      </c>
+      <c r="F11">
+        <v>1.8</v>
+      </c>
+      <c r="G11">
+        <v>1.8</v>
+      </c>
+      <c r="H11">
+        <v>3.6</v>
+      </c>
+      <c r="I11" t="str">
+        <v>Chicken Burger (x2)</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>219</v>
+      </c>
+      <c r="B12" s="1">
+        <v>45708.22928240741</v>
+      </c>
+      <c r="C12" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>120</v>
+      </c>
+      <c r="F12">
+        <v>1.8</v>
+      </c>
+      <c r="G12">
+        <v>1.8</v>
+      </c>
+      <c r="H12">
+        <v>3.6</v>
+      </c>
+      <c r="I12" t="str">
+        <v>Mango Lassi (x2)</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
         <v>218</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B13" s="1">
         <v>45708.22928240741</v>
       </c>
-      <c r="C2" t="str">
-        <v>Ajay Francis Anchan</v>
-      </c>
-      <c r="D2">
+      <c r="C13" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D13">
         <v>1</v>
       </c>
-      <c r="E2">
+      <c r="E13">
         <v>120</v>
       </c>
-      <c r="F2">
-        <v>1.8</v>
-      </c>
-      <c r="G2">
-        <v>1.8</v>
-      </c>
-      <c r="H2">
+      <c r="F13">
+        <v>1.8</v>
+      </c>
+      <c r="G13">
+        <v>1.8</v>
+      </c>
+      <c r="H13">
         <v>3.6</v>
       </c>
-      <c r="I2" t="str">
+      <c r="I13" t="str">
         <v>Butterscotch Lassi (x2)</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>217</v>
+      </c>
+      <c r="B14" s="1">
+        <v>45707.22928240741</v>
+      </c>
+      <c r="C14" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D14">
+        <v>12</v>
+      </c>
+      <c r="E14">
+        <v>2670</v>
+      </c>
+      <c r="F14">
+        <v>55.58</v>
+      </c>
+      <c r="G14">
+        <v>55.58</v>
+      </c>
+      <c r="H14">
+        <v>111.15</v>
+      </c>
+      <c r="I14" t="str">
+        <v>Vanilla Shake (x4), Oreo Shake (x4), Banana Shake (x3), Black Currant Shake (x1), Chocolate Shake (x2), Strawberry Shake (x3), Chicken Wrap (x3), Veg Wrap (x7), Chicken Schezwan Wrap (x19)</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>216</v>
+      </c>
+      <c r="B15" s="1">
+        <v>45707.22928240741</v>
+      </c>
+      <c r="C15" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D15">
+        <v>11</v>
+      </c>
+      <c r="E15">
+        <v>1890</v>
+      </c>
+      <c r="F15">
+        <v>56.7</v>
+      </c>
+      <c r="G15">
+        <v>56.7</v>
+      </c>
+      <c r="H15">
+        <v>113.4</v>
+      </c>
+      <c r="I15" t="str">
+        <v>Chicken Schezwan Sandwich (x27)</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>215</v>
+      </c>
+      <c r="B16" s="1">
+        <v>45707.22928240741</v>
+      </c>
+      <c r="C16" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <v>200</v>
+      </c>
+      <c r="F16">
+        <v>2.6</v>
+      </c>
+      <c r="G16">
+        <v>2.6</v>
+      </c>
+      <c r="H16">
+        <v>5.2</v>
+      </c>
+      <c r="I16" t="str">
+        <v>Mango Lassi (x2), Strawberry Lassi (x2)</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>214</v>
+      </c>
+      <c r="B17" s="1">
+        <v>45707.22928240741</v>
+      </c>
+      <c r="C17" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D17">
+        <v>9</v>
+      </c>
+      <c r="E17">
+        <v>120</v>
+      </c>
+      <c r="F17">
+        <v>1.8</v>
+      </c>
+      <c r="G17">
+        <v>1.8</v>
+      </c>
+      <c r="H17">
+        <v>3.6</v>
+      </c>
+      <c r="I17" t="str">
+        <v>Mango Lassi (x2)</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>212</v>
+      </c>
+      <c r="B18" s="1">
+        <v>45707.22928240741</v>
+      </c>
+      <c r="C18" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D18">
+        <v>8</v>
+      </c>
+      <c r="E18">
+        <v>120</v>
+      </c>
+      <c r="F18">
+        <v>1.8</v>
+      </c>
+      <c r="G18">
+        <v>1.8</v>
+      </c>
+      <c r="H18">
+        <v>3.6</v>
+      </c>
+      <c r="I18" t="str">
+        <v>Chicken Burger (x2)</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>211</v>
+      </c>
+      <c r="B19" s="1">
+        <v>45707.22928240741</v>
+      </c>
+      <c r="C19" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D19">
+        <v>7</v>
+      </c>
+      <c r="E19">
+        <v>70</v>
+      </c>
+      <c r="F19">
+        <v>0.8</v>
+      </c>
+      <c r="G19">
+        <v>0.8</v>
+      </c>
+      <c r="H19">
+        <v>1.6</v>
+      </c>
+      <c r="I19" t="str">
+        <v>8PM Coffee (x2)</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>210</v>
+      </c>
+      <c r="B20" s="1">
+        <v>45707.22928240741</v>
+      </c>
+      <c r="C20" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D20">
+        <v>6</v>
+      </c>
+      <c r="E20">
+        <v>50</v>
+      </c>
+      <c r="F20">
+        <v>0.63</v>
+      </c>
+      <c r="G20">
+        <v>0.63</v>
+      </c>
+      <c r="H20">
+        <v>1.25</v>
+      </c>
+      <c r="I20" t="str">
+        <v>Veg Wrap (x1)</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>209</v>
+      </c>
+      <c r="B21" s="1">
+        <v>45707.22928240741</v>
+      </c>
+      <c r="C21" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="E21">
+        <v>100</v>
+      </c>
+      <c r="F21">
+        <v>1.3</v>
+      </c>
+      <c r="G21">
+        <v>1.3</v>
+      </c>
+      <c r="H21">
+        <v>2.6</v>
+      </c>
+      <c r="I21" t="str">
+        <v>Mango Lassi (x1), Strawberry Lassi (x1)</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>208</v>
+      </c>
+      <c r="B22" s="1">
+        <v>45707.22928240741</v>
+      </c>
+      <c r="C22" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D22">
+        <v>4</v>
+      </c>
+      <c r="E22">
+        <v>200</v>
+      </c>
+      <c r="F22">
+        <v>5.1</v>
+      </c>
+      <c r="G22">
+        <v>5.1</v>
+      </c>
+      <c r="H22">
+        <v>10.2</v>
+      </c>
+      <c r="I22" t="str">
+        <v>Chicken Wrap (x1), Chicken Schezwan Wrap (x2)</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>207</v>
+      </c>
+      <c r="B23" s="1">
+        <v>45707.22928240741</v>
+      </c>
+      <c r="C23" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>120</v>
+      </c>
+      <c r="F23">
+        <v>1.8</v>
+      </c>
+      <c r="G23">
+        <v>1.8</v>
+      </c>
+      <c r="H23">
+        <v>3.6</v>
+      </c>
+      <c r="I23" t="str">
+        <v>Mango Lassi (x2)</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>204</v>
+      </c>
+      <c r="B24" s="1">
+        <v>45706.22928240741</v>
+      </c>
+      <c r="C24" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D24">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>50</v>
+      </c>
+      <c r="F24">
+        <v>0.5</v>
+      </c>
+      <c r="G24">
+        <v>0.5</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24" t="str">
+        <v>Banana Shake (x1)</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>203</v>
+      </c>
+      <c r="B25" s="1">
+        <v>45706.22928240741</v>
+      </c>
+      <c r="C25" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D25">
+        <v>22</v>
+      </c>
+      <c r="E25">
+        <v>120</v>
+      </c>
+      <c r="F25">
+        <v>1.73</v>
+      </c>
+      <c r="G25">
+        <v>1.73</v>
+      </c>
+      <c r="H25">
+        <v>3.45</v>
+      </c>
+      <c r="I25" t="str">
+        <v>Chicken Cheese Pops (x1), Banana Shake (x1)</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>202</v>
+      </c>
+      <c r="B26" s="1">
+        <v>45706.22928240741</v>
+      </c>
+      <c r="C26" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D26">
+        <v>21</v>
+      </c>
+      <c r="E26">
+        <v>60</v>
+      </c>
+      <c r="F26">
+        <v>0.9</v>
+      </c>
+      <c r="G26">
+        <v>0.9</v>
+      </c>
+      <c r="H26">
+        <v>1.8</v>
+      </c>
+      <c r="I26" t="str">
+        <v>Mango Lassi (x1)</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>201</v>
+      </c>
+      <c r="B27" s="1">
+        <v>45706.22928240741</v>
+      </c>
+      <c r="C27" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D27">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>1380</v>
+      </c>
+      <c r="F27">
+        <v>20.7</v>
+      </c>
+      <c r="G27">
+        <v>20.7</v>
+      </c>
+      <c r="H27">
+        <v>41.4</v>
+      </c>
+      <c r="I27" t="str">
+        <v>Chicken Burger (x23)</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>200</v>
+      </c>
+      <c r="B28" s="1">
+        <v>45706.22928240741</v>
+      </c>
+      <c r="C28" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D28">
+        <v>19</v>
+      </c>
+      <c r="E28">
+        <v>220</v>
+      </c>
+      <c r="F28">
+        <v>3.1</v>
+      </c>
+      <c r="G28">
+        <v>3.1</v>
+      </c>
+      <c r="H28">
+        <v>6.2</v>
+      </c>
+      <c r="I28" t="str">
+        <v>Strawberry Lassi (x1), Mango Lassi (x3)</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>199</v>
+      </c>
+      <c r="B29" s="1">
+        <v>45706.22928240741</v>
+      </c>
+      <c r="C29" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D29">
+        <v>18</v>
+      </c>
+      <c r="E29">
+        <v>960</v>
+      </c>
+      <c r="F29">
+        <v>14.4</v>
+      </c>
+      <c r="G29">
+        <v>14.4</v>
+      </c>
+      <c r="H29">
+        <v>28.8</v>
+      </c>
+      <c r="I29" t="str">
+        <v>Butterscotch Lassi (x16)</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>198</v>
+      </c>
+      <c r="B30" s="1">
+        <v>45706.22928240741</v>
+      </c>
+      <c r="C30" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D30">
+        <v>17</v>
+      </c>
+      <c r="E30">
+        <v>145</v>
+      </c>
+      <c r="F30">
+        <v>2.95</v>
+      </c>
+      <c r="G30">
+        <v>2.95</v>
+      </c>
+      <c r="H30">
+        <v>5.9</v>
+      </c>
+      <c r="I30" t="str">
+        <v>Veg Cheese Pops (x2), Banana Shake (x1)</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>197</v>
+      </c>
+      <c r="B31" s="1">
+        <v>45706.22928240741</v>
+      </c>
+      <c r="C31" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D31">
+        <v>16</v>
+      </c>
+      <c r="E31">
+        <v>120</v>
+      </c>
+      <c r="F31">
+        <v>1.8</v>
+      </c>
+      <c r="G31">
+        <v>1.8</v>
+      </c>
+      <c r="H31">
+        <v>3.6</v>
+      </c>
+      <c r="I31" t="str">
+        <v>Mango Lassi (x2)</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>196</v>
+      </c>
+      <c r="B32" s="1">
+        <v>45706.22928240741</v>
+      </c>
+      <c r="C32" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D32">
+        <v>15</v>
+      </c>
+      <c r="E32">
+        <v>160</v>
+      </c>
+      <c r="F32">
+        <v>2.2</v>
+      </c>
+      <c r="G32">
+        <v>2.2</v>
+      </c>
+      <c r="H32">
+        <v>4.4</v>
+      </c>
+      <c r="I32" t="str">
+        <v>Chicken Burger (x1), Chicken Cheese Burger (x1), Vanilla Shake (x1)</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>195</v>
+      </c>
+      <c r="B33" s="1">
+        <v>45706.22928240741</v>
+      </c>
+      <c r="C33" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D33">
+        <v>14</v>
+      </c>
+      <c r="E33">
+        <v>140</v>
+      </c>
+      <c r="F33">
+        <v>1.4</v>
+      </c>
+      <c r="G33">
+        <v>1.4</v>
+      </c>
+      <c r="H33">
+        <v>2.8</v>
+      </c>
+      <c r="I33" t="str">
+        <v>Strawberry Lassi (x1), Banana Shake (x2)</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>191</v>
+      </c>
+      <c r="B34" s="1">
+        <v>45706.22928240741</v>
+      </c>
+      <c r="C34" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D34">
+        <v>12</v>
+      </c>
+      <c r="E34">
+        <v>160</v>
+      </c>
+      <c r="F34">
+        <v>2.2</v>
+      </c>
+      <c r="G34">
+        <v>2.2</v>
+      </c>
+      <c r="H34">
+        <v>4.4</v>
+      </c>
+      <c r="I34" t="str">
+        <v>Strawberry Lassi (x1), Butterscotch Lassi (x1), Chicken Wrap (x1)</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>185</v>
+      </c>
+      <c r="B35" s="1">
+        <v>45706.22928240741</v>
+      </c>
+      <c r="C35" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D35">
+        <v>10</v>
+      </c>
+      <c r="E35">
+        <v>10</v>
+      </c>
+      <c r="F35">
+        <v>1.3</v>
+      </c>
+      <c r="G35">
+        <v>1.3</v>
+      </c>
+      <c r="H35">
+        <v>2.6</v>
+      </c>
+      <c r="I35" t="str">
+        <v>Mango Lassi (x1), Strawberry Lassi (x1)</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>184</v>
+      </c>
+      <c r="B36" s="1">
+        <v>45706.22928240741</v>
+      </c>
+      <c r="C36" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D36">
+        <v>9</v>
+      </c>
+      <c r="E36">
+        <v>120</v>
+      </c>
+      <c r="F36">
+        <v>1.8</v>
+      </c>
+      <c r="G36">
+        <v>1.8</v>
+      </c>
+      <c r="H36">
+        <v>3.6</v>
+      </c>
+      <c r="I36" t="str">
+        <v>Chicken Wrap (x1), Butterscotch Lassi (x1)</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>183</v>
+      </c>
+      <c r="B37" s="1">
+        <v>45706.22928240741</v>
+      </c>
+      <c r="C37" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D37">
+        <v>8</v>
+      </c>
+      <c r="E37">
+        <v>120</v>
+      </c>
+      <c r="F37">
+        <v>1.73</v>
+      </c>
+      <c r="G37">
+        <v>1.73</v>
+      </c>
+      <c r="H37">
+        <v>3.45</v>
+      </c>
+      <c r="I37" t="str">
+        <v>Banana Shake (x1), Veg Cheese Pops (x1)</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>182</v>
+      </c>
+      <c r="B38" s="1">
+        <v>45706.22928240741</v>
+      </c>
+      <c r="C38" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D38">
+        <v>7</v>
+      </c>
+      <c r="E38">
+        <v>70</v>
+      </c>
+      <c r="F38">
+        <v>1.23</v>
+      </c>
+      <c r="G38">
+        <v>1.23</v>
+      </c>
+      <c r="H38">
+        <v>2.45</v>
+      </c>
+      <c r="I38" t="str">
+        <v>Chicken Cheese Pops (x1)</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>181</v>
+      </c>
+      <c r="B39" s="1">
+        <v>45706.22928240741</v>
+      </c>
+      <c r="C39" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D39">
+        <v>6</v>
+      </c>
+      <c r="E39">
+        <v>100</v>
+      </c>
+      <c r="F39">
+        <v>1.3</v>
+      </c>
+      <c r="G39">
+        <v>1.3</v>
+      </c>
+      <c r="H39">
+        <v>2.6</v>
+      </c>
+      <c r="I39" t="str">
+        <v>Strawberry Lassi (x1), Butterscotch Lassi (x1)</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>180</v>
+      </c>
+      <c r="B40" s="1">
+        <v>45706.22928240741</v>
+      </c>
+      <c r="C40" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D40">
+        <v>5</v>
+      </c>
+      <c r="E40">
+        <v>60</v>
+      </c>
+      <c r="F40">
+        <v>0.9</v>
+      </c>
+      <c r="G40">
+        <v>0.9</v>
+      </c>
+      <c r="H40">
+        <v>1.8</v>
+      </c>
+      <c r="I40" t="str">
+        <v>Chicken Cheese Burger (x1)</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>175</v>
+      </c>
+      <c r="B41" s="1">
+        <v>45705.22928240741</v>
+      </c>
+      <c r="C41" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D41">
+        <v>6</v>
+      </c>
+      <c r="E41">
+        <v>180</v>
+      </c>
+      <c r="F41">
+        <v>4.53</v>
+      </c>
+      <c r="G41">
+        <v>4.53</v>
+      </c>
+      <c r="H41">
+        <v>9.05</v>
+      </c>
+      <c r="I41" t="str">
+        <v>Veg Wrap (x1), Chicken Schezwan Wrap (x1), Veg Schezwan Wrap (x1)</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>174</v>
+      </c>
+      <c r="B42" s="1">
+        <v>45705.22928240741</v>
+      </c>
+      <c r="C42" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D42">
+        <v>5</v>
+      </c>
+      <c r="E42">
+        <v>90</v>
+      </c>
+      <c r="F42">
+        <v>0.9</v>
+      </c>
+      <c r="G42">
+        <v>0.9</v>
+      </c>
+      <c r="H42">
+        <v>1.8</v>
+      </c>
+      <c r="I42" t="str">
+        <v>Lime Juice (x1), Mint Lime (x1), Watermelon Juice (x1)</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>173</v>
+      </c>
+      <c r="B43" s="1">
+        <v>45705.22928240741</v>
+      </c>
+      <c r="C43" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D43">
+        <v>4</v>
+      </c>
+      <c r="E43">
+        <v>140</v>
+      </c>
+      <c r="F43">
+        <v>1.52</v>
+      </c>
+      <c r="G43">
+        <v>1.52</v>
+      </c>
+      <c r="H43">
+        <v>3.05</v>
+      </c>
+      <c r="I43" t="str">
+        <v>Vanilla Shake (x1), Oreo Shake (x1), Chocolate Shake (x1)</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>172</v>
+      </c>
+      <c r="B44" s="1">
+        <v>45705.22928240741</v>
+      </c>
+      <c r="C44" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D44">
+        <v>3</v>
+      </c>
+      <c r="E44">
+        <v>170</v>
+      </c>
+      <c r="F44">
+        <v>2.53</v>
+      </c>
+      <c r="G44">
+        <v>2.53</v>
+      </c>
+      <c r="H44">
+        <v>5.05</v>
+      </c>
+      <c r="I44" t="str">
+        <v>Mango Lassi (x1), Strawberry Lassi (x1), Chicken Cheese Pops (x1)</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>171</v>
+      </c>
+      <c r="B45" s="1">
+        <v>45705.22928240741</v>
+      </c>
+      <c r="C45" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45">
+        <v>160</v>
+      </c>
+      <c r="F45">
+        <v>2.2</v>
+      </c>
+      <c r="G45">
+        <v>2.2</v>
+      </c>
+      <c r="H45">
+        <v>4.4</v>
+      </c>
+      <c r="I45" t="str">
+        <v>Chicken Cheese Burger (x1), Strawberry Lassi (x1), Butterscotch Lassi (x1)</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>168</v>
+      </c>
+      <c r="B46" s="1">
+        <v>45704.22928240741</v>
+      </c>
+      <c r="C46" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D46">
+        <v>8</v>
+      </c>
+      <c r="E46">
+        <v>240</v>
+      </c>
+      <c r="F46">
+        <v>3</v>
+      </c>
+      <c r="G46">
+        <v>3</v>
+      </c>
+      <c r="H46">
+        <v>6</v>
+      </c>
+      <c r="I46" t="str">
+        <v>Chicken Burger (x1), Chicken Cheese Burger (x1), Strawberry Lassi (x3)</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>167</v>
+      </c>
+      <c r="B47" s="1">
+        <v>45704.22928240741</v>
+      </c>
+      <c r="C47" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D47">
+        <v>7</v>
+      </c>
+      <c r="E47">
+        <v>80</v>
+      </c>
+      <c r="F47">
+        <v>0.8</v>
+      </c>
+      <c r="G47">
+        <v>0.8</v>
+      </c>
+      <c r="H47">
+        <v>1.6</v>
+      </c>
+      <c r="I47" t="str">
+        <v>8PM Coffee (x2)</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>166</v>
+      </c>
+      <c r="B48" s="1">
+        <v>45704.22928240741</v>
+      </c>
+      <c r="C48" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D48">
+        <v>6</v>
+      </c>
+      <c r="E48">
+        <v>180</v>
+      </c>
+      <c r="F48">
+        <v>2.7</v>
+      </c>
+      <c r="G48">
+        <v>2.7</v>
+      </c>
+      <c r="H48">
+        <v>5.4</v>
+      </c>
+      <c r="I48" t="str">
+        <v>Mango Lassi (x3)</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>164</v>
+      </c>
+      <c r="B49" s="1">
+        <v>45704.22928240741</v>
+      </c>
+      <c r="C49" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D49">
+        <v>5</v>
+      </c>
+      <c r="E49">
+        <v>60</v>
+      </c>
+      <c r="F49">
+        <v>0.9</v>
+      </c>
+      <c r="G49">
+        <v>0.9</v>
+      </c>
+      <c r="H49">
+        <v>1.8</v>
+      </c>
+      <c r="I49" t="str">
+        <v>Chicken Cheese Burger (x1)</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>163</v>
+      </c>
+      <c r="B50" s="1">
+        <v>45704.22928240741</v>
+      </c>
+      <c r="C50" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D50">
+        <v>4</v>
+      </c>
+      <c r="E50">
+        <v>40</v>
+      </c>
+      <c r="F50">
+        <v>0.4</v>
+      </c>
+      <c r="G50">
+        <v>0.4</v>
+      </c>
+      <c r="H50">
+        <v>0.8</v>
+      </c>
+      <c r="I50" t="str">
+        <v>Belgian Coffee (x1)</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>162</v>
+      </c>
+      <c r="B51" s="1">
+        <v>45704.22928240741</v>
+      </c>
+      <c r="C51" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D51">
+        <v>3</v>
+      </c>
+      <c r="E51">
+        <v>80</v>
+      </c>
+      <c r="F51">
+        <v>0.8</v>
+      </c>
+      <c r="G51">
+        <v>0.8</v>
+      </c>
+      <c r="H51">
+        <v>1.6</v>
+      </c>
+      <c r="I51" t="str">
+        <v>8PM Coffee (x1), Coffee Italia (x1)</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>155</v>
+      </c>
+      <c r="B52" s="1">
+        <v>45703.22928240741</v>
+      </c>
+      <c r="C52" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D52">
+        <v>8</v>
+      </c>
+      <c r="E52">
+        <v>425</v>
+      </c>
+      <c r="F52">
+        <v>13.55</v>
+      </c>
+      <c r="G52">
+        <v>14.3</v>
+      </c>
+      <c r="H52">
+        <v>28.39</v>
+      </c>
+      <c r="I52" t="str">
+        <v>Chicken Momos (x1), Veg Momos (x1), Chicken Shezwan Momos (x1), Chicken Peri Peri Momos (x1), Veg Shezwan Momos (x1)</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>154</v>
+      </c>
+      <c r="B53" s="1">
+        <v>45703.22928240741</v>
+      </c>
+      <c r="C53" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D53">
+        <v>7</v>
+      </c>
+      <c r="E53">
+        <v>2475</v>
+      </c>
+      <c r="F53">
+        <v>50.25</v>
+      </c>
+      <c r="G53">
+        <v>63</v>
+      </c>
+      <c r="H53">
+        <v>118.35</v>
+      </c>
+      <c r="I53" t="str">
+        <v>Vanilla Shake (x30), Chicken Momos (x17)</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>152</v>
+      </c>
+      <c r="B54" s="1">
+        <v>45703.22928240741</v>
+      </c>
+      <c r="C54" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D54">
+        <v>6</v>
+      </c>
+      <c r="E54">
+        <v>80</v>
+      </c>
+      <c r="F54">
+        <v>0.8</v>
+      </c>
+      <c r="G54">
+        <v>0.8</v>
+      </c>
+      <c r="H54">
+        <v>1.6</v>
+      </c>
+      <c r="I54" t="str">
+        <v>Coffee Italia (x1), Belgian Coffee (x1)</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>151</v>
+      </c>
+      <c r="B55" s="1">
+        <v>45703.22928240741</v>
+      </c>
+      <c r="C55" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D55">
+        <v>5</v>
+      </c>
+      <c r="E55">
+        <v>80</v>
+      </c>
+      <c r="F55">
+        <v>0.8</v>
+      </c>
+      <c r="G55">
+        <v>0.8</v>
+      </c>
+      <c r="H55">
+        <v>1.6</v>
+      </c>
+      <c r="I55" t="str">
+        <v>Hard Rock Coffee (x1), 8PM Coffee (x1)</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>150</v>
+      </c>
+      <c r="B56" s="1">
+        <v>45703.22928240741</v>
+      </c>
+      <c r="C56" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D56">
+        <v>4</v>
+      </c>
+      <c r="E56">
+        <v>260</v>
+      </c>
+      <c r="F56">
+        <v>2.6</v>
+      </c>
+      <c r="G56">
+        <v>2.6</v>
+      </c>
+      <c r="H56">
+        <v>5.2</v>
+      </c>
+      <c r="I56" t="str">
+        <v>Black Currant Shake (x1), Banana Shake (x1), Hard Rock Coffee (x1), 8PM Coffee (x1), Coffee Italia (x1), Belgian Coffee (x1)</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>142</v>
+      </c>
+      <c r="B57" s="1">
+        <v>45702.22928240741</v>
+      </c>
+      <c r="C57" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D57">
+        <v>5</v>
+      </c>
+      <c r="E57">
+        <v>40</v>
+      </c>
+      <c r="F57">
+        <v>0.4</v>
+      </c>
+      <c r="G57">
+        <v>0.4</v>
+      </c>
+      <c r="H57">
+        <v>0.8</v>
+      </c>
+      <c r="I57" t="str">
+        <v>Strawberry Lassi (x1)</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>141</v>
+      </c>
+      <c r="B58" s="1">
+        <v>45702.22928240741</v>
+      </c>
+      <c r="C58" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D58">
+        <v>4</v>
+      </c>
+      <c r="E58">
+        <v>420</v>
+      </c>
+      <c r="F58">
+        <v>6.3</v>
+      </c>
+      <c r="G58">
+        <v>6.3</v>
+      </c>
+      <c r="H58">
+        <v>12.6</v>
+      </c>
+      <c r="I58" t="str">
+        <v>Chicken Wrap (x7)</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>136</v>
+      </c>
+      <c r="B59" s="1">
+        <v>45701.22928240741</v>
+      </c>
+      <c r="C59" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D59">
+        <v>3</v>
+      </c>
+      <c r="E59">
+        <v>215</v>
+      </c>
+      <c r="F59">
+        <v>6.35</v>
+      </c>
+      <c r="G59">
+        <v>7.1</v>
+      </c>
+      <c r="H59">
+        <v>13.99</v>
+      </c>
+      <c r="I59" t="str">
+        <v>Veg Momos (x1), Chicken Momos (x1), Chicken Wrap (x1)</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>135</v>
+      </c>
+      <c r="B60" s="1">
+        <v>45701.22928240741</v>
+      </c>
+      <c r="C60" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+      <c r="E60">
+        <v>80</v>
+      </c>
+      <c r="F60">
+        <v>2.4</v>
+      </c>
+      <c r="G60">
+        <v>2.4</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60" t="str">
+        <v>Peri Peri Fries (x4)</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>134</v>
+      </c>
+      <c r="B61" s="1">
+        <v>45701.22928240741</v>
+      </c>
+      <c r="C61" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>90</v>
+      </c>
+      <c r="F61">
+        <v>1.02</v>
+      </c>
+      <c r="G61">
+        <v>1.02</v>
+      </c>
+      <c r="H61">
+        <v>2.05</v>
+      </c>
+      <c r="I61" t="str">
+        <v>Vanilla Shake (x1), Oreo Shake (x1)</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>133</v>
+      </c>
+      <c r="B62" s="1">
+        <v>45700.22928240741</v>
+      </c>
+      <c r="C62" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D62">
+        <v>9</v>
+      </c>
+      <c r="E62">
+        <v>360</v>
+      </c>
+      <c r="F62">
+        <v>4.1</v>
+      </c>
+      <c r="G62">
+        <v>4.1</v>
+      </c>
+      <c r="H62">
+        <v>8.2</v>
+      </c>
+      <c r="I62" t="str">
+        <v>Veg Wrap (x4), Hard Rock Coffee (x1), 8PM Coffee (x1), Coffee Italia (x1), Belgian Coffee (x1)</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>132</v>
+      </c>
+      <c r="B63" s="1">
+        <v>45700.22928240741</v>
+      </c>
+      <c r="C63" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D63">
+        <v>8</v>
+      </c>
+      <c r="E63">
+        <v>40</v>
+      </c>
+      <c r="F63">
+        <v>0.4</v>
+      </c>
+      <c r="G63">
+        <v>0.4</v>
+      </c>
+      <c r="H63">
+        <v>0.8</v>
+      </c>
+      <c r="I63" t="str">
+        <v>Strawberry Lassi (x1)</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>129</v>
+      </c>
+      <c r="B64" s="1">
+        <v>45700.22928240741</v>
+      </c>
+      <c r="C64" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D64">
+        <v>7</v>
+      </c>
+      <c r="E64">
+        <v>60</v>
+      </c>
+      <c r="F64">
+        <v>0.9</v>
+      </c>
+      <c r="G64">
+        <v>0.9</v>
+      </c>
+      <c r="H64">
+        <v>1.8</v>
+      </c>
+      <c r="I64" t="str">
+        <v>Chicken Burger (x1)</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>126</v>
+      </c>
+      <c r="B65" s="1">
+        <v>45700.22928240741</v>
+      </c>
+      <c r="C65" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D65">
+        <v>4</v>
+      </c>
+      <c r="E65">
+        <v>20</v>
+      </c>
+      <c r="F65">
+        <v>0.6</v>
+      </c>
+      <c r="G65">
+        <v>0.6</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65" t="str">
+        <v>Peri Peri Fries (x1)</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>125</v>
+      </c>
+      <c r="B66" s="1">
+        <v>45700.22928240741</v>
+      </c>
+      <c r="C66" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D66">
+        <v>3</v>
+      </c>
+      <c r="E66">
+        <v>60</v>
+      </c>
+      <c r="F66">
+        <v>0.9</v>
+      </c>
+      <c r="G66">
+        <v>0.9</v>
+      </c>
+      <c r="H66">
+        <v>1.8</v>
+      </c>
+      <c r="I66" t="str">
+        <v>Butterscotch Lassi (x1)</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>124</v>
+      </c>
+      <c r="B67" s="1">
+        <v>45700.22928240741</v>
+      </c>
+      <c r="C67" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D67">
+        <v>2</v>
+      </c>
+      <c r="E67">
+        <v>40</v>
+      </c>
+      <c r="F67">
+        <v>0.4</v>
+      </c>
+      <c r="G67">
+        <v>0.4</v>
+      </c>
+      <c r="H67">
+        <v>0.8</v>
+      </c>
+      <c r="I67" t="str">
+        <v>Strawberry Lassi (x1)</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>122</v>
+      </c>
+      <c r="B68" s="1">
+        <v>45699.22928240741</v>
+      </c>
+      <c r="C68" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D68">
+        <v>14</v>
+      </c>
+      <c r="E68">
+        <v>130</v>
+      </c>
+      <c r="F68">
+        <v>0.3</v>
+      </c>
+      <c r="G68">
+        <v>0.3</v>
+      </c>
+      <c r="H68">
+        <v>0.6</v>
+      </c>
+      <c r="I68" t="str">
+        <v>Mint Lime (x1)</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>121</v>
+      </c>
+      <c r="B69" s="1">
+        <v>45699.22928240741</v>
+      </c>
+      <c r="C69" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D69">
+        <v>13</v>
+      </c>
+      <c r="E69">
+        <v>240</v>
+      </c>
+      <c r="F69">
+        <v>2.4</v>
+      </c>
+      <c r="G69">
+        <v>2.4</v>
+      </c>
+      <c r="H69">
+        <v>4.8</v>
+      </c>
+      <c r="I69" t="str">
+        <v>Hard Rock Coffee (x1), 8PM Coffee (x1), Coffee Italia (x1), Belgian Coffee (x3)</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>119</v>
+      </c>
+      <c r="B70" s="1">
+        <v>45699.22928240741</v>
+      </c>
+      <c r="C70" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D70">
+        <v>11</v>
+      </c>
+      <c r="E70">
+        <v>70</v>
+      </c>
+      <c r="F70">
+        <v>1.23</v>
+      </c>
+      <c r="G70">
+        <v>1.23</v>
+      </c>
+      <c r="H70">
+        <v>2.45</v>
+      </c>
+      <c r="I70" t="str">
+        <v>Veg Cheese Pops (x1)</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>117</v>
+      </c>
+      <c r="B71" s="1">
+        <v>45699.22928240741</v>
+      </c>
+      <c r="C71" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D71">
+        <v>9</v>
+      </c>
+      <c r="E71">
+        <v>560</v>
+      </c>
+      <c r="F71">
+        <v>7.75</v>
+      </c>
+      <c r="G71">
+        <v>7.75</v>
+      </c>
+      <c r="H71">
+        <v>14.3</v>
+      </c>
+      <c r="I71" t="str">
+        <v>Lime Juice (x3), Chicken Wrap (x3), Chicken Burger (x1), Oreo Shake (x1), Vanilla Shake (x1), Veg Wrap (x1), Mango Lassi (x1), Strawberry Lassi (x1), Peri Peri Fries (x1)</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>116</v>
+      </c>
+      <c r="B72" s="1">
+        <v>45699.22928240741</v>
+      </c>
+      <c r="C72" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D72">
+        <v>8</v>
+      </c>
+      <c r="E72">
+        <v>120</v>
+      </c>
+      <c r="F72">
+        <v>1.8</v>
+      </c>
+      <c r="G72">
+        <v>1.8</v>
+      </c>
+      <c r="H72">
+        <v>3.6</v>
+      </c>
+      <c r="I72" t="str">
+        <v>Mango Lassi (x2)</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>115</v>
+      </c>
+      <c r="B73" s="1">
+        <v>45699.22928240741</v>
+      </c>
+      <c r="C73" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D73">
+        <v>7</v>
+      </c>
+      <c r="E73">
+        <v>60</v>
+      </c>
+      <c r="F73">
+        <v>0.9</v>
+      </c>
+      <c r="G73">
+        <v>0.9</v>
+      </c>
+      <c r="H73">
+        <v>1.8</v>
+      </c>
+      <c r="I73" t="str">
+        <v>Chicken Cheese Burger (x1)</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>114</v>
+      </c>
+      <c r="B74" s="1">
+        <v>45699.22928240741</v>
+      </c>
+      <c r="C74" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D74">
+        <v>6</v>
+      </c>
+      <c r="E74">
+        <v>60</v>
+      </c>
+      <c r="F74">
+        <v>0.9</v>
+      </c>
+      <c r="G74">
+        <v>0.9</v>
+      </c>
+      <c r="H74">
+        <v>1.8</v>
+      </c>
+      <c r="I74" t="str">
+        <v>Chicken Cheese Burger (x1)</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>113</v>
+      </c>
+      <c r="B75" s="1">
+        <v>45699.22928240741</v>
+      </c>
+      <c r="C75" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D75">
+        <v>5</v>
+      </c>
+      <c r="E75">
+        <v>60</v>
+      </c>
+      <c r="F75">
+        <v>0.9</v>
+      </c>
+      <c r="G75">
+        <v>0.9</v>
+      </c>
+      <c r="H75">
+        <v>1.8</v>
+      </c>
+      <c r="I75" t="str">
+        <v>Chicken Cheese Burger (x1)</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>112</v>
+      </c>
+      <c r="B76" s="1">
+        <v>45699.22928240741</v>
+      </c>
+      <c r="C76" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D76">
+        <v>4</v>
+      </c>
+      <c r="E76">
+        <v>60</v>
+      </c>
+      <c r="F76">
+        <v>0.9</v>
+      </c>
+      <c r="G76">
+        <v>0.9</v>
+      </c>
+      <c r="H76">
+        <v>1.8</v>
+      </c>
+      <c r="I76" t="str">
+        <v>Chicken Cheese Burger (x1)</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>111</v>
+      </c>
+      <c r="B77" s="1">
+        <v>45699.22928240741</v>
+      </c>
+      <c r="C77" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D77">
+        <v>3</v>
+      </c>
+      <c r="E77">
+        <v>60</v>
+      </c>
+      <c r="F77">
+        <v>0.9</v>
+      </c>
+      <c r="G77">
+        <v>0.9</v>
+      </c>
+      <c r="H77">
+        <v>1.8</v>
+      </c>
+      <c r="I77" t="str">
+        <v>Chicken Cheese Burger (x1)</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>110</v>
+      </c>
+      <c r="B78" s="1">
+        <v>45699.22928240741</v>
+      </c>
+      <c r="C78" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D78">
+        <v>2</v>
+      </c>
+      <c r="E78">
+        <v>60</v>
+      </c>
+      <c r="F78">
+        <v>0.9</v>
+      </c>
+      <c r="G78">
+        <v>0.9</v>
+      </c>
+      <c r="H78">
+        <v>1.8</v>
+      </c>
+      <c r="I78" t="str">
+        <v>Chicken Cheese Burger (x1)</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>107</v>
+      </c>
+      <c r="B79" s="1">
+        <v>45698.22928240741</v>
+      </c>
+      <c r="C79" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D79">
+        <v>15</v>
+      </c>
+      <c r="E79">
+        <v>20</v>
+      </c>
+      <c r="F79">
+        <v>0.6</v>
+      </c>
+      <c r="G79">
+        <v>0.6</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79" t="str">
+        <v>Peri Peri Fries (x1)</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>106</v>
+      </c>
+      <c r="B80" s="1">
+        <v>45698.22928240741</v>
+      </c>
+      <c r="C80" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D80">
+        <v>14</v>
+      </c>
+      <c r="E80">
+        <v>110</v>
+      </c>
+      <c r="F80">
+        <v>1.52</v>
+      </c>
+      <c r="G80">
+        <v>1.52</v>
+      </c>
+      <c r="H80">
+        <v>3.05</v>
+      </c>
+      <c r="I80" t="str">
+        <v>Chicken Wrap (x1), Veg Wrap (x1)</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>105</v>
+      </c>
+      <c r="B81" s="1">
+        <v>45698.22928240741</v>
+      </c>
+      <c r="C81" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D81">
+        <v>13</v>
+      </c>
+      <c r="E81">
+        <v>100099</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+      <c r="H81">
+        <v>2</v>
+      </c>
+      <c r="I81" t="str">
+        <v>Strawberry Shake (x1), Chocolate Shake (x1)</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>103</v>
+      </c>
+      <c r="B82" s="1">
+        <v>45698.22928240741</v>
+      </c>
+      <c r="C82" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D82">
+        <v>11</v>
+      </c>
+      <c r="E82">
+        <v>160</v>
+      </c>
+      <c r="F82">
+        <v>2.15</v>
+      </c>
+      <c r="G82">
+        <v>2.15</v>
+      </c>
+      <c r="H82">
+        <v>4.3</v>
+      </c>
+      <c r="I82" t="str">
+        <v>Chicken Wrap (x1), Veg Wrap (x2)</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>102</v>
+      </c>
+      <c r="B83" s="1">
+        <v>45698.22928240741</v>
+      </c>
+      <c r="C83" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D83">
+        <v>10</v>
+      </c>
+      <c r="E83">
+        <v>110</v>
+      </c>
+      <c r="F83">
+        <v>1.52</v>
+      </c>
+      <c r="G83">
+        <v>1.52</v>
+      </c>
+      <c r="H83">
+        <v>3.05</v>
+      </c>
+      <c r="I83" t="str">
+        <v>Chicken Wrap (x1), Veg Wrap (x1)</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I83"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/export.xlsx
+++ b/export.xlsx
@@ -398,14 +398,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I83"/>
+  <dimension ref="A1:I214"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>Bill No</v>
+        <v>Bill No ▼</v>
       </c>
       <c r="B1" t="str">
         <v>Date</v>
@@ -434,306 +434,306 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>229</v>
+        <v>365</v>
       </c>
       <c r="B2" s="1">
-        <v>45709.22928240741</v>
+        <v>45719.22928240741</v>
       </c>
       <c r="C2" t="str">
         <v>Ajay Francis Anchan</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E2">
-        <v>1655</v>
+        <v>40</v>
       </c>
       <c r="F2">
-        <v>31.35</v>
+        <v>0.4</v>
       </c>
       <c r="G2">
-        <v>32.6</v>
+        <v>0.4</v>
       </c>
       <c r="H2">
-        <v>63.54</v>
+        <v>0.8</v>
       </c>
       <c r="I2" t="str">
-        <v>Chicken Burger (x1), Chicken Cheese Burger (x1), Vanilla Shake (x1), Oreo Shake (x1), Mango Lassi (x1), Strawberry Lassi (x1), Butterscotch Lassi (x1), Chicken Wrap (x1), Veg Wrap (x1), Chicken Cheese Pops (x1), Veg Cheese Pops (x1), Banana Shake (x1), Black Currant Shake (x1), Strawberry Shake (x1), Chocolate Shake (x1), Hard Rock Coffee (x1), 8PM Coffee (x1), Coffee Italia (x1), Belgian Coffee (x1), Lime Juice (x1), Mint Lime (x1), Watermelon Juice (x1), Peri Peri Fries (x1), Chicken Sandwich (x1), Chicken Momos (x1), Veg Burger (x1), Veg Cheese Burger (x1), Veg Sandwich (x1), Chicken Schezwan Wrap (x1), Veg Momos (x1), Veg Schezwan Wrap (x1), Veg Schezwan Sandwich (x1)</v>
+        <v>Strawberry Lassi (x1)</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>228</v>
+        <v>363</v>
       </c>
       <c r="B3" s="1">
-        <v>45709.22928240741</v>
+        <v>45719.22928240741</v>
       </c>
       <c r="C3" t="str">
         <v>Ajay Francis Anchan</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E3">
-        <v>520</v>
+        <v>140</v>
       </c>
       <c r="F3">
-        <v>5.8</v>
+        <v>1.7</v>
       </c>
       <c r="G3">
-        <v>5.8</v>
+        <v>1.7</v>
       </c>
       <c r="H3">
-        <v>11.6</v>
+        <v>3.4</v>
       </c>
       <c r="I3" t="str">
-        <v>Chicken Cheese Burger (x2), Vanilla Shake (x10)</v>
+        <v>Chicken Cheese Burger (x1), Vanilla Shake (x2)</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>227</v>
+        <v>362</v>
       </c>
       <c r="B4" s="1">
-        <v>45709.22928240741</v>
+        <v>45719.22928240741</v>
       </c>
       <c r="C4" t="str">
         <v>Ajay Francis Anchan</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E4">
-        <v>80</v>
+        <v>290</v>
       </c>
       <c r="F4">
-        <v>0.8</v>
+        <v>4.22</v>
       </c>
       <c r="G4">
-        <v>0.8</v>
+        <v>4.22</v>
       </c>
       <c r="H4">
-        <v>1.6</v>
+        <v>8.45</v>
       </c>
       <c r="I4" t="str">
-        <v>Hard Rock Coffee (x1), 8PM Coffee (x1)</v>
+        <v>Chicken Burger (x3), Mango Lassi (x1), Veg Wrap (x1)</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>226</v>
+        <v>361</v>
       </c>
       <c r="B5" s="1">
-        <v>45709.22928240741</v>
+        <v>45719.22928240741</v>
       </c>
       <c r="C5" t="str">
         <v>Ajay Francis Anchan</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E5">
-        <v>40</v>
+        <v>288.3</v>
       </c>
       <c r="F5">
-        <v>0.4</v>
+        <v>7.08</v>
       </c>
       <c r="G5">
-        <v>0.4</v>
+        <v>7.08</v>
       </c>
       <c r="H5">
-        <v>0.8</v>
+        <v>14.15</v>
       </c>
       <c r="I5" t="str">
-        <v>Vanilla Shake (x1)</v>
+        <v>Veg Wrap (x1), Chicken Cheese Pops (x1), Veg Cheese Pops (x1), Hard Rock Coffee (x1), Mango Bubble Tea (x1)</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>225</v>
+        <v>360</v>
       </c>
       <c r="B6" s="1">
-        <v>45709.22928240741</v>
+        <v>45719.22928240741</v>
       </c>
       <c r="C6" t="str">
         <v>Ajay Francis Anchan</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E6">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="F6">
-        <v>10.4</v>
+        <v>7.08</v>
       </c>
       <c r="G6">
-        <v>11.9</v>
+        <v>7.08</v>
       </c>
       <c r="H6">
-        <v>23.14</v>
+        <v>14.15</v>
       </c>
       <c r="I6" t="str">
-        <v>Veg Shezwan Momos (x1), Chicken Momos (x2), Veg Momos (x1)</v>
+        <v>Veg Cheese Pops (x1), Hard Rock Coffee (x1), Chicken Cheese Pops (x1), Mango Bubble Tea (x1), Veg Wrap (x1)</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>224</v>
+        <v>359</v>
       </c>
       <c r="B7" s="1">
-        <v>45709.22928240741</v>
+        <v>45719.22928240741</v>
       </c>
       <c r="C7" t="str">
         <v>Ajay Francis Anchan</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>280</v>
+        <v>100</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <v>1.25</v>
       </c>
       <c r="G7">
-        <v>4</v>
+        <v>1.25</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <v>2.5</v>
       </c>
       <c r="I7" t="str">
-        <v>Strawberry Lassi (x1), Butterscotch Lassi (x1), Chicken Wrap (x3)</v>
+        <v>Oreo Shake (x2)</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>223</v>
+        <v>358</v>
       </c>
       <c r="B8" s="1">
-        <v>45709.22928240741</v>
+        <v>45719.22928240741</v>
       </c>
       <c r="C8" t="str">
         <v>Ajay Francis Anchan</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="F8">
-        <v>7.2</v>
+        <v>1.8</v>
       </c>
       <c r="G8">
-        <v>7.2</v>
+        <v>1.8</v>
       </c>
       <c r="H8">
-        <v>14.4</v>
+        <v>3.6</v>
       </c>
       <c r="I8" t="str">
-        <v>Veg Sandwich (x1), Chicken Schezwan Sandwich (x1), Veg Schezwan Sandwich (x2)</v>
+        <v>Chicken Cheese Burger (x2)</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>222</v>
+        <v>357</v>
       </c>
       <c r="B9" s="1">
-        <v>45709.22928240741</v>
+        <v>45718.22928240741</v>
       </c>
       <c r="C9" t="str">
         <v>Ajay Francis Anchan</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>108</v>
       </c>
       <c r="E9">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="F9">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="G9">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="H9">
-        <v>4.4</v>
+        <v>3.6</v>
       </c>
       <c r="I9" t="str">
-        <v>Mango Lassi (x1), Strawberry Lassi (x1), Butterscotch Lassi (x1)</v>
+        <v>Chicken Burger (x2)</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>221</v>
+        <v>356</v>
       </c>
       <c r="B10" s="1">
-        <v>45709.22928240741</v>
+        <v>45718.22928240741</v>
       </c>
       <c r="C10" t="str">
         <v>Ajay Francis Anchan</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>107</v>
       </c>
       <c r="E10">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="F10">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="G10">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="H10">
-        <v>5.4</v>
+        <v>3.6</v>
       </c>
       <c r="I10" t="str">
-        <v>Chicken Burger (x1), Mango Lassi (x2)</v>
+        <v>Mango Lassi (x2)</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>220</v>
+        <v>355</v>
       </c>
       <c r="B11" s="1">
-        <v>45709.22928240741</v>
+        <v>45718.22928240741</v>
       </c>
       <c r="C11" t="str">
         <v>Ajay Francis Anchan</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>106</v>
       </c>
       <c r="E11">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="F11">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="G11">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H11">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="I11" t="str">
-        <v>Chicken Burger (x2)</v>
+        <v>Chicken Wrap (x1)</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>219</v>
+        <v>354</v>
       </c>
       <c r="B12" s="1">
-        <v>45708.22928240741</v>
+        <v>45718.22928240741</v>
       </c>
       <c r="C12" t="str">
         <v>Ajay Francis Anchan</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>105</v>
       </c>
       <c r="E12">
         <v>120</v>
@@ -748,137 +748,137 @@
         <v>3.6</v>
       </c>
       <c r="I12" t="str">
-        <v>Mango Lassi (x2)</v>
+        <v>Chicken Cheese Burger (x2)</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>218</v>
+        <v>353</v>
       </c>
       <c r="B13" s="1">
-        <v>45708.22928240741</v>
+        <v>45718.22928240741</v>
       </c>
       <c r="C13" t="str">
         <v>Ajay Francis Anchan</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>104</v>
       </c>
       <c r="E13">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="F13">
-        <v>1.8</v>
+        <v>0.4</v>
       </c>
       <c r="G13">
-        <v>1.8</v>
+        <v>0.4</v>
       </c>
       <c r="H13">
-        <v>3.6</v>
+        <v>0.8</v>
       </c>
       <c r="I13" t="str">
-        <v>Butterscotch Lassi (x2)</v>
+        <v>Strawberry Lassi (x1)</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>217</v>
+        <v>352</v>
       </c>
       <c r="B14" s="1">
-        <v>45707.22928240741</v>
+        <v>45718.22928240741</v>
       </c>
       <c r="C14" t="str">
         <v>Ajay Francis Anchan</v>
       </c>
       <c r="D14">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="E14">
-        <v>2670</v>
+        <v>100</v>
       </c>
       <c r="F14">
-        <v>55.58</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>55.58</v>
+        <v>1</v>
       </c>
       <c r="H14">
-        <v>111.15</v>
+        <v>2</v>
       </c>
       <c r="I14" t="str">
-        <v>Vanilla Shake (x4), Oreo Shake (x4), Banana Shake (x3), Black Currant Shake (x1), Chocolate Shake (x2), Strawberry Shake (x3), Chicken Wrap (x3), Veg Wrap (x7), Chicken Schezwan Wrap (x19)</v>
+        <v>Banana Shake (x2)</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>216</v>
+        <v>351</v>
       </c>
       <c r="B15" s="1">
-        <v>45707.22928240741</v>
+        <v>45718.22928240741</v>
       </c>
       <c r="C15" t="str">
         <v>Ajay Francis Anchan</v>
       </c>
       <c r="D15">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="E15">
-        <v>1890</v>
+        <v>100</v>
       </c>
       <c r="F15">
-        <v>56.7</v>
+        <v>1.3</v>
       </c>
       <c r="G15">
-        <v>56.7</v>
+        <v>1.3</v>
       </c>
       <c r="H15">
-        <v>113.4</v>
+        <v>2.6</v>
       </c>
       <c r="I15" t="str">
-        <v>Chicken Schezwan Sandwich (x27)</v>
+        <v>Mango Lassi (x1), Strawberry Lassi (x1)</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>215</v>
+        <v>350</v>
       </c>
       <c r="B16" s="1">
-        <v>45707.22928240741</v>
+        <v>45718.22928240741</v>
       </c>
       <c r="C16" t="str">
         <v>Ajay Francis Anchan</v>
       </c>
       <c r="D16">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="E16">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="F16">
-        <v>2.6</v>
+        <v>0.4</v>
       </c>
       <c r="G16">
-        <v>2.6</v>
+        <v>0.4</v>
       </c>
       <c r="H16">
-        <v>5.2</v>
+        <v>0.8</v>
       </c>
       <c r="I16" t="str">
-        <v>Mango Lassi (x2), Strawberry Lassi (x2)</v>
+        <v>Vanilla Shake (x1)</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>214</v>
+        <v>349</v>
       </c>
       <c r="B17" s="1">
-        <v>45707.22928240741</v>
+        <v>45718.22928240741</v>
       </c>
       <c r="C17" t="str">
         <v>Ajay Francis Anchan</v>
       </c>
       <c r="D17">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="E17">
         <v>120</v>
@@ -893,108 +893,108 @@
         <v>3.6</v>
       </c>
       <c r="I17" t="str">
-        <v>Mango Lassi (x2)</v>
+        <v>Chicken Burger (x2)</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>212</v>
+        <v>348</v>
       </c>
       <c r="B18" s="1">
-        <v>45707.22928240741</v>
+        <v>45718.22928240741</v>
       </c>
       <c r="C18" t="str">
         <v>Ajay Francis Anchan</v>
       </c>
       <c r="D18">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="E18">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="F18">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="G18">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="H18">
-        <v>3.6</v>
+        <v>1.6</v>
       </c>
       <c r="I18" t="str">
-        <v>Chicken Burger (x2)</v>
+        <v>Strawberry Lassi (x2)</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>211</v>
+        <v>347</v>
       </c>
       <c r="B19" s="1">
-        <v>45707.22928240741</v>
+        <v>45718.22928240741</v>
       </c>
       <c r="C19" t="str">
         <v>Ajay Francis Anchan</v>
       </c>
       <c r="D19">
-        <v>7</v>
+        <v>98</v>
       </c>
       <c r="E19">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="F19">
-        <v>0.8</v>
+        <v>2.23</v>
       </c>
       <c r="G19">
-        <v>0.8</v>
+        <v>2.23</v>
       </c>
       <c r="H19">
-        <v>1.6</v>
+        <v>4.45</v>
       </c>
       <c r="I19" t="str">
-        <v>8PM Coffee (x2)</v>
+        <v>Banana Shake (x2), Veg Cheese Pops (x1)</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>210</v>
+        <v>346</v>
       </c>
       <c r="B20" s="1">
-        <v>45707.22928240741</v>
+        <v>45718.22928240741</v>
       </c>
       <c r="C20" t="str">
         <v>Ajay Francis Anchan</v>
       </c>
       <c r="D20">
-        <v>6</v>
+        <v>97</v>
       </c>
       <c r="E20">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="F20">
-        <v>0.63</v>
+        <v>1.43</v>
       </c>
       <c r="G20">
-        <v>0.63</v>
+        <v>1.43</v>
       </c>
       <c r="H20">
-        <v>1.25</v>
+        <v>2.85</v>
       </c>
       <c r="I20" t="str">
-        <v>Veg Wrap (x1)</v>
+        <v>Oreo Shake (x1), Vanilla Shake (x2)</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>209</v>
+        <v>345</v>
       </c>
       <c r="B21" s="1">
-        <v>45707.22928240741</v>
+        <v>45718.22928240741</v>
       </c>
       <c r="C21" t="str">
         <v>Ajay Francis Anchan</v>
       </c>
       <c r="D21">
-        <v>5</v>
+        <v>96</v>
       </c>
       <c r="E21">
         <v>100</v>
@@ -1009,50 +1009,50 @@
         <v>2.6</v>
       </c>
       <c r="I21" t="str">
-        <v>Mango Lassi (x1), Strawberry Lassi (x1)</v>
+        <v>Strawberry Lassi (x1), Chicken Wrap (x1)</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>208</v>
+        <v>344</v>
       </c>
       <c r="B22" s="1">
-        <v>45707.22928240741</v>
+        <v>45718.22928240741</v>
       </c>
       <c r="C22" t="str">
         <v>Ajay Francis Anchan</v>
       </c>
       <c r="D22">
-        <v>4</v>
+        <v>95</v>
       </c>
       <c r="E22">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="F22">
-        <v>5.1</v>
+        <v>1.8</v>
       </c>
       <c r="G22">
-        <v>5.1</v>
+        <v>1.8</v>
       </c>
       <c r="H22">
-        <v>10.2</v>
+        <v>3.6</v>
       </c>
       <c r="I22" t="str">
-        <v>Chicken Wrap (x1), Chicken Schezwan Wrap (x2)</v>
+        <v>Butterscotch Lassi (x2)</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>207</v>
+        <v>343</v>
       </c>
       <c r="B23" s="1">
-        <v>45707.22928240741</v>
+        <v>45718.22928240741</v>
       </c>
       <c r="C23" t="str">
         <v>Ajay Francis Anchan</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>94</v>
       </c>
       <c r="E23">
         <v>120</v>
@@ -1067,21 +1067,21 @@
         <v>3.6</v>
       </c>
       <c r="I23" t="str">
-        <v>Mango Lassi (x2)</v>
+        <v>Chicken Burger (x2)</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>204</v>
+        <v>341</v>
       </c>
       <c r="B24" s="1">
-        <v>45706.22928240741</v>
+        <v>45718.22928240741</v>
       </c>
       <c r="C24" t="str">
         <v>Ajay Francis Anchan</v>
       </c>
       <c r="D24">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="E24">
         <v>50</v>
@@ -1101,45 +1101,45 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>203</v>
+        <v>340</v>
       </c>
       <c r="B25" s="1">
-        <v>45706.22928240741</v>
+        <v>45718.22928240741</v>
       </c>
       <c r="C25" t="str">
         <v>Ajay Francis Anchan</v>
       </c>
       <c r="D25">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="E25">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="F25">
-        <v>1.73</v>
+        <v>0.9</v>
       </c>
       <c r="G25">
-        <v>1.73</v>
+        <v>0.9</v>
       </c>
       <c r="H25">
-        <v>3.45</v>
+        <v>1.8</v>
       </c>
       <c r="I25" t="str">
-        <v>Chicken Cheese Pops (x1), Banana Shake (x1)</v>
+        <v>Butterscotch Lassi (x1)</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>202</v>
+        <v>339</v>
       </c>
       <c r="B26" s="1">
-        <v>45706.22928240741</v>
+        <v>45718.22928240741</v>
       </c>
       <c r="C26" t="str">
         <v>Ajay Francis Anchan</v>
       </c>
       <c r="D26">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="E26">
         <v>60</v>
@@ -1154,282 +1154,282 @@
         <v>1.8</v>
       </c>
       <c r="I26" t="str">
-        <v>Mango Lassi (x1)</v>
+        <v>Chicken Wrap (x1)</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>201</v>
+        <v>338</v>
       </c>
       <c r="B27" s="1">
-        <v>45706.22928240741</v>
+        <v>45718.22928240741</v>
       </c>
       <c r="C27" t="str">
         <v>Ajay Francis Anchan</v>
       </c>
       <c r="D27">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="E27">
-        <v>1380</v>
+        <v>60</v>
       </c>
       <c r="F27">
-        <v>20.7</v>
+        <v>0.9</v>
       </c>
       <c r="G27">
-        <v>20.7</v>
+        <v>0.9</v>
       </c>
       <c r="H27">
-        <v>41.4</v>
+        <v>1.8</v>
       </c>
       <c r="I27" t="str">
-        <v>Chicken Burger (x23)</v>
+        <v>Butterscotch Lassi (x1)</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>200</v>
+        <v>337</v>
       </c>
       <c r="B28" s="1">
-        <v>45706.22928240741</v>
+        <v>45718.22928240741</v>
       </c>
       <c r="C28" t="str">
         <v>Ajay Francis Anchan</v>
       </c>
       <c r="D28">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="E28">
-        <v>220</v>
+        <v>60</v>
       </c>
       <c r="F28">
-        <v>3.1</v>
+        <v>0.9</v>
       </c>
       <c r="G28">
-        <v>3.1</v>
+        <v>0.9</v>
       </c>
       <c r="H28">
-        <v>6.2</v>
+        <v>1.8</v>
       </c>
       <c r="I28" t="str">
-        <v>Strawberry Lassi (x1), Mango Lassi (x3)</v>
+        <v>Chicken Wrap (x1)</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>199</v>
+        <v>336</v>
       </c>
       <c r="B29" s="1">
-        <v>45706.22928240741</v>
+        <v>45718.22928240741</v>
       </c>
       <c r="C29" t="str">
         <v>Ajay Francis Anchan</v>
       </c>
       <c r="D29">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="E29">
-        <v>960</v>
+        <v>100</v>
       </c>
       <c r="F29">
-        <v>14.4</v>
+        <v>1.25</v>
       </c>
       <c r="G29">
-        <v>14.4</v>
+        <v>1.25</v>
       </c>
       <c r="H29">
-        <v>28.8</v>
+        <v>2.5</v>
       </c>
       <c r="I29" t="str">
-        <v>Butterscotch Lassi (x16)</v>
+        <v>Oreo Shake (x2)</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>198</v>
+        <v>335</v>
       </c>
       <c r="B30" s="1">
-        <v>45706.22928240741</v>
+        <v>45718.22928240741</v>
       </c>
       <c r="C30" t="str">
         <v>Ajay Francis Anchan</v>
       </c>
       <c r="D30">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="E30">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="F30">
-        <v>2.95</v>
+        <v>1.8</v>
       </c>
       <c r="G30">
-        <v>2.95</v>
+        <v>1.8</v>
       </c>
       <c r="H30">
-        <v>5.9</v>
+        <v>3.6</v>
       </c>
       <c r="I30" t="str">
-        <v>Veg Cheese Pops (x2), Banana Shake (x1)</v>
+        <v>Chicken Cheese Burger (x2)</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>197</v>
+        <v>334</v>
       </c>
       <c r="B31" s="1">
-        <v>45706.22928240741</v>
+        <v>45718.22928240741</v>
       </c>
       <c r="C31" t="str">
         <v>Ajay Francis Anchan</v>
       </c>
       <c r="D31">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="E31">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="F31">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="G31">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="H31">
-        <v>3.6</v>
+        <v>1.6</v>
       </c>
       <c r="I31" t="str">
-        <v>Mango Lassi (x2)</v>
+        <v>Vanilla Shake (x2)</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>196</v>
+        <v>333</v>
       </c>
       <c r="B32" s="1">
-        <v>45706.22928240741</v>
+        <v>45718.22928240741</v>
       </c>
       <c r="C32" t="str">
         <v>Ajay Francis Anchan</v>
       </c>
       <c r="D32">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="E32">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="F32">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="G32">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="H32">
-        <v>4.4</v>
+        <v>3.6</v>
       </c>
       <c r="I32" t="str">
-        <v>Chicken Burger (x1), Chicken Cheese Burger (x1), Vanilla Shake (x1)</v>
+        <v>Butterscotch Lassi (x2)</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>195</v>
+        <v>332</v>
       </c>
       <c r="B33" s="1">
-        <v>45706.22928240741</v>
+        <v>45718.22928240741</v>
       </c>
       <c r="C33" t="str">
         <v>Ajay Francis Anchan</v>
       </c>
       <c r="D33">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="E33">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="F33">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="G33">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="H33">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="I33" t="str">
-        <v>Strawberry Lassi (x1), Banana Shake (x2)</v>
+        <v>Oreo Shake (x2)</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>191</v>
+        <v>331</v>
       </c>
       <c r="B34" s="1">
-        <v>45706.22928240741</v>
+        <v>45718.22928240741</v>
       </c>
       <c r="C34" t="str">
         <v>Ajay Francis Anchan</v>
       </c>
       <c r="D34">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="E34">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="F34">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="G34">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="H34">
-        <v>4.4</v>
+        <v>3.6</v>
       </c>
       <c r="I34" t="str">
-        <v>Strawberry Lassi (x1), Butterscotch Lassi (x1), Chicken Wrap (x1)</v>
+        <v>Chicken Cheese Burger (x2)</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>185</v>
+        <v>330</v>
       </c>
       <c r="B35" s="1">
-        <v>45706.22928240741</v>
+        <v>45718.22928240741</v>
       </c>
       <c r="C35" t="str">
         <v>Ajay Francis Anchan</v>
       </c>
       <c r="D35">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="E35">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F35">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="G35">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="H35">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="I35" t="str">
-        <v>Mango Lassi (x1), Strawberry Lassi (x1)</v>
+        <v>Oreo Shake (x2)</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>184</v>
+        <v>329</v>
       </c>
       <c r="B36" s="1">
-        <v>45706.22928240741</v>
+        <v>45718.22928240741</v>
       </c>
       <c r="C36" t="str">
         <v>Ajay Francis Anchan</v>
       </c>
       <c r="D36">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="E36">
         <v>120</v>
@@ -1444,169 +1444,169 @@
         <v>3.6</v>
       </c>
       <c r="I36" t="str">
-        <v>Chicken Wrap (x1), Butterscotch Lassi (x1)</v>
+        <v>Chicken Cheese Burger (x2)</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>183</v>
+        <v>328</v>
       </c>
       <c r="B37" s="1">
-        <v>45706.22928240741</v>
+        <v>45718.22928240741</v>
       </c>
       <c r="C37" t="str">
         <v>Ajay Francis Anchan</v>
       </c>
       <c r="D37">
-        <v>8</v>
+        <v>79</v>
       </c>
       <c r="E37">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="F37">
-        <v>1.73</v>
+        <v>1.25</v>
       </c>
       <c r="G37">
-        <v>1.73</v>
+        <v>1.25</v>
       </c>
       <c r="H37">
-        <v>3.45</v>
+        <v>2.5</v>
       </c>
       <c r="I37" t="str">
-        <v>Banana Shake (x1), Veg Cheese Pops (x1)</v>
+        <v>Oreo Shake (x2)</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>182</v>
+        <v>327</v>
       </c>
       <c r="B38" s="1">
-        <v>45706.22928240741</v>
+        <v>45718.22928240741</v>
       </c>
       <c r="C38" t="str">
         <v>Ajay Francis Anchan</v>
       </c>
       <c r="D38">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="E38">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="F38">
-        <v>1.23</v>
+        <v>1.8</v>
       </c>
       <c r="G38">
-        <v>1.23</v>
+        <v>1.8</v>
       </c>
       <c r="H38">
-        <v>2.45</v>
+        <v>3.6</v>
       </c>
       <c r="I38" t="str">
-        <v>Chicken Cheese Pops (x1)</v>
+        <v>Chicken Cheese Burger (x2)</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>181</v>
+        <v>326</v>
       </c>
       <c r="B39" s="1">
-        <v>45706.22928240741</v>
+        <v>45718.22928240741</v>
       </c>
       <c r="C39" t="str">
         <v>Ajay Francis Anchan</v>
       </c>
       <c r="D39">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="E39">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F39">
-        <v>1.3</v>
+        <v>0.63</v>
       </c>
       <c r="G39">
-        <v>1.3</v>
+        <v>0.63</v>
       </c>
       <c r="H39">
-        <v>2.6</v>
+        <v>1.25</v>
       </c>
       <c r="I39" t="str">
-        <v>Strawberry Lassi (x1), Butterscotch Lassi (x1)</v>
+        <v>Oreo Shake (x1)</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>180</v>
+        <v>325</v>
       </c>
       <c r="B40" s="1">
-        <v>45706.22928240741</v>
+        <v>45718.22928240741</v>
       </c>
       <c r="C40" t="str">
         <v>Ajay Francis Anchan</v>
       </c>
       <c r="D40">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="E40">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F40">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="G40">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H40">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="I40" t="str">
-        <v>Chicken Cheese Burger (x1)</v>
+        <v>Chocolate Shake (x1)</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>175</v>
+        <v>324</v>
       </c>
       <c r="B41" s="1">
-        <v>45705.22928240741</v>
+        <v>45718.22928240741</v>
       </c>
       <c r="C41" t="str">
         <v>Ajay Francis Anchan</v>
       </c>
       <c r="D41">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="E41">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="F41">
-        <v>4.53</v>
+        <v>0.4</v>
       </c>
       <c r="G41">
-        <v>4.53</v>
+        <v>0.4</v>
       </c>
       <c r="H41">
-        <v>9.05</v>
+        <v>0.8</v>
       </c>
       <c r="I41" t="str">
-        <v>Veg Wrap (x1), Chicken Schezwan Wrap (x1), Veg Schezwan Wrap (x1)</v>
+        <v>Strawberry Lassi (x1)</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>174</v>
+        <v>323</v>
       </c>
       <c r="B42" s="1">
-        <v>45705.22928240741</v>
+        <v>45718.22928240741</v>
       </c>
       <c r="C42" t="str">
         <v>Ajay Francis Anchan</v>
       </c>
       <c r="D42">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="E42">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="F42">
         <v>0.9</v>
@@ -1618,195 +1618,195 @@
         <v>1.8</v>
       </c>
       <c r="I42" t="str">
-        <v>Lime Juice (x1), Mint Lime (x1), Watermelon Juice (x1)</v>
+        <v>Chicken Wrap (x1)</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>173</v>
+        <v>322</v>
       </c>
       <c r="B43" s="1">
-        <v>45705.22928240741</v>
+        <v>45718.22928240741</v>
       </c>
       <c r="C43" t="str">
         <v>Ajay Francis Anchan</v>
       </c>
       <c r="D43">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="E43">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="F43">
-        <v>1.52</v>
+        <v>1.8</v>
       </c>
       <c r="G43">
-        <v>1.52</v>
+        <v>1.8</v>
       </c>
       <c r="H43">
-        <v>3.05</v>
+        <v>3.6</v>
       </c>
       <c r="I43" t="str">
-        <v>Vanilla Shake (x1), Oreo Shake (x1), Chocolate Shake (x1)</v>
+        <v>Butterscotch Lassi (x1), Chicken Wrap (x1)</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>172</v>
+        <v>321</v>
       </c>
       <c r="B44" s="1">
-        <v>45705.22928240741</v>
+        <v>45718.22928240741</v>
       </c>
       <c r="C44" t="str">
         <v>Ajay Francis Anchan</v>
       </c>
       <c r="D44">
-        <v>3</v>
+        <v>72</v>
       </c>
       <c r="E44">
-        <v>170</v>
+        <v>50</v>
       </c>
       <c r="F44">
-        <v>2.53</v>
+        <v>0.63</v>
       </c>
       <c r="G44">
-        <v>2.53</v>
+        <v>0.63</v>
       </c>
       <c r="H44">
-        <v>5.05</v>
+        <v>1.25</v>
       </c>
       <c r="I44" t="str">
-        <v>Mango Lassi (x1), Strawberry Lassi (x1), Chicken Cheese Pops (x1)</v>
+        <v>Oreo Shake (x1)</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>171</v>
+        <v>320</v>
       </c>
       <c r="B45" s="1">
-        <v>45705.22928240741</v>
+        <v>45718.22928240741</v>
       </c>
       <c r="C45" t="str">
         <v>Ajay Francis Anchan</v>
       </c>
       <c r="D45">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="E45">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="F45">
-        <v>2.2</v>
+        <v>0.8</v>
       </c>
       <c r="G45">
-        <v>2.2</v>
+        <v>0.8</v>
       </c>
       <c r="H45">
-        <v>4.4</v>
+        <v>1.6</v>
       </c>
       <c r="I45" t="str">
-        <v>Chicken Cheese Burger (x1), Strawberry Lassi (x1), Butterscotch Lassi (x1)</v>
+        <v>Vanilla Shake (x2)</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>168</v>
+        <v>319</v>
       </c>
       <c r="B46" s="1">
-        <v>45704.22928240741</v>
+        <v>45718.22928240741</v>
       </c>
       <c r="C46" t="str">
         <v>Ajay Francis Anchan</v>
       </c>
       <c r="D46">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="E46">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="F46">
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="G46">
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="H46">
-        <v>6</v>
+        <v>1.8</v>
       </c>
       <c r="I46" t="str">
-        <v>Chicken Burger (x1), Chicken Cheese Burger (x1), Strawberry Lassi (x3)</v>
+        <v>Chicken Wrap (x1)</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>167</v>
+        <v>318</v>
       </c>
       <c r="B47" s="1">
-        <v>45704.22928240741</v>
+        <v>45718.22928240741</v>
       </c>
       <c r="C47" t="str">
         <v>Ajay Francis Anchan</v>
       </c>
       <c r="D47">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="E47">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F47">
-        <v>0.8</v>
+        <v>1.23</v>
       </c>
       <c r="G47">
-        <v>0.8</v>
+        <v>1.23</v>
       </c>
       <c r="H47">
-        <v>1.6</v>
+        <v>2.45</v>
       </c>
       <c r="I47" t="str">
-        <v>8PM Coffee (x2)</v>
+        <v>Veg Cheese Pops (x1)</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>166</v>
+        <v>317</v>
       </c>
       <c r="B48" s="1">
-        <v>45704.22928240741</v>
+        <v>45718.22928240741</v>
       </c>
       <c r="C48" t="str">
         <v>Ajay Francis Anchan</v>
       </c>
       <c r="D48">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="E48">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="F48">
-        <v>2.7</v>
+        <v>1</v>
       </c>
       <c r="G48">
-        <v>2.7</v>
+        <v>1</v>
       </c>
       <c r="H48">
-        <v>5.4</v>
+        <v>2</v>
       </c>
       <c r="I48" t="str">
-        <v>Mango Lassi (x3)</v>
+        <v>Banana Shake (x2)</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>164</v>
+        <v>316</v>
       </c>
       <c r="B49" s="1">
-        <v>45704.22928240741</v>
+        <v>45718.22928240741</v>
       </c>
       <c r="C49" t="str">
         <v>Ajay Francis Anchan</v>
       </c>
       <c r="D49">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="E49">
         <v>60</v>
@@ -1821,998 +1821,4797 @@
         <v>1.8</v>
       </c>
       <c r="I49" t="str">
-        <v>Chicken Cheese Burger (x1)</v>
+        <v>Chicken Wrap (x1)</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>163</v>
+        <v>315</v>
       </c>
       <c r="B50" s="1">
-        <v>45704.22928240741</v>
+        <v>45718.22928240741</v>
       </c>
       <c r="C50" t="str">
         <v>Ajay Francis Anchan</v>
       </c>
       <c r="D50">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="E50">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F50">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="G50">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="H50">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="I50" t="str">
-        <v>Belgian Coffee (x1)</v>
+        <v>Chicken Wrap (x1)</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>162</v>
+        <v>314</v>
       </c>
       <c r="B51" s="1">
-        <v>45704.22928240741</v>
+        <v>45718.22928240741</v>
       </c>
       <c r="C51" t="str">
         <v>Ajay Francis Anchan</v>
       </c>
       <c r="D51">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="E51">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="F51">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="G51">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="H51">
-        <v>1.6</v>
+        <v>3.6</v>
       </c>
       <c r="I51" t="str">
-        <v>8PM Coffee (x1), Coffee Italia (x1)</v>
+        <v>Chicken Burger (x2)</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>155</v>
+        <v>313</v>
       </c>
       <c r="B52" s="1">
-        <v>45703.22928240741</v>
+        <v>45718.22928240741</v>
       </c>
       <c r="C52" t="str">
         <v>Ajay Francis Anchan</v>
       </c>
       <c r="D52">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="E52">
-        <v>425</v>
+        <v>100</v>
       </c>
       <c r="F52">
-        <v>13.55</v>
+        <v>1</v>
       </c>
       <c r="G52">
-        <v>14.3</v>
+        <v>1</v>
       </c>
       <c r="H52">
-        <v>28.39</v>
+        <v>2</v>
       </c>
       <c r="I52" t="str">
-        <v>Chicken Momos (x1), Veg Momos (x1), Chicken Shezwan Momos (x1), Chicken Peri Peri Momos (x1), Veg Shezwan Momos (x1)</v>
+        <v>Banana Shake (x2)</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>154</v>
+        <v>312</v>
       </c>
       <c r="B53" s="1">
-        <v>45703.22928240741</v>
+        <v>45718.22928240741</v>
       </c>
       <c r="C53" t="str">
         <v>Ajay Francis Anchan</v>
       </c>
       <c r="D53">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="E53">
-        <v>2475</v>
+        <v>60</v>
       </c>
       <c r="F53">
-        <v>50.25</v>
+        <v>0.9</v>
       </c>
       <c r="G53">
-        <v>63</v>
+        <v>0.9</v>
       </c>
       <c r="H53">
-        <v>118.35</v>
+        <v>1.8</v>
       </c>
       <c r="I53" t="str">
-        <v>Vanilla Shake (x30), Chicken Momos (x17)</v>
+        <v>Chicken Wrap (x1)</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>152</v>
+        <v>311</v>
       </c>
       <c r="B54" s="1">
-        <v>45703.22928240741</v>
+        <v>45718.22928240741</v>
       </c>
       <c r="C54" t="str">
         <v>Ajay Francis Anchan</v>
       </c>
       <c r="D54">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="E54">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="F54">
-        <v>0.8</v>
+        <v>2.7</v>
       </c>
       <c r="G54">
-        <v>0.8</v>
+        <v>2.7</v>
       </c>
       <c r="H54">
-        <v>1.6</v>
+        <v>5.4</v>
       </c>
       <c r="I54" t="str">
-        <v>Coffee Italia (x1), Belgian Coffee (x1)</v>
+        <v>Chicken Burger (x3)</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>151</v>
+        <v>310</v>
       </c>
       <c r="B55" s="1">
-        <v>45703.22928240741</v>
+        <v>45718.22928240741</v>
       </c>
       <c r="C55" t="str">
         <v>Ajay Francis Anchan</v>
       </c>
       <c r="D55">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="E55">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="F55">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G55">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H55">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="I55" t="str">
-        <v>Hard Rock Coffee (x1), 8PM Coffee (x1)</v>
+        <v>Banana Shake (x2)</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>150</v>
+        <v>309</v>
       </c>
       <c r="B56" s="1">
-        <v>45703.22928240741</v>
+        <v>45718.22928240741</v>
       </c>
       <c r="C56" t="str">
         <v>Ajay Francis Anchan</v>
       </c>
       <c r="D56">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="E56">
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="F56">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="G56">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="H56">
-        <v>5.2</v>
+        <v>6.5</v>
       </c>
       <c r="I56" t="str">
-        <v>Black Currant Shake (x1), Banana Shake (x1), Hard Rock Coffee (x1), 8PM Coffee (x1), Coffee Italia (x1), Belgian Coffee (x1)</v>
+        <v>Strawberry Lassi (x2), Chicken Cheese Pops (x2)</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>142</v>
+        <v>308</v>
       </c>
       <c r="B57" s="1">
-        <v>45702.22928240741</v>
+        <v>45718.22928240741</v>
       </c>
       <c r="C57" t="str">
         <v>Ajay Francis Anchan</v>
       </c>
       <c r="D57">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="E57">
-        <v>40</v>
+        <v>180</v>
       </c>
       <c r="F57">
-        <v>0.4</v>
+        <v>2.7</v>
       </c>
       <c r="G57">
-        <v>0.4</v>
+        <v>2.7</v>
       </c>
       <c r="H57">
-        <v>0.8</v>
+        <v>5.4</v>
       </c>
       <c r="I57" t="str">
-        <v>Strawberry Lassi (x1)</v>
+        <v>Chicken Wrap (x3)</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>141</v>
+        <v>307</v>
       </c>
       <c r="B58" s="1">
-        <v>45702.22928240741</v>
+        <v>45718.22928240741</v>
       </c>
       <c r="C58" t="str">
         <v>Ajay Francis Anchan</v>
       </c>
       <c r="D58">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="E58">
-        <v>420</v>
+        <v>60</v>
       </c>
       <c r="F58">
-        <v>6.3</v>
+        <v>0.9</v>
       </c>
       <c r="G58">
-        <v>6.3</v>
+        <v>0.9</v>
       </c>
       <c r="H58">
-        <v>12.6</v>
+        <v>1.8</v>
       </c>
       <c r="I58" t="str">
-        <v>Chicken Wrap (x7)</v>
+        <v>Chicken Cheese Burger (x1)</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>136</v>
+        <v>306</v>
       </c>
       <c r="B59" s="1">
-        <v>45701.22928240741</v>
+        <v>45718.22928240741</v>
       </c>
       <c r="C59" t="str">
         <v>Ajay Francis Anchan</v>
       </c>
       <c r="D59">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="E59">
-        <v>215</v>
+        <v>180</v>
       </c>
       <c r="F59">
-        <v>6.35</v>
+        <v>2.7</v>
       </c>
       <c r="G59">
-        <v>7.1</v>
+        <v>2.7</v>
       </c>
       <c r="H59">
-        <v>13.99</v>
+        <v>5.4</v>
       </c>
       <c r="I59" t="str">
-        <v>Veg Momos (x1), Chicken Momos (x1), Chicken Wrap (x1)</v>
+        <v>Chicken Wrap (x3)</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>135</v>
+        <v>305</v>
       </c>
       <c r="B60" s="1">
-        <v>45701.22928240741</v>
+        <v>45718.22928240741</v>
       </c>
       <c r="C60" t="str">
         <v>Ajay Francis Anchan</v>
       </c>
       <c r="D60">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="E60">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="F60">
+        <v>1.2</v>
+      </c>
+      <c r="G60">
+        <v>1.2</v>
+      </c>
+      <c r="H60">
         <v>2.4</v>
       </c>
-      <c r="G60">
-        <v>2.4</v>
-      </c>
-      <c r="H60">
-        <v>0</v>
-      </c>
       <c r="I60" t="str">
-        <v>Peri Peri Fries (x4)</v>
+        <v>Vanilla Shake (x3)</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>134</v>
+        <v>304</v>
       </c>
       <c r="B61" s="1">
-        <v>45701.22928240741</v>
+        <v>45718.22928240741</v>
       </c>
       <c r="C61" t="str">
         <v>Ajay Francis Anchan</v>
       </c>
       <c r="D61">
+        <v>55</v>
+      </c>
+      <c r="E61">
+        <v>100</v>
+      </c>
+      <c r="F61">
         <v>1</v>
       </c>
-      <c r="E61">
-        <v>90</v>
-      </c>
-      <c r="F61">
-        <v>1.02</v>
-      </c>
       <c r="G61">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="H61">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="I61" t="str">
-        <v>Vanilla Shake (x1), Oreo Shake (x1)</v>
+        <v>Banana Shake (x2)</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>133</v>
+        <v>303</v>
       </c>
       <c r="B62" s="1">
-        <v>45700.22928240741</v>
+        <v>45718.22928240741</v>
       </c>
       <c r="C62" t="str">
         <v>Ajay Francis Anchan</v>
       </c>
       <c r="D62">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="E62">
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="F62">
-        <v>4.1</v>
+        <v>2.7</v>
       </c>
       <c r="G62">
-        <v>4.1</v>
+        <v>2.7</v>
       </c>
       <c r="H62">
-        <v>8.2</v>
+        <v>5.4</v>
       </c>
       <c r="I62" t="str">
-        <v>Veg Wrap (x4), Hard Rock Coffee (x1), 8PM Coffee (x1), Coffee Italia (x1), Belgian Coffee (x1)</v>
+        <v>Butterscotch Lassi (x3)</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>132</v>
+        <v>302</v>
       </c>
       <c r="B63" s="1">
-        <v>45700.22928240741</v>
+        <v>45718.22928240741</v>
       </c>
       <c r="C63" t="str">
         <v>Ajay Francis Anchan</v>
       </c>
       <c r="D63">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E63">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="F63">
-        <v>0.4</v>
+        <v>1.8</v>
       </c>
       <c r="G63">
-        <v>0.4</v>
+        <v>1.8</v>
       </c>
       <c r="H63">
-        <v>0.8</v>
+        <v>3.6</v>
       </c>
       <c r="I63" t="str">
-        <v>Strawberry Lassi (x1)</v>
+        <v>Chicken Wrap (x2)</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>129</v>
+        <v>301</v>
       </c>
       <c r="B64" s="1">
-        <v>45700.22928240741</v>
+        <v>45718.22928240741</v>
       </c>
       <c r="C64" t="str">
         <v>Ajay Francis Anchan</v>
       </c>
       <c r="D64">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E64">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="F64">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="G64">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H64">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="I64" t="str">
-        <v>Chicken Burger (x1)</v>
+        <v>Chicken Burger (x2)</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>126</v>
+        <v>300</v>
       </c>
       <c r="B65" s="1">
-        <v>45700.22928240741</v>
+        <v>45718.22928240741</v>
       </c>
       <c r="C65" t="str">
         <v>Ajay Francis Anchan</v>
       </c>
       <c r="D65">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="E65">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="F65">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="G65">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="I65" t="str">
-        <v>Peri Peri Fries (x1)</v>
+        <v>Butterscotch Lassi (x1), Chicken Wrap (x1)</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>125</v>
+        <v>299</v>
       </c>
       <c r="B66" s="1">
-        <v>45700.22928240741</v>
+        <v>45718.22928240741</v>
       </c>
       <c r="C66" t="str">
         <v>Ajay Francis Anchan</v>
       </c>
       <c r="D66">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="E66">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="F66">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G66">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H66">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="I66" t="str">
-        <v>Butterscotch Lassi (x1)</v>
+        <v>Banana Shake (x2)</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>124</v>
+        <v>298</v>
       </c>
       <c r="B67" s="1">
-        <v>45700.22928240741</v>
+        <v>45718.22928240741</v>
       </c>
       <c r="C67" t="str">
         <v>Ajay Francis Anchan</v>
       </c>
       <c r="D67">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="E67">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="F67">
-        <v>0.4</v>
+        <v>1.8</v>
       </c>
       <c r="G67">
-        <v>0.4</v>
+        <v>1.8</v>
       </c>
       <c r="H67">
-        <v>0.8</v>
+        <v>3.6</v>
       </c>
       <c r="I67" t="str">
-        <v>Strawberry Lassi (x1)</v>
+        <v>Butterscotch Lassi (x2)</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>122</v>
+        <v>297</v>
       </c>
       <c r="B68" s="1">
-        <v>45699.22928240741</v>
+        <v>45718.22928240741</v>
       </c>
       <c r="C68" t="str">
         <v>Ajay Francis Anchan</v>
       </c>
       <c r="D68">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="E68">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F68">
-        <v>0.3</v>
+        <v>1.8</v>
       </c>
       <c r="G68">
-        <v>0.3</v>
+        <v>1.8</v>
       </c>
       <c r="H68">
-        <v>0.6</v>
+        <v>3.6</v>
       </c>
       <c r="I68" t="str">
-        <v>Mint Lime (x1)</v>
+        <v>Chicken Wrap (x2)</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>121</v>
+        <v>296</v>
       </c>
       <c r="B69" s="1">
-        <v>45699.22928240741</v>
+        <v>45718.22928240741</v>
       </c>
       <c r="C69" t="str">
         <v>Ajay Francis Anchan</v>
       </c>
       <c r="D69">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="E69">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="F69">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="G69">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="H69">
-        <v>4.8</v>
+        <v>5.4</v>
       </c>
       <c r="I69" t="str">
-        <v>Hard Rock Coffee (x1), 8PM Coffee (x1), Coffee Italia (x1), Belgian Coffee (x3)</v>
+        <v>Chicken Cheese Burger (x3)</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>119</v>
+        <v>295</v>
       </c>
       <c r="B70" s="1">
-        <v>45699.22928240741</v>
+        <v>45718.22928240741</v>
       </c>
       <c r="C70" t="str">
         <v>Ajay Francis Anchan</v>
       </c>
       <c r="D70">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="E70">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F70">
-        <v>1.23</v>
+        <v>0.9</v>
       </c>
       <c r="G70">
-        <v>1.23</v>
+        <v>0.9</v>
       </c>
       <c r="H70">
-        <v>2.45</v>
+        <v>1.8</v>
       </c>
       <c r="I70" t="str">
-        <v>Veg Cheese Pops (x1)</v>
+        <v>Chicken Wrap (x1)</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>117</v>
+        <v>294</v>
       </c>
       <c r="B71" s="1">
-        <v>45699.22928240741</v>
+        <v>45718.22928240741</v>
       </c>
       <c r="C71" t="str">
         <v>Ajay Francis Anchan</v>
       </c>
       <c r="D71">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="E71">
-        <v>560</v>
+        <v>40</v>
       </c>
       <c r="F71">
-        <v>7.75</v>
+        <v>0.4</v>
       </c>
       <c r="G71">
-        <v>7.75</v>
+        <v>0.4</v>
       </c>
       <c r="H71">
-        <v>14.3</v>
+        <v>0.8</v>
       </c>
       <c r="I71" t="str">
-        <v>Lime Juice (x3), Chicken Wrap (x3), Chicken Burger (x1), Oreo Shake (x1), Vanilla Shake (x1), Veg Wrap (x1), Mango Lassi (x1), Strawberry Lassi (x1), Peri Peri Fries (x1)</v>
+        <v>Strawberry Lassi (x1)</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>116</v>
+        <v>293</v>
       </c>
       <c r="B72" s="1">
-        <v>45699.22928240741</v>
+        <v>45718.22928240741</v>
       </c>
       <c r="C72" t="str">
         <v>Ajay Francis Anchan</v>
       </c>
       <c r="D72">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="E72">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="F72">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="G72">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="H72">
-        <v>3.6</v>
+        <v>5.4</v>
       </c>
       <c r="I72" t="str">
-        <v>Mango Lassi (x2)</v>
+        <v>Butterscotch Lassi (x3)</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>115</v>
+        <v>292</v>
       </c>
       <c r="B73" s="1">
-        <v>45699.22928240741</v>
+        <v>45718.22928240741</v>
       </c>
       <c r="C73" t="str">
         <v>Ajay Francis Anchan</v>
       </c>
       <c r="D73">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="E73">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="F73">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G73">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H73">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="I73" t="str">
-        <v>Chicken Cheese Burger (x1)</v>
+        <v>Banana Shake (x2)</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>114</v>
+        <v>291</v>
       </c>
       <c r="B74" s="1">
-        <v>45699.22928240741</v>
+        <v>45718.22928240741</v>
       </c>
       <c r="C74" t="str">
         <v>Ajay Francis Anchan</v>
       </c>
       <c r="D74">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="E74">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="F74">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G74">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H74">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="I74" t="str">
-        <v>Chicken Cheese Burger (x1)</v>
+        <v>Banana Shake (x2)</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>113</v>
+        <v>290</v>
       </c>
       <c r="B75" s="1">
-        <v>45699.22928240741</v>
+        <v>45718.22928240741</v>
       </c>
       <c r="C75" t="str">
         <v>Ajay Francis Anchan</v>
       </c>
       <c r="D75">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="E75">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F75">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="G75">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="H75">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="I75" t="str">
-        <v>Chicken Cheese Burger (x1)</v>
+        <v>Strawberry Lassi (x1)</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>112</v>
+        <v>289</v>
       </c>
       <c r="B76" s="1">
-        <v>45699.22928240741</v>
+        <v>45718.22928240741</v>
       </c>
       <c r="C76" t="str">
         <v>Ajay Francis Anchan</v>
       </c>
       <c r="D76">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="E76">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="F76">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="G76">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H76">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="I76" t="str">
-        <v>Chicken Cheese Burger (x1)</v>
+        <v>Chicken Wrap (x2)</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>111</v>
+        <v>288</v>
       </c>
       <c r="B77" s="1">
-        <v>45699.22928240741</v>
+        <v>45718.22928240741</v>
       </c>
       <c r="C77" t="str">
         <v>Ajay Francis Anchan</v>
       </c>
       <c r="D77">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="E77">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="F77">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="G77">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H77">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="I77" t="str">
-        <v>Chicken Cheese Burger (x1)</v>
+        <v>Chicken Cheese Burger (x2)</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>110</v>
+        <v>287</v>
       </c>
       <c r="B78" s="1">
-        <v>45699.22928240741</v>
+        <v>45718.22928240741</v>
       </c>
       <c r="C78" t="str">
         <v>Ajay Francis Anchan</v>
       </c>
       <c r="D78">
+        <v>38</v>
+      </c>
+      <c r="E78">
+        <v>100</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+      <c r="H78">
         <v>2</v>
       </c>
-      <c r="E78">
-        <v>60</v>
-      </c>
-      <c r="F78">
-        <v>0.9</v>
-      </c>
-      <c r="G78">
-        <v>0.9</v>
-      </c>
-      <c r="H78">
-        <v>1.8</v>
-      </c>
       <c r="I78" t="str">
-        <v>Chicken Cheese Burger (x1)</v>
+        <v>Banana Shake (x2)</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>107</v>
+        <v>286</v>
       </c>
       <c r="B79" s="1">
-        <v>45698.22928240741</v>
+        <v>45718.22928240741</v>
       </c>
       <c r="C79" t="str">
         <v>Ajay Francis Anchan</v>
       </c>
       <c r="D79">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="E79">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="F79">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="G79">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="I79" t="str">
-        <v>Peri Peri Fries (x1)</v>
+        <v>Butterscotch Lassi (x1), Chicken Wrap (x1)</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>106</v>
+        <v>285</v>
       </c>
       <c r="B80" s="1">
-        <v>45698.22928240741</v>
+        <v>45718.22928240741</v>
       </c>
       <c r="C80" t="str">
         <v>Ajay Francis Anchan</v>
       </c>
       <c r="D80">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="E80">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="F80">
-        <v>1.52</v>
+        <v>0.63</v>
       </c>
       <c r="G80">
-        <v>1.52</v>
+        <v>0.63</v>
       </c>
       <c r="H80">
-        <v>3.05</v>
+        <v>1.25</v>
       </c>
       <c r="I80" t="str">
-        <v>Chicken Wrap (x1), Veg Wrap (x1)</v>
+        <v>Oreo Shake (x1)</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>105</v>
+        <v>284</v>
       </c>
       <c r="B81" s="1">
-        <v>45698.22928240741</v>
+        <v>45718.22928240741</v>
       </c>
       <c r="C81" t="str">
         <v>Ajay Francis Anchan</v>
       </c>
       <c r="D81">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E81">
-        <v>100099</v>
+        <v>60</v>
       </c>
       <c r="F81">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="G81">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="I81" t="str">
-        <v>Strawberry Shake (x1), Chocolate Shake (x1)</v>
+        <v>Chicken Wrap (x1)</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>103</v>
+        <v>283</v>
       </c>
       <c r="B82" s="1">
-        <v>45698.22928240741</v>
+        <v>45718.22928240741</v>
       </c>
       <c r="C82" t="str">
         <v>Ajay Francis Anchan</v>
       </c>
       <c r="D82">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="E82">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="F82">
-        <v>2.15</v>
+        <v>1.52</v>
       </c>
       <c r="G82">
-        <v>2.15</v>
+        <v>1.52</v>
       </c>
       <c r="H82">
-        <v>4.3</v>
+        <v>3.05</v>
       </c>
       <c r="I82" t="str">
-        <v>Chicken Wrap (x1), Veg Wrap (x2)</v>
+        <v>Oreo Shake (x1), Chicken Wrap (x1)</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
+        <v>282</v>
+      </c>
+      <c r="B83" s="1">
+        <v>45718.22928240741</v>
+      </c>
+      <c r="C83" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D83">
+        <v>33</v>
+      </c>
+      <c r="E83">
+        <v>40</v>
+      </c>
+      <c r="F83">
+        <v>0.4</v>
+      </c>
+      <c r="G83">
+        <v>0.4</v>
+      </c>
+      <c r="H83">
+        <v>0.8</v>
+      </c>
+      <c r="I83" t="str">
+        <v>Strawberry Lassi (x1)</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>281</v>
+      </c>
+      <c r="B84" s="1">
+        <v>45718.22928240741</v>
+      </c>
+      <c r="C84" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D84">
+        <v>32</v>
+      </c>
+      <c r="E84">
+        <v>60</v>
+      </c>
+      <c r="F84">
+        <v>0.9</v>
+      </c>
+      <c r="G84">
+        <v>0.9</v>
+      </c>
+      <c r="H84">
+        <v>1.8</v>
+      </c>
+      <c r="I84" t="str">
+        <v>Mango Lassi (x1)</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>280</v>
+      </c>
+      <c r="B85" s="1">
+        <v>45718.22928240741</v>
+      </c>
+      <c r="C85" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D85">
+        <v>31</v>
+      </c>
+      <c r="E85">
+        <v>40</v>
+      </c>
+      <c r="F85">
+        <v>0.4</v>
+      </c>
+      <c r="G85">
+        <v>0.4</v>
+      </c>
+      <c r="H85">
+        <v>0.8</v>
+      </c>
+      <c r="I85" t="str">
+        <v>Vanilla Shake (x1)</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>279</v>
+      </c>
+      <c r="B86" s="1">
+        <v>45718.22928240741</v>
+      </c>
+      <c r="C86" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D86">
+        <v>30</v>
+      </c>
+      <c r="E86">
+        <v>200</v>
+      </c>
+      <c r="F86">
+        <v>2.6</v>
+      </c>
+      <c r="G86">
+        <v>2.6</v>
+      </c>
+      <c r="H86">
+        <v>5.2</v>
+      </c>
+      <c r="I86" t="str">
+        <v>Strawberry Lassi (x2), Mango Lassi (x2)</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>278</v>
+      </c>
+      <c r="B87" s="1">
+        <v>45718.22928240741</v>
+      </c>
+      <c r="C87" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D87">
+        <v>29</v>
+      </c>
+      <c r="E87">
+        <v>80</v>
+      </c>
+      <c r="F87">
+        <v>0.8</v>
+      </c>
+      <c r="G87">
+        <v>0.8</v>
+      </c>
+      <c r="H87">
+        <v>1.6</v>
+      </c>
+      <c r="I87" t="str">
+        <v>Lime Juice (x4)</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>277</v>
+      </c>
+      <c r="B88" s="1">
+        <v>45718.22928240741</v>
+      </c>
+      <c r="C88" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D88">
+        <v>28</v>
+      </c>
+      <c r="E88">
+        <v>180</v>
+      </c>
+      <c r="F88">
+        <v>2.7</v>
+      </c>
+      <c r="G88">
+        <v>2.7</v>
+      </c>
+      <c r="H88">
+        <v>5.4</v>
+      </c>
+      <c r="I88" t="str">
+        <v>Chicken Wrap (x3)</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>276</v>
+      </c>
+      <c r="B89" s="1">
+        <v>45718.22928240741</v>
+      </c>
+      <c r="C89" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D89">
+        <v>27</v>
+      </c>
+      <c r="E89">
+        <v>180</v>
+      </c>
+      <c r="F89">
+        <v>2.7</v>
+      </c>
+      <c r="G89">
+        <v>2.7</v>
+      </c>
+      <c r="H89">
+        <v>5.4</v>
+      </c>
+      <c r="I89" t="str">
+        <v>Butterscotch Lassi (x3)</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>275</v>
+      </c>
+      <c r="B90" s="1">
+        <v>45718.22928240741</v>
+      </c>
+      <c r="C90" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D90">
+        <v>26</v>
+      </c>
+      <c r="E90">
+        <v>180</v>
+      </c>
+      <c r="F90">
+        <v>2.7</v>
+      </c>
+      <c r="G90">
+        <v>2.7</v>
+      </c>
+      <c r="H90">
+        <v>5.4</v>
+      </c>
+      <c r="I90" t="str">
+        <v>Chicken Wrap (x3)</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>274</v>
+      </c>
+      <c r="B91" s="1">
+        <v>45718.22928240741</v>
+      </c>
+      <c r="C91" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D91">
+        <v>25</v>
+      </c>
+      <c r="E91">
+        <v>100</v>
+      </c>
+      <c r="F91">
+        <v>1.25</v>
+      </c>
+      <c r="G91">
+        <v>1.25</v>
+      </c>
+      <c r="H91">
+        <v>2.5</v>
+      </c>
+      <c r="I91" t="str">
+        <v>Oreo Shake (x2)</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>273</v>
+      </c>
+      <c r="B92" s="1">
+        <v>45718.22928240741</v>
+      </c>
+      <c r="C92" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D92">
+        <v>24</v>
+      </c>
+      <c r="E92">
+        <v>250</v>
+      </c>
+      <c r="F92">
+        <v>3.23</v>
+      </c>
+      <c r="G92">
+        <v>3.23</v>
+      </c>
+      <c r="H92">
+        <v>6.45</v>
+      </c>
+      <c r="I92" t="str">
+        <v>Oreo Shake (x1), Vanilla Shake (x2), Chicken Cheese Burger (x2)</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>272</v>
+      </c>
+      <c r="B93" s="1">
+        <v>45718.22928240741</v>
+      </c>
+      <c r="C93" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D93">
+        <v>23</v>
+      </c>
+      <c r="E93">
+        <v>130</v>
+      </c>
+      <c r="F93">
+        <v>1.43</v>
+      </c>
+      <c r="G93">
+        <v>1.43</v>
+      </c>
+      <c r="H93">
+        <v>2.85</v>
+      </c>
+      <c r="I93" t="str">
+        <v>Vanilla Shake (x2), Oreo Shake (x1)</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>271</v>
+      </c>
+      <c r="B94" s="1">
+        <v>45718.22928240741</v>
+      </c>
+      <c r="C94" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D94">
+        <v>22</v>
+      </c>
+      <c r="E94">
+        <v>120</v>
+      </c>
+      <c r="F94">
+        <v>1.8</v>
+      </c>
+      <c r="G94">
+        <v>1.8</v>
+      </c>
+      <c r="H94">
+        <v>3.6</v>
+      </c>
+      <c r="I94" t="str">
+        <v>Chicken Wrap (x2)</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>270</v>
+      </c>
+      <c r="B95" s="1">
+        <v>45718.22928240741</v>
+      </c>
+      <c r="C95" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D95">
+        <v>21</v>
+      </c>
+      <c r="E95">
+        <v>50</v>
+      </c>
+      <c r="F95">
+        <v>0.5</v>
+      </c>
+      <c r="G95">
+        <v>0.5</v>
+      </c>
+      <c r="H95">
+        <v>1</v>
+      </c>
+      <c r="I95" t="str">
+        <v>Banana Shake (x1)</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>269</v>
+      </c>
+      <c r="B96" s="1">
+        <v>45718.22928240741</v>
+      </c>
+      <c r="C96" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D96">
+        <v>20</v>
+      </c>
+      <c r="E96">
+        <v>120</v>
+      </c>
+      <c r="F96">
+        <v>1.8</v>
+      </c>
+      <c r="G96">
+        <v>1.8</v>
+      </c>
+      <c r="H96">
+        <v>3.6</v>
+      </c>
+      <c r="I96" t="str">
+        <v>Chicken Wrap (x2)</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>268</v>
+      </c>
+      <c r="B97" s="1">
+        <v>45718.22928240741</v>
+      </c>
+      <c r="C97" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D97">
+        <v>19</v>
+      </c>
+      <c r="E97">
+        <v>180</v>
+      </c>
+      <c r="F97">
+        <v>2.7</v>
+      </c>
+      <c r="G97">
+        <v>2.7</v>
+      </c>
+      <c r="H97">
+        <v>5.4</v>
+      </c>
+      <c r="I97" t="str">
+        <v>Chicken Burger (x1), Mango Lassi (x2)</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>267</v>
+      </c>
+      <c r="B98" s="1">
+        <v>45718.22928240741</v>
+      </c>
+      <c r="C98" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D98">
+        <v>18</v>
+      </c>
+      <c r="E98">
+        <v>180</v>
+      </c>
+      <c r="F98">
+        <v>2.7</v>
+      </c>
+      <c r="G98">
+        <v>2.7</v>
+      </c>
+      <c r="H98">
+        <v>5.4</v>
+      </c>
+      <c r="I98" t="str">
+        <v>Chicken Cheese Burger (x1), Butterscotch Lassi (x2)</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>266</v>
+      </c>
+      <c r="B99" s="1">
+        <v>45718.22928240741</v>
+      </c>
+      <c r="C99" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D99">
+        <v>17</v>
+      </c>
+      <c r="E99">
+        <v>80</v>
+      </c>
+      <c r="F99">
+        <v>0.8</v>
+      </c>
+      <c r="G99">
+        <v>0.8</v>
+      </c>
+      <c r="H99">
+        <v>1.6</v>
+      </c>
+      <c r="I99" t="str">
+        <v>Vanilla Shake (x2)</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>265</v>
+      </c>
+      <c r="B100" s="1">
+        <v>45718.22928240741</v>
+      </c>
+      <c r="C100" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D100">
+        <v>16</v>
+      </c>
+      <c r="E100">
+        <v>150</v>
+      </c>
+      <c r="F100">
+        <v>1.5</v>
+      </c>
+      <c r="G100">
+        <v>1.5</v>
+      </c>
+      <c r="H100">
+        <v>3</v>
+      </c>
+      <c r="I100" t="str">
+        <v>Banana Shake (x3)</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>264</v>
+      </c>
+      <c r="B101" s="1">
+        <v>45718.22928240741</v>
+      </c>
+      <c r="C101" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D101">
+        <v>15</v>
+      </c>
+      <c r="E101">
+        <v>180</v>
+      </c>
+      <c r="F101">
+        <v>2.7</v>
+      </c>
+      <c r="G101">
+        <v>2.7</v>
+      </c>
+      <c r="H101">
+        <v>5.4</v>
+      </c>
+      <c r="I101" t="str">
+        <v>Chicken Wrap (x3)</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102">
+        <v>263</v>
+      </c>
+      <c r="B102" s="1">
+        <v>45718.22928240741</v>
+      </c>
+      <c r="C102" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D102">
+        <v>14</v>
+      </c>
+      <c r="E102">
+        <v>120</v>
+      </c>
+      <c r="F102">
+        <v>1.8</v>
+      </c>
+      <c r="G102">
+        <v>1.8</v>
+      </c>
+      <c r="H102">
+        <v>3.6</v>
+      </c>
+      <c r="I102" t="str">
+        <v>Chicken Cheese Burger (x2)</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103">
+        <v>262</v>
+      </c>
+      <c r="B103" s="1">
+        <v>45718.22928240741</v>
+      </c>
+      <c r="C103" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D103">
+        <v>13</v>
+      </c>
+      <c r="E103">
+        <v>140</v>
+      </c>
+      <c r="F103">
+        <v>1.7</v>
+      </c>
+      <c r="G103">
+        <v>1.7</v>
+      </c>
+      <c r="H103">
+        <v>3.4</v>
+      </c>
+      <c r="I103" t="str">
+        <v>Butterscotch Lassi (x1), Strawberry Lassi (x2)</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104">
+        <v>261</v>
+      </c>
+      <c r="B104" s="1">
+        <v>45718.22928240741</v>
+      </c>
+      <c r="C104" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D104">
+        <v>12</v>
+      </c>
+      <c r="E104">
+        <v>120</v>
+      </c>
+      <c r="F104">
+        <v>1.8</v>
+      </c>
+      <c r="G104">
+        <v>1.8</v>
+      </c>
+      <c r="H104">
+        <v>3.6</v>
+      </c>
+      <c r="I104" t="str">
+        <v>Chicken Wrap (x2)</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105">
+        <v>260</v>
+      </c>
+      <c r="B105" s="1">
+        <v>45718.22928240741</v>
+      </c>
+      <c r="C105" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D105">
+        <v>11</v>
+      </c>
+      <c r="E105">
+        <v>120</v>
+      </c>
+      <c r="F105">
+        <v>1.8</v>
+      </c>
+      <c r="G105">
+        <v>1.8</v>
+      </c>
+      <c r="H105">
+        <v>3.6</v>
+      </c>
+      <c r="I105" t="str">
+        <v>Butterscotch Lassi (x1), Chicken Wrap (x1)</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106">
+        <v>259</v>
+      </c>
+      <c r="B106" s="1">
+        <v>45718.22928240741</v>
+      </c>
+      <c r="C106" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D106">
+        <v>10</v>
+      </c>
+      <c r="E106">
+        <v>120</v>
+      </c>
+      <c r="F106">
+        <v>1.8</v>
+      </c>
+      <c r="G106">
+        <v>1.8</v>
+      </c>
+      <c r="H106">
+        <v>3.6</v>
+      </c>
+      <c r="I106" t="str">
+        <v>Chicken Burger (x1), Chicken Cheese Burger (x1)</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107">
+        <v>258</v>
+      </c>
+      <c r="B107" s="1">
+        <v>45718.22928240741</v>
+      </c>
+      <c r="C107" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D107">
+        <v>9</v>
+      </c>
+      <c r="E107">
+        <v>60</v>
+      </c>
+      <c r="F107">
+        <v>0.9</v>
+      </c>
+      <c r="G107">
+        <v>0.9</v>
+      </c>
+      <c r="H107">
+        <v>1.8</v>
+      </c>
+      <c r="I107" t="str">
+        <v>Chicken Wrap (x1)</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108">
+        <v>257</v>
+      </c>
+      <c r="B108" s="1">
+        <v>45718.22928240741</v>
+      </c>
+      <c r="C108" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D108">
+        <v>8</v>
+      </c>
+      <c r="E108">
+        <v>230</v>
+      </c>
+      <c r="F108">
+        <v>3.43</v>
+      </c>
+      <c r="G108">
+        <v>3.43</v>
+      </c>
+      <c r="H108">
+        <v>6.85</v>
+      </c>
+      <c r="I108" t="str">
+        <v>Mango Lassi (x1), Strawberry Lassi (x1), Butterscotch Lassi (x1), Chicken Cheese Pops (x1)</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109">
+        <v>256</v>
+      </c>
+      <c r="B109" s="1">
+        <v>45718.22928240741</v>
+      </c>
+      <c r="C109" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D109">
+        <v>7</v>
+      </c>
+      <c r="E109">
+        <v>90</v>
+      </c>
+      <c r="F109">
+        <v>1.25</v>
+      </c>
+      <c r="G109">
+        <v>1.25</v>
+      </c>
+      <c r="H109">
+        <v>2.5</v>
+      </c>
+      <c r="I109" t="str">
+        <v>Oreo Shake (x2)</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110">
+        <v>255</v>
+      </c>
+      <c r="B110" s="1">
+        <v>45718.22928240741</v>
+      </c>
+      <c r="C110" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D110">
+        <v>6</v>
+      </c>
+      <c r="E110">
+        <v>170</v>
+      </c>
+      <c r="F110">
+        <v>2.53</v>
+      </c>
+      <c r="G110">
+        <v>2.53</v>
+      </c>
+      <c r="H110">
+        <v>5.05</v>
+      </c>
+      <c r="I110" t="str">
+        <v>Mango Lassi (x1), Strawberry Lassi (x1), Chicken Cheese Pops (x1)</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111">
+        <v>254</v>
+      </c>
+      <c r="B111" s="1">
+        <v>45718.22928240741</v>
+      </c>
+      <c r="C111" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D111">
+        <v>5</v>
+      </c>
+      <c r="E111">
+        <v>280</v>
+      </c>
+      <c r="F111">
+        <v>4</v>
+      </c>
+      <c r="G111">
+        <v>4</v>
+      </c>
+      <c r="H111">
+        <v>8</v>
+      </c>
+      <c r="I111" t="str">
+        <v>Chicken Burger (x1), Mango Lassi (x1), Strawberry Lassi (x1), Butterscotch Lassi (x1), Chicken Wrap (x1)</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112">
+        <v>253</v>
+      </c>
+      <c r="B112" s="1">
+        <v>45718.22928240741</v>
+      </c>
+      <c r="C112" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D112">
+        <v>4</v>
+      </c>
+      <c r="E112">
+        <v>140</v>
+      </c>
+      <c r="F112">
+        <v>1.7</v>
+      </c>
+      <c r="G112">
+        <v>1.7</v>
+      </c>
+      <c r="H112">
+        <v>3.4</v>
+      </c>
+      <c r="I112" t="str">
+        <v>Chicken Cheese Burger (x1), Vanilla Shake (x2)</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113">
+        <v>251</v>
+      </c>
+      <c r="B113" s="1">
+        <v>45718.22928240741</v>
+      </c>
+      <c r="C113" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D113">
+        <v>2</v>
+      </c>
+      <c r="E113">
+        <v>170</v>
+      </c>
+      <c r="F113">
+        <v>2.53</v>
+      </c>
+      <c r="G113">
+        <v>2.53</v>
+      </c>
+      <c r="H113">
+        <v>5.05</v>
+      </c>
+      <c r="I113" t="str">
+        <v>Mango Lassi (x1), Strawberry Lassi (x1), Chicken Cheese Pops (x1)</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114">
+        <v>250</v>
+      </c>
+      <c r="B114" s="1">
+        <v>45718.22928240741</v>
+      </c>
+      <c r="C114" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D114">
+        <v>1</v>
+      </c>
+      <c r="E114">
+        <v>60</v>
+      </c>
+      <c r="F114">
+        <v>0.9</v>
+      </c>
+      <c r="G114">
+        <v>0.9</v>
+      </c>
+      <c r="H114">
+        <v>1.8</v>
+      </c>
+      <c r="I114" t="str">
+        <v>Chicken Wrap (x1)</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115">
+        <v>249</v>
+      </c>
+      <c r="B115" s="1">
+        <v>45715.22928240741</v>
+      </c>
+      <c r="C115" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D115">
+        <v>1</v>
+      </c>
+      <c r="E115">
+        <v>120</v>
+      </c>
+      <c r="F115">
+        <v>1.2</v>
+      </c>
+      <c r="G115">
+        <v>1.2</v>
+      </c>
+      <c r="H115">
+        <v>2.4</v>
+      </c>
+      <c r="I115" t="str">
+        <v>Strawberry Lassi (x3)</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116">
+        <v>248</v>
+      </c>
+      <c r="B116" s="1">
+        <v>45714.22928240741</v>
+      </c>
+      <c r="C116" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D116">
+        <v>4</v>
+      </c>
+      <c r="E116">
+        <v>60</v>
+      </c>
+      <c r="F116">
+        <v>0.9</v>
+      </c>
+      <c r="G116">
+        <v>0.9</v>
+      </c>
+      <c r="H116">
+        <v>1.8</v>
+      </c>
+      <c r="I116" t="str">
+        <v>Chicken Burger (x1)</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117">
+        <v>247</v>
+      </c>
+      <c r="B117" s="1">
+        <v>45714.22928240741</v>
+      </c>
+      <c r="C117" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D117">
+        <v>3</v>
+      </c>
+      <c r="E117">
+        <v>60</v>
+      </c>
+      <c r="F117">
+        <v>0.9</v>
+      </c>
+      <c r="G117">
+        <v>0.9</v>
+      </c>
+      <c r="H117">
+        <v>1.8</v>
+      </c>
+      <c r="I117" t="str">
+        <v>Chicken Wrap (x1)</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118">
+        <v>246</v>
+      </c>
+      <c r="B118" s="1">
+        <v>45714.22928240741</v>
+      </c>
+      <c r="C118" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D118">
+        <v>2</v>
+      </c>
+      <c r="E118">
+        <v>120</v>
+      </c>
+      <c r="F118">
+        <v>1.8</v>
+      </c>
+      <c r="G118">
+        <v>1.8</v>
+      </c>
+      <c r="H118">
+        <v>3.6</v>
+      </c>
+      <c r="I118" t="str">
+        <v>Butterscotch Lassi (x1), Chicken Wrap (x1)</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119">
+        <v>245</v>
+      </c>
+      <c r="B119" s="1">
+        <v>45714.22928240741</v>
+      </c>
+      <c r="C119" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D119">
+        <v>1</v>
+      </c>
+      <c r="E119">
+        <v>60</v>
+      </c>
+      <c r="F119">
+        <v>0.9</v>
+      </c>
+      <c r="G119">
+        <v>0.9</v>
+      </c>
+      <c r="H119">
+        <v>1.8</v>
+      </c>
+      <c r="I119" t="str">
+        <v>Chicken Burger (x1)</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120">
+        <v>244</v>
+      </c>
+      <c r="B120" s="1">
+        <v>45710.22928240741</v>
+      </c>
+      <c r="C120" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D120">
+        <v>7</v>
+      </c>
+      <c r="E120">
+        <v>1390</v>
+      </c>
+      <c r="F120">
+        <v>43.52</v>
+      </c>
+      <c r="G120">
+        <v>43.52</v>
+      </c>
+      <c r="H120">
+        <v>87.05</v>
+      </c>
+      <c r="I120" t="str">
+        <v>Chicken Burger (x1), Chicken Cheese Burger (x1), Vanilla Shake (x1), Oreo Shake (x1), Mango Lassi (x1), Strawberry Lassi (x5), Butterscotch Lassi (x1), Chicken Wrap (x1), Mango Bubble Tea (x10)</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121">
+        <v>243</v>
+      </c>
+      <c r="B121" s="1">
+        <v>45710.22928240741</v>
+      </c>
+      <c r="C121" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D121">
+        <v>6</v>
+      </c>
+      <c r="E121">
+        <v>590</v>
+      </c>
+      <c r="F121">
+        <v>7.53</v>
+      </c>
+      <c r="G121">
+        <v>7.53</v>
+      </c>
+      <c r="H121">
+        <v>15.05</v>
+      </c>
+      <c r="I121" t="str">
+        <v>Chicken Burger (x1), Chicken Cheese Burger (x1), Vanilla Shake (x1), Oreo Shake (x1), Mango Lassi (x1), Strawberry Lassi (x5), Butterscotch Lassi (x1), Chicken Wrap (x1)</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122">
+        <v>242</v>
+      </c>
+      <c r="B122" s="1">
+        <v>45710.22928240741</v>
+      </c>
+      <c r="C122" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D122">
+        <v>5</v>
+      </c>
+      <c r="E122">
+        <v>140</v>
+      </c>
+      <c r="F122">
+        <v>1.7</v>
+      </c>
+      <c r="G122">
+        <v>1.7</v>
+      </c>
+      <c r="H122">
+        <v>3.4</v>
+      </c>
+      <c r="I122" t="str">
+        <v>Mango Lassi (x1), Strawberry Lassi (x2)</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123">
+        <v>241</v>
+      </c>
+      <c r="B123" s="1">
+        <v>45710.22928240741</v>
+      </c>
+      <c r="C123" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D123">
+        <v>4</v>
+      </c>
+      <c r="E123">
+        <v>590</v>
+      </c>
+      <c r="F123">
+        <v>7.53</v>
+      </c>
+      <c r="G123">
+        <v>7.53</v>
+      </c>
+      <c r="H123">
+        <v>15.05</v>
+      </c>
+      <c r="I123" t="str">
+        <v>Strawberry Lassi (x5), Vanilla Shake (x1), Chicken Cheese Burger (x1), Chicken Burger (x1), Mango Lassi (x1), Butterscotch Lassi (x1), Chicken Wrap (x1), Oreo Shake (x1)</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124">
+        <v>240</v>
+      </c>
+      <c r="B124" s="1">
+        <v>45710.22928240741</v>
+      </c>
+      <c r="C124" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D124">
+        <v>3</v>
+      </c>
+      <c r="E124">
+        <v>90</v>
+      </c>
+      <c r="F124">
+        <v>0.9</v>
+      </c>
+      <c r="G124">
+        <v>0.9</v>
+      </c>
+      <c r="H124">
+        <v>1.8</v>
+      </c>
+      <c r="I124" t="str">
+        <v>Hard Rock Coffee (x1), Chocolate Shake (x1)</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125">
+        <v>239</v>
+      </c>
+      <c r="B125" s="1">
+        <v>45710.22928240741</v>
+      </c>
+      <c r="C125" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D125">
+        <v>2</v>
+      </c>
+      <c r="E125">
+        <v>280</v>
+      </c>
+      <c r="F125">
+        <v>4.9</v>
+      </c>
+      <c r="G125">
+        <v>4.9</v>
+      </c>
+      <c r="H125">
+        <v>9.8</v>
+      </c>
+      <c r="I125" t="str">
+        <v>Chicken Cheese Pops (x2), Veg Cheese Pops (x2)</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126">
+        <v>238</v>
+      </c>
+      <c r="B126" s="1">
+        <v>45710.22928240741</v>
+      </c>
+      <c r="C126" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D126">
+        <v>1</v>
+      </c>
+      <c r="E126">
+        <v>100</v>
+      </c>
+      <c r="F126">
+        <v>1.3</v>
+      </c>
+      <c r="G126">
+        <v>1.3</v>
+      </c>
+      <c r="H126">
+        <v>2.6</v>
+      </c>
+      <c r="I126" t="str">
+        <v>Chicken Burger (x1), Vanilla Shake (x1)</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127">
+        <v>237</v>
+      </c>
+      <c r="B127" s="1">
+        <v>45709.22928240741</v>
+      </c>
+      <c r="C127" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D127">
+        <v>18</v>
+      </c>
+      <c r="E127">
+        <v>700</v>
+      </c>
+      <c r="F127">
+        <v>10.25</v>
+      </c>
+      <c r="G127">
+        <v>10.25</v>
+      </c>
+      <c r="H127">
+        <v>20.5</v>
+      </c>
+      <c r="I127" t="str">
+        <v>Butterscotch Lassi (x1), Chicken Wrap (x9), Oreo Shake (x2)</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128">
+        <v>236</v>
+      </c>
+      <c r="B128" s="1">
+        <v>45709.22928240741</v>
+      </c>
+      <c r="C128" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D128">
+        <v>17</v>
+      </c>
+      <c r="E128">
+        <v>470</v>
+      </c>
+      <c r="F128">
+        <v>6.18</v>
+      </c>
+      <c r="G128">
+        <v>6.18</v>
+      </c>
+      <c r="H128">
+        <v>12.35</v>
+      </c>
+      <c r="I128" t="str">
+        <v>Chicken Burger (x1), Mango Lassi (x1), Veg Wrap (x7)</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129">
+        <v>235</v>
+      </c>
+      <c r="B129" s="1">
+        <v>45709.22928240741</v>
+      </c>
+      <c r="C129" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D129">
+        <v>16</v>
+      </c>
+      <c r="E129">
+        <v>200</v>
+      </c>
+      <c r="F129">
+        <v>2.6</v>
+      </c>
+      <c r="G129">
+        <v>2.6</v>
+      </c>
+      <c r="H129">
+        <v>5.2</v>
+      </c>
+      <c r="I129" t="str">
+        <v>Chicken Wrap (x2), Vanilla Shake (x2)</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130">
+        <v>234</v>
+      </c>
+      <c r="B130" s="1">
+        <v>45709.22928240741</v>
+      </c>
+      <c r="C130" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D130">
+        <v>15</v>
+      </c>
+      <c r="E130">
+        <v>90</v>
+      </c>
+      <c r="F130">
+        <v>0.9</v>
+      </c>
+      <c r="G130">
+        <v>0.9</v>
+      </c>
+      <c r="H130">
+        <v>1.8</v>
+      </c>
+      <c r="I130" t="str">
+        <v>Lime Juice (x1), Mint Lime (x1), Watermelon Juice (x1)</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131">
+        <v>233</v>
+      </c>
+      <c r="B131" s="1">
+        <v>45709.22928240741</v>
+      </c>
+      <c r="C131" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D131">
+        <v>14</v>
+      </c>
+      <c r="E131">
+        <v>40</v>
+      </c>
+      <c r="F131">
+        <v>0.4</v>
+      </c>
+      <c r="G131">
+        <v>0.4</v>
+      </c>
+      <c r="H131">
+        <v>0.8</v>
+      </c>
+      <c r="I131" t="str">
+        <v>Strawberry Lassi (x1)</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132">
+        <v>232</v>
+      </c>
+      <c r="B132" s="1">
+        <v>45709.22928240741</v>
+      </c>
+      <c r="C132" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D132">
+        <v>13</v>
+      </c>
+      <c r="E132">
+        <v>30</v>
+      </c>
+      <c r="F132">
+        <v>0.3</v>
+      </c>
+      <c r="G132">
+        <v>0.3</v>
+      </c>
+      <c r="H132">
+        <v>0.6</v>
+      </c>
+      <c r="I132" t="str">
+        <v>Mint Lime (x1)</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133">
+        <v>231</v>
+      </c>
+      <c r="B133" s="1">
+        <v>45709.22928240741</v>
+      </c>
+      <c r="C133" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D133">
+        <v>12</v>
+      </c>
+      <c r="E133">
+        <v>130</v>
+      </c>
+      <c r="F133">
+        <v>3</v>
+      </c>
+      <c r="G133">
+        <v>3</v>
+      </c>
+      <c r="H133">
+        <v>6</v>
+      </c>
+      <c r="I133" t="str">
+        <v>Chicken Cheese Burger (x1), Chicken Schezwan Sandwich (x1)</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134">
+        <v>230</v>
+      </c>
+      <c r="B134" s="1">
+        <v>45709.22928240741</v>
+      </c>
+      <c r="C134" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D134">
+        <v>11</v>
+      </c>
+      <c r="E134">
+        <v>100</v>
+      </c>
+      <c r="F134">
+        <v>1.3</v>
+      </c>
+      <c r="G134">
+        <v>1.3</v>
+      </c>
+      <c r="H134">
+        <v>2.6</v>
+      </c>
+      <c r="I134" t="str">
+        <v>Strawberry Lassi (x1), Chicken Wrap (x1)</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135">
+        <v>229</v>
+      </c>
+      <c r="B135" s="1">
+        <v>45709.22928240741</v>
+      </c>
+      <c r="C135" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D135">
+        <v>10</v>
+      </c>
+      <c r="E135">
+        <v>1655</v>
+      </c>
+      <c r="F135">
+        <v>31.35</v>
+      </c>
+      <c r="G135">
+        <v>32.6</v>
+      </c>
+      <c r="H135">
+        <v>63.54</v>
+      </c>
+      <c r="I135" t="str">
+        <v>Chicken Burger (x1), Chicken Cheese Burger (x1), Vanilla Shake (x1), Oreo Shake (x1), Mango Lassi (x1), Strawberry Lassi (x1), Butterscotch Lassi (x1), Chicken Wrap (x1), Veg Wrap (x1), Chicken Cheese Pops (x1), Veg Cheese Pops (x1), Banana Shake (x1), Black Currant Shake (x1), Strawberry Shake (x1), Chocolate Shake (x1), Hard Rock Coffee (x1), 8PM Coffee (x1), Coffee Italia (x1), Belgian Coffee (x1), Lime Juice (x1), Mint Lime (x1), Watermelon Juice (x1), Peri Peri Fries (x1), Chicken Sandwich (x1), Chicken Momos (x1), Veg Burger (x1), Veg Cheese Burger (x1), Veg Sandwich (x1), Chicken Schezwan Wrap (x1), Veg Momos (x1), Veg Schezwan Wrap (x1), Veg Schezwan Sandwich (x1)</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136">
+        <v>228</v>
+      </c>
+      <c r="B136" s="1">
+        <v>45709.22928240741</v>
+      </c>
+      <c r="C136" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D136">
+        <v>9</v>
+      </c>
+      <c r="E136">
+        <v>520</v>
+      </c>
+      <c r="F136">
+        <v>5.8</v>
+      </c>
+      <c r="G136">
+        <v>5.8</v>
+      </c>
+      <c r="H136">
+        <v>11.6</v>
+      </c>
+      <c r="I136" t="str">
+        <v>Chicken Cheese Burger (x2), Vanilla Shake (x10)</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137">
+        <v>227</v>
+      </c>
+      <c r="B137" s="1">
+        <v>45709.22928240741</v>
+      </c>
+      <c r="C137" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D137">
+        <v>8</v>
+      </c>
+      <c r="E137">
+        <v>80</v>
+      </c>
+      <c r="F137">
+        <v>0.8</v>
+      </c>
+      <c r="G137">
+        <v>0.8</v>
+      </c>
+      <c r="H137">
+        <v>1.6</v>
+      </c>
+      <c r="I137" t="str">
+        <v>Hard Rock Coffee (x1), 8PM Coffee (x1)</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138">
+        <v>226</v>
+      </c>
+      <c r="B138" s="1">
+        <v>45709.22928240741</v>
+      </c>
+      <c r="C138" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D138">
+        <v>7</v>
+      </c>
+      <c r="E138">
+        <v>40</v>
+      </c>
+      <c r="F138">
+        <v>0.4</v>
+      </c>
+      <c r="G138">
+        <v>0.4</v>
+      </c>
+      <c r="H138">
+        <v>0.8</v>
+      </c>
+      <c r="I138" t="str">
+        <v>Vanilla Shake (x1)</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139">
+        <v>225</v>
+      </c>
+      <c r="B139" s="1">
+        <v>45709.22928240741</v>
+      </c>
+      <c r="C139" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D139">
+        <v>6</v>
+      </c>
+      <c r="E139">
+        <v>320</v>
+      </c>
+      <c r="F139">
+        <v>10.4</v>
+      </c>
+      <c r="G139">
+        <v>11.9</v>
+      </c>
+      <c r="H139">
+        <v>23.14</v>
+      </c>
+      <c r="I139" t="str">
+        <v>Veg Shezwan Momos (x1), Chicken Momos (x2), Veg Momos (x1)</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140">
+        <v>224</v>
+      </c>
+      <c r="B140" s="1">
+        <v>45709.22928240741</v>
+      </c>
+      <c r="C140" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D140">
+        <v>5</v>
+      </c>
+      <c r="E140">
+        <v>280</v>
+      </c>
+      <c r="F140">
+        <v>4</v>
+      </c>
+      <c r="G140">
+        <v>4</v>
+      </c>
+      <c r="H140">
+        <v>8</v>
+      </c>
+      <c r="I140" t="str">
+        <v>Strawberry Lassi (x1), Butterscotch Lassi (x1), Chicken Wrap (x3)</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141">
+        <v>223</v>
+      </c>
+      <c r="B141" s="1">
+        <v>45709.22928240741</v>
+      </c>
+      <c r="C141" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D141">
+        <v>4</v>
+      </c>
+      <c r="E141">
+        <v>240</v>
+      </c>
+      <c r="F141">
+        <v>7.2</v>
+      </c>
+      <c r="G141">
+        <v>7.2</v>
+      </c>
+      <c r="H141">
+        <v>14.4</v>
+      </c>
+      <c r="I141" t="str">
+        <v>Veg Sandwich (x1), Chicken Schezwan Sandwich (x1), Veg Schezwan Sandwich (x2)</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142">
+        <v>221</v>
+      </c>
+      <c r="B142" s="1">
+        <v>45709.22928240741</v>
+      </c>
+      <c r="C142" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D142">
+        <v>2</v>
+      </c>
+      <c r="E142">
+        <v>180</v>
+      </c>
+      <c r="F142">
+        <v>2.7</v>
+      </c>
+      <c r="G142">
+        <v>2.7</v>
+      </c>
+      <c r="H142">
+        <v>5.4</v>
+      </c>
+      <c r="I142" t="str">
+        <v>Chicken Burger (x1), Mango Lassi (x2)</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143">
+        <v>219</v>
+      </c>
+      <c r="B143" s="1">
+        <v>45708.22928240741</v>
+      </c>
+      <c r="C143" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D143">
+        <v>2</v>
+      </c>
+      <c r="E143">
+        <v>120</v>
+      </c>
+      <c r="F143">
+        <v>1.8</v>
+      </c>
+      <c r="G143">
+        <v>1.8</v>
+      </c>
+      <c r="H143">
+        <v>3.6</v>
+      </c>
+      <c r="I143" t="str">
+        <v>Mango Lassi (x2)</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144">
+        <v>218</v>
+      </c>
+      <c r="B144" s="1">
+        <v>45708.22928240741</v>
+      </c>
+      <c r="C144" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D144">
+        <v>1</v>
+      </c>
+      <c r="E144">
+        <v>120</v>
+      </c>
+      <c r="F144">
+        <v>1.8</v>
+      </c>
+      <c r="G144">
+        <v>1.8</v>
+      </c>
+      <c r="H144">
+        <v>3.6</v>
+      </c>
+      <c r="I144" t="str">
+        <v>Butterscotch Lassi (x2)</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145">
+        <v>217</v>
+      </c>
+      <c r="B145" s="1">
+        <v>45707.22928240741</v>
+      </c>
+      <c r="C145" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D145">
+        <v>12</v>
+      </c>
+      <c r="E145">
+        <v>2670</v>
+      </c>
+      <c r="F145">
+        <v>55.58</v>
+      </c>
+      <c r="G145">
+        <v>55.58</v>
+      </c>
+      <c r="H145">
+        <v>111.15</v>
+      </c>
+      <c r="I145" t="str">
+        <v>Vanilla Shake (x4), Oreo Shake (x4), Banana Shake (x3), Black Currant Shake (x1), Chocolate Shake (x2), Strawberry Shake (x3), Chicken Wrap (x3), Veg Wrap (x7), Chicken Schezwan Wrap (x19)</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146">
+        <v>216</v>
+      </c>
+      <c r="B146" s="1">
+        <v>45707.22928240741</v>
+      </c>
+      <c r="C146" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D146">
+        <v>11</v>
+      </c>
+      <c r="E146">
+        <v>1890</v>
+      </c>
+      <c r="F146">
+        <v>56.7</v>
+      </c>
+      <c r="G146">
+        <v>56.7</v>
+      </c>
+      <c r="H146">
+        <v>113.4</v>
+      </c>
+      <c r="I146" t="str">
+        <v>Chicken Schezwan Sandwich (x27)</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147">
+        <v>215</v>
+      </c>
+      <c r="B147" s="1">
+        <v>45707.22928240741</v>
+      </c>
+      <c r="C147" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D147">
+        <v>10</v>
+      </c>
+      <c r="E147">
+        <v>200</v>
+      </c>
+      <c r="F147">
+        <v>2.6</v>
+      </c>
+      <c r="G147">
+        <v>2.6</v>
+      </c>
+      <c r="H147">
+        <v>5.2</v>
+      </c>
+      <c r="I147" t="str">
+        <v>Mango Lassi (x2), Strawberry Lassi (x2)</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148">
+        <v>214</v>
+      </c>
+      <c r="B148" s="1">
+        <v>45707.22928240741</v>
+      </c>
+      <c r="C148" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D148">
+        <v>9</v>
+      </c>
+      <c r="E148">
+        <v>120</v>
+      </c>
+      <c r="F148">
+        <v>1.8</v>
+      </c>
+      <c r="G148">
+        <v>1.8</v>
+      </c>
+      <c r="H148">
+        <v>3.6</v>
+      </c>
+      <c r="I148" t="str">
+        <v>Mango Lassi (x2)</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149">
+        <v>212</v>
+      </c>
+      <c r="B149" s="1">
+        <v>45707.22928240741</v>
+      </c>
+      <c r="C149" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D149">
+        <v>8</v>
+      </c>
+      <c r="E149">
+        <v>120</v>
+      </c>
+      <c r="F149">
+        <v>1.8</v>
+      </c>
+      <c r="G149">
+        <v>1.8</v>
+      </c>
+      <c r="H149">
+        <v>3.6</v>
+      </c>
+      <c r="I149" t="str">
+        <v>Chicken Burger (x2)</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150">
+        <v>211</v>
+      </c>
+      <c r="B150" s="1">
+        <v>45707.22928240741</v>
+      </c>
+      <c r="C150" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D150">
+        <v>7</v>
+      </c>
+      <c r="E150">
+        <v>70</v>
+      </c>
+      <c r="F150">
+        <v>0.8</v>
+      </c>
+      <c r="G150">
+        <v>0.8</v>
+      </c>
+      <c r="H150">
+        <v>1.6</v>
+      </c>
+      <c r="I150" t="str">
+        <v>8PM Coffee (x2)</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151">
+        <v>210</v>
+      </c>
+      <c r="B151" s="1">
+        <v>45707.22928240741</v>
+      </c>
+      <c r="C151" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D151">
+        <v>6</v>
+      </c>
+      <c r="E151">
+        <v>50</v>
+      </c>
+      <c r="F151">
+        <v>0.63</v>
+      </c>
+      <c r="G151">
+        <v>0.63</v>
+      </c>
+      <c r="H151">
+        <v>1.25</v>
+      </c>
+      <c r="I151" t="str">
+        <v>Veg Wrap (x1)</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152">
+        <v>209</v>
+      </c>
+      <c r="B152" s="1">
+        <v>45707.22928240741</v>
+      </c>
+      <c r="C152" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D152">
+        <v>5</v>
+      </c>
+      <c r="E152">
+        <v>100</v>
+      </c>
+      <c r="F152">
+        <v>1.3</v>
+      </c>
+      <c r="G152">
+        <v>1.3</v>
+      </c>
+      <c r="H152">
+        <v>2.6</v>
+      </c>
+      <c r="I152" t="str">
+        <v>Mango Lassi (x1), Strawberry Lassi (x1)</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153">
+        <v>208</v>
+      </c>
+      <c r="B153" s="1">
+        <v>45707.22928240741</v>
+      </c>
+      <c r="C153" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D153">
+        <v>4</v>
+      </c>
+      <c r="E153">
+        <v>200</v>
+      </c>
+      <c r="F153">
+        <v>5.1</v>
+      </c>
+      <c r="G153">
+        <v>5.1</v>
+      </c>
+      <c r="H153">
+        <v>10.2</v>
+      </c>
+      <c r="I153" t="str">
+        <v>Chicken Wrap (x1), Chicken Schezwan Wrap (x2)</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154">
+        <v>207</v>
+      </c>
+      <c r="B154" s="1">
+        <v>45707.22928240741</v>
+      </c>
+      <c r="C154" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D154">
+        <v>3</v>
+      </c>
+      <c r="E154">
+        <v>120</v>
+      </c>
+      <c r="F154">
+        <v>1.8</v>
+      </c>
+      <c r="G154">
+        <v>1.8</v>
+      </c>
+      <c r="H154">
+        <v>3.6</v>
+      </c>
+      <c r="I154" t="str">
+        <v>Mango Lassi (x2)</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155">
+        <v>204</v>
+      </c>
+      <c r="B155" s="1">
+        <v>45706.22928240741</v>
+      </c>
+      <c r="C155" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D155">
+        <v>23</v>
+      </c>
+      <c r="E155">
+        <v>50</v>
+      </c>
+      <c r="F155">
+        <v>0.5</v>
+      </c>
+      <c r="G155">
+        <v>0.5</v>
+      </c>
+      <c r="H155">
+        <v>1</v>
+      </c>
+      <c r="I155" t="str">
+        <v>Banana Shake (x1)</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156">
+        <v>203</v>
+      </c>
+      <c r="B156" s="1">
+        <v>45706.22928240741</v>
+      </c>
+      <c r="C156" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D156">
+        <v>22</v>
+      </c>
+      <c r="E156">
+        <v>120</v>
+      </c>
+      <c r="F156">
+        <v>1.73</v>
+      </c>
+      <c r="G156">
+        <v>1.73</v>
+      </c>
+      <c r="H156">
+        <v>3.45</v>
+      </c>
+      <c r="I156" t="str">
+        <v>Chicken Cheese Pops (x1), Banana Shake (x1)</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157">
+        <v>202</v>
+      </c>
+      <c r="B157" s="1">
+        <v>45706.22928240741</v>
+      </c>
+      <c r="C157" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D157">
+        <v>21</v>
+      </c>
+      <c r="E157">
+        <v>60</v>
+      </c>
+      <c r="F157">
+        <v>0.9</v>
+      </c>
+      <c r="G157">
+        <v>0.9</v>
+      </c>
+      <c r="H157">
+        <v>1.8</v>
+      </c>
+      <c r="I157" t="str">
+        <v>Mango Lassi (x1)</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158">
+        <v>201</v>
+      </c>
+      <c r="B158" s="1">
+        <v>45706.22928240741</v>
+      </c>
+      <c r="C158" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D158">
+        <v>20</v>
+      </c>
+      <c r="E158">
+        <v>1380</v>
+      </c>
+      <c r="F158">
+        <v>20.7</v>
+      </c>
+      <c r="G158">
+        <v>20.7</v>
+      </c>
+      <c r="H158">
+        <v>41.4</v>
+      </c>
+      <c r="I158" t="str">
+        <v>Chicken Burger (x23)</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159">
+        <v>200</v>
+      </c>
+      <c r="B159" s="1">
+        <v>45706.22928240741</v>
+      </c>
+      <c r="C159" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D159">
+        <v>19</v>
+      </c>
+      <c r="E159">
+        <v>220</v>
+      </c>
+      <c r="F159">
+        <v>3.1</v>
+      </c>
+      <c r="G159">
+        <v>3.1</v>
+      </c>
+      <c r="H159">
+        <v>6.2</v>
+      </c>
+      <c r="I159" t="str">
+        <v>Strawberry Lassi (x1), Mango Lassi (x3)</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160">
+        <v>199</v>
+      </c>
+      <c r="B160" s="1">
+        <v>45706.22928240741</v>
+      </c>
+      <c r="C160" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D160">
+        <v>18</v>
+      </c>
+      <c r="E160">
+        <v>960</v>
+      </c>
+      <c r="F160">
+        <v>14.4</v>
+      </c>
+      <c r="G160">
+        <v>14.4</v>
+      </c>
+      <c r="H160">
+        <v>28.8</v>
+      </c>
+      <c r="I160" t="str">
+        <v>Butterscotch Lassi (x16)</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161">
+        <v>198</v>
+      </c>
+      <c r="B161" s="1">
+        <v>45706.22928240741</v>
+      </c>
+      <c r="C161" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D161">
+        <v>17</v>
+      </c>
+      <c r="E161">
+        <v>145</v>
+      </c>
+      <c r="F161">
+        <v>2.95</v>
+      </c>
+      <c r="G161">
+        <v>2.95</v>
+      </c>
+      <c r="H161">
+        <v>5.9</v>
+      </c>
+      <c r="I161" t="str">
+        <v>Veg Cheese Pops (x2), Banana Shake (x1)</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162">
+        <v>197</v>
+      </c>
+      <c r="B162" s="1">
+        <v>45706.22928240741</v>
+      </c>
+      <c r="C162" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D162">
+        <v>16</v>
+      </c>
+      <c r="E162">
+        <v>120</v>
+      </c>
+      <c r="F162">
+        <v>1.8</v>
+      </c>
+      <c r="G162">
+        <v>1.8</v>
+      </c>
+      <c r="H162">
+        <v>3.6</v>
+      </c>
+      <c r="I162" t="str">
+        <v>Mango Lassi (x2)</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163">
+        <v>196</v>
+      </c>
+      <c r="B163" s="1">
+        <v>45706.22928240741</v>
+      </c>
+      <c r="C163" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D163">
+        <v>15</v>
+      </c>
+      <c r="E163">
+        <v>160</v>
+      </c>
+      <c r="F163">
+        <v>2.2</v>
+      </c>
+      <c r="G163">
+        <v>2.2</v>
+      </c>
+      <c r="H163">
+        <v>4.4</v>
+      </c>
+      <c r="I163" t="str">
+        <v>Chicken Burger (x1), Chicken Cheese Burger (x1), Vanilla Shake (x1)</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164">
+        <v>195</v>
+      </c>
+      <c r="B164" s="1">
+        <v>45706.22928240741</v>
+      </c>
+      <c r="C164" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D164">
+        <v>14</v>
+      </c>
+      <c r="E164">
+        <v>140</v>
+      </c>
+      <c r="F164">
+        <v>1.4</v>
+      </c>
+      <c r="G164">
+        <v>1.4</v>
+      </c>
+      <c r="H164">
+        <v>2.8</v>
+      </c>
+      <c r="I164" t="str">
+        <v>Strawberry Lassi (x1), Banana Shake (x2)</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165">
+        <v>191</v>
+      </c>
+      <c r="B165" s="1">
+        <v>45706.22928240741</v>
+      </c>
+      <c r="C165" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D165">
+        <v>12</v>
+      </c>
+      <c r="E165">
+        <v>160</v>
+      </c>
+      <c r="F165">
+        <v>2.2</v>
+      </c>
+      <c r="G165">
+        <v>2.2</v>
+      </c>
+      <c r="H165">
+        <v>4.4</v>
+      </c>
+      <c r="I165" t="str">
+        <v>Strawberry Lassi (x1), Butterscotch Lassi (x1), Chicken Wrap (x1)</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166">
+        <v>185</v>
+      </c>
+      <c r="B166" s="1">
+        <v>45706.22928240741</v>
+      </c>
+      <c r="C166" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D166">
+        <v>10</v>
+      </c>
+      <c r="E166">
+        <v>10</v>
+      </c>
+      <c r="F166">
+        <v>1.3</v>
+      </c>
+      <c r="G166">
+        <v>1.3</v>
+      </c>
+      <c r="H166">
+        <v>2.6</v>
+      </c>
+      <c r="I166" t="str">
+        <v>Mango Lassi (x1), Strawberry Lassi (x1)</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167">
+        <v>184</v>
+      </c>
+      <c r="B167" s="1">
+        <v>45706.22928240741</v>
+      </c>
+      <c r="C167" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D167">
+        <v>9</v>
+      </c>
+      <c r="E167">
+        <v>120</v>
+      </c>
+      <c r="F167">
+        <v>1.8</v>
+      </c>
+      <c r="G167">
+        <v>1.8</v>
+      </c>
+      <c r="H167">
+        <v>3.6</v>
+      </c>
+      <c r="I167" t="str">
+        <v>Chicken Wrap (x1), Butterscotch Lassi (x1)</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168">
+        <v>183</v>
+      </c>
+      <c r="B168" s="1">
+        <v>45706.22928240741</v>
+      </c>
+      <c r="C168" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D168">
+        <v>8</v>
+      </c>
+      <c r="E168">
+        <v>120</v>
+      </c>
+      <c r="F168">
+        <v>1.73</v>
+      </c>
+      <c r="G168">
+        <v>1.73</v>
+      </c>
+      <c r="H168">
+        <v>3.45</v>
+      </c>
+      <c r="I168" t="str">
+        <v>Banana Shake (x1), Veg Cheese Pops (x1)</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169">
+        <v>182</v>
+      </c>
+      <c r="B169" s="1">
+        <v>45706.22928240741</v>
+      </c>
+      <c r="C169" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D169">
+        <v>7</v>
+      </c>
+      <c r="E169">
+        <v>70</v>
+      </c>
+      <c r="F169">
+        <v>1.23</v>
+      </c>
+      <c r="G169">
+        <v>1.23</v>
+      </c>
+      <c r="H169">
+        <v>2.45</v>
+      </c>
+      <c r="I169" t="str">
+        <v>Chicken Cheese Pops (x1)</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170">
+        <v>181</v>
+      </c>
+      <c r="B170" s="1">
+        <v>45706.22928240741</v>
+      </c>
+      <c r="C170" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D170">
+        <v>6</v>
+      </c>
+      <c r="E170">
+        <v>100</v>
+      </c>
+      <c r="F170">
+        <v>1.3</v>
+      </c>
+      <c r="G170">
+        <v>1.3</v>
+      </c>
+      <c r="H170">
+        <v>2.6</v>
+      </c>
+      <c r="I170" t="str">
+        <v>Strawberry Lassi (x1), Butterscotch Lassi (x1)</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171">
+        <v>180</v>
+      </c>
+      <c r="B171" s="1">
+        <v>45706.22928240741</v>
+      </c>
+      <c r="C171" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D171">
+        <v>5</v>
+      </c>
+      <c r="E171">
+        <v>60</v>
+      </c>
+      <c r="F171">
+        <v>0.9</v>
+      </c>
+      <c r="G171">
+        <v>0.9</v>
+      </c>
+      <c r="H171">
+        <v>1.8</v>
+      </c>
+      <c r="I171" t="str">
+        <v>Chicken Cheese Burger (x1)</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172">
+        <v>175</v>
+      </c>
+      <c r="B172" s="1">
+        <v>45705.22928240741</v>
+      </c>
+      <c r="C172" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D172">
+        <v>6</v>
+      </c>
+      <c r="E172">
+        <v>180</v>
+      </c>
+      <c r="F172">
+        <v>4.53</v>
+      </c>
+      <c r="G172">
+        <v>4.53</v>
+      </c>
+      <c r="H172">
+        <v>9.05</v>
+      </c>
+      <c r="I172" t="str">
+        <v>Veg Wrap (x1), Chicken Schezwan Wrap (x1), Veg Schezwan Wrap (x1)</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173">
+        <v>174</v>
+      </c>
+      <c r="B173" s="1">
+        <v>45705.22928240741</v>
+      </c>
+      <c r="C173" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D173">
+        <v>5</v>
+      </c>
+      <c r="E173">
+        <v>90</v>
+      </c>
+      <c r="F173">
+        <v>0.9</v>
+      </c>
+      <c r="G173">
+        <v>0.9</v>
+      </c>
+      <c r="H173">
+        <v>1.8</v>
+      </c>
+      <c r="I173" t="str">
+        <v>Lime Juice (x1), Mint Lime (x1), Watermelon Juice (x1)</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174" s="1">
+        <v>45705.22928240741</v>
+      </c>
+      <c r="C174" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D174">
+        <v>4</v>
+      </c>
+      <c r="E174">
+        <v>140</v>
+      </c>
+      <c r="F174">
+        <v>1.52</v>
+      </c>
+      <c r="G174">
+        <v>1.52</v>
+      </c>
+      <c r="H174">
+        <v>3.05</v>
+      </c>
+      <c r="I174" t="str">
+        <v>Vanilla Shake (x1), Oreo Shake (x1), Chocolate Shake (x1)</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175">
+        <v>172</v>
+      </c>
+      <c r="B175" s="1">
+        <v>45705.22928240741</v>
+      </c>
+      <c r="C175" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D175">
+        <v>3</v>
+      </c>
+      <c r="E175">
+        <v>170</v>
+      </c>
+      <c r="F175">
+        <v>2.53</v>
+      </c>
+      <c r="G175">
+        <v>2.53</v>
+      </c>
+      <c r="H175">
+        <v>5.05</v>
+      </c>
+      <c r="I175" t="str">
+        <v>Mango Lassi (x1), Strawberry Lassi (x1), Chicken Cheese Pops (x1)</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176">
+        <v>171</v>
+      </c>
+      <c r="B176" s="1">
+        <v>45705.22928240741</v>
+      </c>
+      <c r="C176" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D176">
+        <v>2</v>
+      </c>
+      <c r="E176">
+        <v>160</v>
+      </c>
+      <c r="F176">
+        <v>2.2</v>
+      </c>
+      <c r="G176">
+        <v>2.2</v>
+      </c>
+      <c r="H176">
+        <v>4.4</v>
+      </c>
+      <c r="I176" t="str">
+        <v>Chicken Cheese Burger (x1), Strawberry Lassi (x1), Butterscotch Lassi (x1)</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177">
+        <v>168</v>
+      </c>
+      <c r="B177" s="1">
+        <v>45704.22928240741</v>
+      </c>
+      <c r="C177" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D177">
+        <v>8</v>
+      </c>
+      <c r="E177">
+        <v>240</v>
+      </c>
+      <c r="F177">
+        <v>3</v>
+      </c>
+      <c r="G177">
+        <v>3</v>
+      </c>
+      <c r="H177">
+        <v>6</v>
+      </c>
+      <c r="I177" t="str">
+        <v>Chicken Burger (x1), Chicken Cheese Burger (x1), Strawberry Lassi (x3)</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178">
+        <v>167</v>
+      </c>
+      <c r="B178" s="1">
+        <v>45704.22928240741</v>
+      </c>
+      <c r="C178" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D178">
+        <v>7</v>
+      </c>
+      <c r="E178">
+        <v>80</v>
+      </c>
+      <c r="F178">
+        <v>0.8</v>
+      </c>
+      <c r="G178">
+        <v>0.8</v>
+      </c>
+      <c r="H178">
+        <v>1.6</v>
+      </c>
+      <c r="I178" t="str">
+        <v>8PM Coffee (x2)</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179">
+        <v>166</v>
+      </c>
+      <c r="B179" s="1">
+        <v>45704.22928240741</v>
+      </c>
+      <c r="C179" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D179">
+        <v>6</v>
+      </c>
+      <c r="E179">
+        <v>180</v>
+      </c>
+      <c r="F179">
+        <v>2.7</v>
+      </c>
+      <c r="G179">
+        <v>2.7</v>
+      </c>
+      <c r="H179">
+        <v>5.4</v>
+      </c>
+      <c r="I179" t="str">
+        <v>Mango Lassi (x3)</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180">
+        <v>164</v>
+      </c>
+      <c r="B180" s="1">
+        <v>45704.22928240741</v>
+      </c>
+      <c r="C180" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D180">
+        <v>5</v>
+      </c>
+      <c r="E180">
+        <v>60</v>
+      </c>
+      <c r="F180">
+        <v>0.9</v>
+      </c>
+      <c r="G180">
+        <v>0.9</v>
+      </c>
+      <c r="H180">
+        <v>1.8</v>
+      </c>
+      <c r="I180" t="str">
+        <v>Chicken Cheese Burger (x1)</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181">
+        <v>163</v>
+      </c>
+      <c r="B181" s="1">
+        <v>45704.22928240741</v>
+      </c>
+      <c r="C181" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D181">
+        <v>4</v>
+      </c>
+      <c r="E181">
+        <v>40</v>
+      </c>
+      <c r="F181">
+        <v>0.4</v>
+      </c>
+      <c r="G181">
+        <v>0.4</v>
+      </c>
+      <c r="H181">
+        <v>0.8</v>
+      </c>
+      <c r="I181" t="str">
+        <v>Belgian Coffee (x1)</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182">
+        <v>162</v>
+      </c>
+      <c r="B182" s="1">
+        <v>45704.22928240741</v>
+      </c>
+      <c r="C182" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D182">
+        <v>3</v>
+      </c>
+      <c r="E182">
+        <v>80</v>
+      </c>
+      <c r="F182">
+        <v>0.8</v>
+      </c>
+      <c r="G182">
+        <v>0.8</v>
+      </c>
+      <c r="H182">
+        <v>1.6</v>
+      </c>
+      <c r="I182" t="str">
+        <v>8PM Coffee (x1), Coffee Italia (x1)</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183">
+        <v>155</v>
+      </c>
+      <c r="B183" s="1">
+        <v>45703.22928240741</v>
+      </c>
+      <c r="C183" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D183">
+        <v>8</v>
+      </c>
+      <c r="E183">
+        <v>425</v>
+      </c>
+      <c r="F183">
+        <v>13.55</v>
+      </c>
+      <c r="G183">
+        <v>14.3</v>
+      </c>
+      <c r="H183">
+        <v>28.39</v>
+      </c>
+      <c r="I183" t="str">
+        <v>Chicken Momos (x1), Veg Momos (x1), Chicken Shezwan Momos (x1), Chicken Peri Peri Momos (x1), Veg Shezwan Momos (x1)</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184">
+        <v>154</v>
+      </c>
+      <c r="B184" s="1">
+        <v>45703.22928240741</v>
+      </c>
+      <c r="C184" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D184">
+        <v>7</v>
+      </c>
+      <c r="E184">
+        <v>2475</v>
+      </c>
+      <c r="F184">
+        <v>50.25</v>
+      </c>
+      <c r="G184">
+        <v>63</v>
+      </c>
+      <c r="H184">
+        <v>118.35</v>
+      </c>
+      <c r="I184" t="str">
+        <v>Vanilla Shake (x30), Chicken Momos (x17)</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185">
+        <v>152</v>
+      </c>
+      <c r="B185" s="1">
+        <v>45703.22928240741</v>
+      </c>
+      <c r="C185" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D185">
+        <v>6</v>
+      </c>
+      <c r="E185">
+        <v>80</v>
+      </c>
+      <c r="F185">
+        <v>0.8</v>
+      </c>
+      <c r="G185">
+        <v>0.8</v>
+      </c>
+      <c r="H185">
+        <v>1.6</v>
+      </c>
+      <c r="I185" t="str">
+        <v>Coffee Italia (x1), Belgian Coffee (x1)</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186">
+        <v>151</v>
+      </c>
+      <c r="B186" s="1">
+        <v>45703.22928240741</v>
+      </c>
+      <c r="C186" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D186">
+        <v>5</v>
+      </c>
+      <c r="E186">
+        <v>80</v>
+      </c>
+      <c r="F186">
+        <v>0.8</v>
+      </c>
+      <c r="G186">
+        <v>0.8</v>
+      </c>
+      <c r="H186">
+        <v>1.6</v>
+      </c>
+      <c r="I186" t="str">
+        <v>Hard Rock Coffee (x1), 8PM Coffee (x1)</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187">
+        <v>150</v>
+      </c>
+      <c r="B187" s="1">
+        <v>45703.22928240741</v>
+      </c>
+      <c r="C187" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D187">
+        <v>4</v>
+      </c>
+      <c r="E187">
+        <v>260</v>
+      </c>
+      <c r="F187">
+        <v>2.6</v>
+      </c>
+      <c r="G187">
+        <v>2.6</v>
+      </c>
+      <c r="H187">
+        <v>5.2</v>
+      </c>
+      <c r="I187" t="str">
+        <v>Black Currant Shake (x1), Banana Shake (x1), Hard Rock Coffee (x1), 8PM Coffee (x1), Coffee Italia (x1), Belgian Coffee (x1)</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188">
+        <v>142</v>
+      </c>
+      <c r="B188" s="1">
+        <v>45702.22928240741</v>
+      </c>
+      <c r="C188" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D188">
+        <v>5</v>
+      </c>
+      <c r="E188">
+        <v>40</v>
+      </c>
+      <c r="F188">
+        <v>0.4</v>
+      </c>
+      <c r="G188">
+        <v>0.4</v>
+      </c>
+      <c r="H188">
+        <v>0.8</v>
+      </c>
+      <c r="I188" t="str">
+        <v>Strawberry Lassi (x1)</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189">
+        <v>141</v>
+      </c>
+      <c r="B189" s="1">
+        <v>45702.22928240741</v>
+      </c>
+      <c r="C189" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D189">
+        <v>4</v>
+      </c>
+      <c r="E189">
+        <v>420</v>
+      </c>
+      <c r="F189">
+        <v>6.3</v>
+      </c>
+      <c r="G189">
+        <v>6.3</v>
+      </c>
+      <c r="H189">
+        <v>12.6</v>
+      </c>
+      <c r="I189" t="str">
+        <v>Chicken Wrap (x7)</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190">
+        <v>136</v>
+      </c>
+      <c r="B190" s="1">
+        <v>45701.22928240741</v>
+      </c>
+      <c r="C190" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D190">
+        <v>3</v>
+      </c>
+      <c r="E190">
+        <v>215</v>
+      </c>
+      <c r="F190">
+        <v>6.35</v>
+      </c>
+      <c r="G190">
+        <v>7.1</v>
+      </c>
+      <c r="H190">
+        <v>13.99</v>
+      </c>
+      <c r="I190" t="str">
+        <v>Veg Momos (x1), Chicken Momos (x1), Chicken Wrap (x1)</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191">
+        <v>135</v>
+      </c>
+      <c r="B191" s="1">
+        <v>45701.22928240741</v>
+      </c>
+      <c r="C191" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D191">
+        <v>2</v>
+      </c>
+      <c r="E191">
+        <v>80</v>
+      </c>
+      <c r="F191">
+        <v>2.4</v>
+      </c>
+      <c r="G191">
+        <v>2.4</v>
+      </c>
+      <c r="H191">
+        <v>0</v>
+      </c>
+      <c r="I191" t="str">
+        <v>Peri Peri Fries (x4)</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192">
+        <v>134</v>
+      </c>
+      <c r="B192" s="1">
+        <v>45701.22928240741</v>
+      </c>
+      <c r="C192" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D192">
+        <v>1</v>
+      </c>
+      <c r="E192">
+        <v>90</v>
+      </c>
+      <c r="F192">
+        <v>1.02</v>
+      </c>
+      <c r="G192">
+        <v>1.02</v>
+      </c>
+      <c r="H192">
+        <v>2.05</v>
+      </c>
+      <c r="I192" t="str">
+        <v>Vanilla Shake (x1), Oreo Shake (x1)</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193">
+        <v>133</v>
+      </c>
+      <c r="B193" s="1">
+        <v>45700.22928240741</v>
+      </c>
+      <c r="C193" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D193">
+        <v>9</v>
+      </c>
+      <c r="E193">
+        <v>360</v>
+      </c>
+      <c r="F193">
+        <v>4.1</v>
+      </c>
+      <c r="G193">
+        <v>4.1</v>
+      </c>
+      <c r="H193">
+        <v>8.2</v>
+      </c>
+      <c r="I193" t="str">
+        <v>Veg Wrap (x4), Hard Rock Coffee (x1), 8PM Coffee (x1), Coffee Italia (x1), Belgian Coffee (x1)</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194">
+        <v>132</v>
+      </c>
+      <c r="B194" s="1">
+        <v>45700.22928240741</v>
+      </c>
+      <c r="C194" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D194">
+        <v>8</v>
+      </c>
+      <c r="E194">
+        <v>40</v>
+      </c>
+      <c r="F194">
+        <v>0.4</v>
+      </c>
+      <c r="G194">
+        <v>0.4</v>
+      </c>
+      <c r="H194">
+        <v>0.8</v>
+      </c>
+      <c r="I194" t="str">
+        <v>Strawberry Lassi (x1)</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195">
+        <v>129</v>
+      </c>
+      <c r="B195" s="1">
+        <v>45700.22928240741</v>
+      </c>
+      <c r="C195" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D195">
+        <v>7</v>
+      </c>
+      <c r="E195">
+        <v>60</v>
+      </c>
+      <c r="F195">
+        <v>0.9</v>
+      </c>
+      <c r="G195">
+        <v>0.9</v>
+      </c>
+      <c r="H195">
+        <v>1.8</v>
+      </c>
+      <c r="I195" t="str">
+        <v>Chicken Burger (x1)</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196">
+        <v>126</v>
+      </c>
+      <c r="B196" s="1">
+        <v>45700.22928240741</v>
+      </c>
+      <c r="C196" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D196">
+        <v>4</v>
+      </c>
+      <c r="E196">
+        <v>20</v>
+      </c>
+      <c r="F196">
+        <v>0.6</v>
+      </c>
+      <c r="G196">
+        <v>0.6</v>
+      </c>
+      <c r="H196">
+        <v>0</v>
+      </c>
+      <c r="I196" t="str">
+        <v>Peri Peri Fries (x1)</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197">
+        <v>125</v>
+      </c>
+      <c r="B197" s="1">
+        <v>45700.22928240741</v>
+      </c>
+      <c r="C197" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D197">
+        <v>3</v>
+      </c>
+      <c r="E197">
+        <v>60</v>
+      </c>
+      <c r="F197">
+        <v>0.9</v>
+      </c>
+      <c r="G197">
+        <v>0.9</v>
+      </c>
+      <c r="H197">
+        <v>1.8</v>
+      </c>
+      <c r="I197" t="str">
+        <v>Butterscotch Lassi (x1)</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198">
+        <v>124</v>
+      </c>
+      <c r="B198" s="1">
+        <v>45700.22928240741</v>
+      </c>
+      <c r="C198" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D198">
+        <v>2</v>
+      </c>
+      <c r="E198">
+        <v>40</v>
+      </c>
+      <c r="F198">
+        <v>0.4</v>
+      </c>
+      <c r="G198">
+        <v>0.4</v>
+      </c>
+      <c r="H198">
+        <v>0.8</v>
+      </c>
+      <c r="I198" t="str">
+        <v>Strawberry Lassi (x1)</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199">
+        <v>122</v>
+      </c>
+      <c r="B199" s="1">
+        <v>45699.22928240741</v>
+      </c>
+      <c r="C199" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D199">
+        <v>14</v>
+      </c>
+      <c r="E199">
+        <v>130</v>
+      </c>
+      <c r="F199">
+        <v>0.3</v>
+      </c>
+      <c r="G199">
+        <v>0.3</v>
+      </c>
+      <c r="H199">
+        <v>0.6</v>
+      </c>
+      <c r="I199" t="str">
+        <v>Mint Lime (x1)</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200">
+        <v>121</v>
+      </c>
+      <c r="B200" s="1">
+        <v>45699.22928240741</v>
+      </c>
+      <c r="C200" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D200">
+        <v>13</v>
+      </c>
+      <c r="E200">
+        <v>240</v>
+      </c>
+      <c r="F200">
+        <v>2.4</v>
+      </c>
+      <c r="G200">
+        <v>2.4</v>
+      </c>
+      <c r="H200">
+        <v>4.8</v>
+      </c>
+      <c r="I200" t="str">
+        <v>Hard Rock Coffee (x1), 8PM Coffee (x1), Coffee Italia (x1), Belgian Coffee (x3)</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201">
+        <v>119</v>
+      </c>
+      <c r="B201" s="1">
+        <v>45699.22928240741</v>
+      </c>
+      <c r="C201" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D201">
+        <v>11</v>
+      </c>
+      <c r="E201">
+        <v>70</v>
+      </c>
+      <c r="F201">
+        <v>1.23</v>
+      </c>
+      <c r="G201">
+        <v>1.23</v>
+      </c>
+      <c r="H201">
+        <v>2.45</v>
+      </c>
+      <c r="I201" t="str">
+        <v>Veg Cheese Pops (x1)</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202">
+        <v>117</v>
+      </c>
+      <c r="B202" s="1">
+        <v>45699.22928240741</v>
+      </c>
+      <c r="C202" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D202">
+        <v>9</v>
+      </c>
+      <c r="E202">
+        <v>560</v>
+      </c>
+      <c r="F202">
+        <v>7.75</v>
+      </c>
+      <c r="G202">
+        <v>7.75</v>
+      </c>
+      <c r="H202">
+        <v>14.3</v>
+      </c>
+      <c r="I202" t="str">
+        <v>Lime Juice (x3), Chicken Wrap (x3), Chicken Burger (x1), Oreo Shake (x1), Vanilla Shake (x1), Veg Wrap (x1), Mango Lassi (x1), Strawberry Lassi (x1), Peri Peri Fries (x1)</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203">
+        <v>116</v>
+      </c>
+      <c r="B203" s="1">
+        <v>45699.22928240741</v>
+      </c>
+      <c r="C203" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D203">
+        <v>8</v>
+      </c>
+      <c r="E203">
+        <v>120</v>
+      </c>
+      <c r="F203">
+        <v>1.8</v>
+      </c>
+      <c r="G203">
+        <v>1.8</v>
+      </c>
+      <c r="H203">
+        <v>3.6</v>
+      </c>
+      <c r="I203" t="str">
+        <v>Mango Lassi (x2)</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204">
+        <v>115</v>
+      </c>
+      <c r="B204" s="1">
+        <v>45699.22928240741</v>
+      </c>
+      <c r="C204" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D204">
+        <v>7</v>
+      </c>
+      <c r="E204">
+        <v>60</v>
+      </c>
+      <c r="F204">
+        <v>0.9</v>
+      </c>
+      <c r="G204">
+        <v>0.9</v>
+      </c>
+      <c r="H204">
+        <v>1.8</v>
+      </c>
+      <c r="I204" t="str">
+        <v>Chicken Cheese Burger (x1)</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205">
+        <v>114</v>
+      </c>
+      <c r="B205" s="1">
+        <v>45699.22928240741</v>
+      </c>
+      <c r="C205" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D205">
+        <v>6</v>
+      </c>
+      <c r="E205">
+        <v>60</v>
+      </c>
+      <c r="F205">
+        <v>0.9</v>
+      </c>
+      <c r="G205">
+        <v>0.9</v>
+      </c>
+      <c r="H205">
+        <v>1.8</v>
+      </c>
+      <c r="I205" t="str">
+        <v>Chicken Cheese Burger (x1)</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206">
+        <v>113</v>
+      </c>
+      <c r="B206" s="1">
+        <v>45699.22928240741</v>
+      </c>
+      <c r="C206" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D206">
+        <v>5</v>
+      </c>
+      <c r="E206">
+        <v>60</v>
+      </c>
+      <c r="F206">
+        <v>0.9</v>
+      </c>
+      <c r="G206">
+        <v>0.9</v>
+      </c>
+      <c r="H206">
+        <v>1.8</v>
+      </c>
+      <c r="I206" t="str">
+        <v>Chicken Cheese Burger (x1)</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207">
+        <v>112</v>
+      </c>
+      <c r="B207" s="1">
+        <v>45699.22928240741</v>
+      </c>
+      <c r="C207" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D207">
+        <v>4</v>
+      </c>
+      <c r="E207">
+        <v>60</v>
+      </c>
+      <c r="F207">
+        <v>0.9</v>
+      </c>
+      <c r="G207">
+        <v>0.9</v>
+      </c>
+      <c r="H207">
+        <v>1.8</v>
+      </c>
+      <c r="I207" t="str">
+        <v>Chicken Cheese Burger (x1)</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208">
+        <v>111</v>
+      </c>
+      <c r="B208" s="1">
+        <v>45699.22928240741</v>
+      </c>
+      <c r="C208" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D208">
+        <v>3</v>
+      </c>
+      <c r="E208">
+        <v>60</v>
+      </c>
+      <c r="F208">
+        <v>0.9</v>
+      </c>
+      <c r="G208">
+        <v>0.9</v>
+      </c>
+      <c r="H208">
+        <v>1.8</v>
+      </c>
+      <c r="I208" t="str">
+        <v>Chicken Cheese Burger (x1)</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209">
+        <v>110</v>
+      </c>
+      <c r="B209" s="1">
+        <v>45699.22928240741</v>
+      </c>
+      <c r="C209" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D209">
+        <v>2</v>
+      </c>
+      <c r="E209">
+        <v>60</v>
+      </c>
+      <c r="F209">
+        <v>0.9</v>
+      </c>
+      <c r="G209">
+        <v>0.9</v>
+      </c>
+      <c r="H209">
+        <v>1.8</v>
+      </c>
+      <c r="I209" t="str">
+        <v>Chicken Cheese Burger (x1)</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210">
+        <v>107</v>
+      </c>
+      <c r="B210" s="1">
+        <v>45698.22928240741</v>
+      </c>
+      <c r="C210" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D210">
+        <v>15</v>
+      </c>
+      <c r="E210">
+        <v>20</v>
+      </c>
+      <c r="F210">
+        <v>0.6</v>
+      </c>
+      <c r="G210">
+        <v>0.6</v>
+      </c>
+      <c r="H210">
+        <v>0</v>
+      </c>
+      <c r="I210" t="str">
+        <v>Peri Peri Fries (x1)</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211">
+        <v>106</v>
+      </c>
+      <c r="B211" s="1">
+        <v>45698.22928240741</v>
+      </c>
+      <c r="C211" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D211">
+        <v>14</v>
+      </c>
+      <c r="E211">
+        <v>110</v>
+      </c>
+      <c r="F211">
+        <v>1.52</v>
+      </c>
+      <c r="G211">
+        <v>1.52</v>
+      </c>
+      <c r="H211">
+        <v>3.05</v>
+      </c>
+      <c r="I211" t="str">
+        <v>Chicken Wrap (x1), Veg Wrap (x1)</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212">
+        <v>105</v>
+      </c>
+      <c r="B212" s="1">
+        <v>45698.22928240741</v>
+      </c>
+      <c r="C212" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D212">
+        <v>13</v>
+      </c>
+      <c r="E212">
+        <v>100099</v>
+      </c>
+      <c r="F212">
+        <v>1</v>
+      </c>
+      <c r="G212">
+        <v>1</v>
+      </c>
+      <c r="H212">
+        <v>2</v>
+      </c>
+      <c r="I212" t="str">
+        <v>Strawberry Shake (x1), Chocolate Shake (x1)</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213">
+        <v>103</v>
+      </c>
+      <c r="B213" s="1">
+        <v>45698.22928240741</v>
+      </c>
+      <c r="C213" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D213">
+        <v>11</v>
+      </c>
+      <c r="E213">
+        <v>160</v>
+      </c>
+      <c r="F213">
+        <v>2.15</v>
+      </c>
+      <c r="G213">
+        <v>2.15</v>
+      </c>
+      <c r="H213">
+        <v>4.3</v>
+      </c>
+      <c r="I213" t="str">
+        <v>Chicken Wrap (x1), Veg Wrap (x2)</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214">
         <v>102</v>
       </c>
-      <c r="B83" s="1">
+      <c r="B214" s="1">
         <v>45698.22928240741</v>
       </c>
-      <c r="C83" t="str">
-        <v>Ajay Francis Anchan</v>
-      </c>
-      <c r="D83">
+      <c r="C214" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D214">
         <v>10</v>
       </c>
-      <c r="E83">
+      <c r="E214">
         <v>110</v>
       </c>
-      <c r="F83">
+      <c r="F214">
         <v>1.52</v>
       </c>
-      <c r="G83">
+      <c r="G214">
         <v>1.52</v>
       </c>
-      <c r="H83">
+      <c r="H214">
         <v>3.05</v>
       </c>
-      <c r="I83" t="str">
+      <c r="I214" t="str">
         <v>Chicken Wrap (x1), Veg Wrap (x1)</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I83"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I214"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/export.xlsx
+++ b/export.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -429,41 +429,431 @@
         <v>Tax (₹)</v>
       </c>
       <c r="I1" t="str">
+        <v>Reason</v>
+      </c>
+      <c r="J1" t="str">
         <v>Food Items</v>
       </c>
     </row>
     <row r="2">
       <c r="A2">
+        <v>412</v>
+      </c>
+      <c r="B2" s="1">
+        <v>45724.22928240741</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>220</v>
+      </c>
+      <c r="F2">
+        <v>2.5</v>
+      </c>
+      <c r="G2">
+        <v>2.5</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2" t="str">
+        <v>fdg</v>
+      </c>
+      <c r="J2" t="str">
+        <v>Chicken Burger (x1), Vanilla Shake (x4)</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>391</v>
+      </c>
+      <c r="B3" s="1">
+        <v>45721.22928240741</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>300</v>
+      </c>
+      <c r="F3">
+        <v>4.5</v>
+      </c>
+      <c r="G3">
+        <v>4.5</v>
+      </c>
+      <c r="H3">
+        <v>9</v>
+      </c>
+      <c r="I3" t="str">
+        <v>fff</v>
+      </c>
+      <c r="J3" t="str">
+        <v>Chicken Burger (x5)</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>389</v>
+      </c>
+      <c r="B4" s="1">
+        <v>45721.22928240741</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>380</v>
+      </c>
+      <c r="F4">
+        <v>4.35</v>
+      </c>
+      <c r="G4">
+        <v>4.35</v>
+      </c>
+      <c r="H4">
+        <v>10.5</v>
+      </c>
+      <c r="I4" t="str">
+        <v>er</v>
+      </c>
+      <c r="J4" t="str">
+        <v>Chicken Cheese Burger (x1), Vanilla Shake (x1), Butterscotch Lassi (x1), Chicken Wrap (x2), Oreo Shake (x2)</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>388</v>
+      </c>
+      <c r="B5" s="1">
+        <v>45721.22928240741</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>60</v>
+      </c>
+      <c r="F5">
+        <v>0.9</v>
+      </c>
+      <c r="G5">
+        <v>0.9</v>
+      </c>
+      <c r="H5">
+        <v>1.8</v>
+      </c>
+      <c r="I5" t="str">
+        <v>drg</v>
+      </c>
+      <c r="J5" t="str">
+        <v>Mango Lassi (x1)</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
         <v>387</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B6" s="1">
         <v>45721.22928240741</v>
       </c>
-      <c r="C2" t="str">
-        <v>Ajay Francis Anchan</v>
-      </c>
-      <c r="D2">
+      <c r="C6" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D6">
         <v>1</v>
       </c>
-      <c r="E2">
+      <c r="E6">
         <v>60</v>
       </c>
-      <c r="F2">
+      <c r="F6">
         <v>0</v>
       </c>
-      <c r="G2">
+      <c r="G6">
         <v>0</v>
       </c>
-      <c r="H2">
+      <c r="H6">
         <v>1.8</v>
       </c>
-      <c r="I2" t="str">
+      <c r="I6" t="str">
+        <v>no</v>
+      </c>
+      <c r="J6" t="str">
         <v>Chicken Cheese Burger (x1)</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>386</v>
+      </c>
+      <c r="B7" s="1">
+        <v>45721.22928240741</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>120</v>
+      </c>
+      <c r="F7">
+        <v>1.2</v>
+      </c>
+      <c r="G7">
+        <v>1.2</v>
+      </c>
+      <c r="H7">
+        <v>2.4</v>
+      </c>
+      <c r="I7" t="str">
+        <v>sdf</v>
+      </c>
+      <c r="J7" t="str">
+        <v>Strawberry Lassi (x3)</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>385</v>
+      </c>
+      <c r="B8" s="1">
+        <v>45721.22928240741</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>510</v>
+      </c>
+      <c r="F8">
+        <v>7.58</v>
+      </c>
+      <c r="G8">
+        <v>7.58</v>
+      </c>
+      <c r="H8">
+        <v>15.15</v>
+      </c>
+      <c r="I8" t="str">
+        <v>hate this</v>
+      </c>
+      <c r="J8" t="str">
+        <v>Vanilla Shake (x3), Chicken Wrap (x3), Veg Cheese Pops (x3)</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>384</v>
+      </c>
+      <c r="B9" s="1">
+        <v>45721.22928240741</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>200</v>
+      </c>
+      <c r="F9">
+        <v>0.8</v>
+      </c>
+      <c r="G9">
+        <v>0.8</v>
+      </c>
+      <c r="H9">
+        <v>5.2</v>
+      </c>
+      <c r="I9" t="str">
+        <v>sf</v>
+      </c>
+      <c r="J9" t="str">
+        <v>Chicken Cheese Burger (x2), Vanilla Shake (x2)</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>364</v>
+      </c>
+      <c r="B10" s="1">
+        <v>45719.22928240741</v>
+      </c>
+      <c r="C10" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D10">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>110</v>
+      </c>
+      <c r="F10">
+        <v>1.4</v>
+      </c>
+      <c r="G10">
+        <v>1.4</v>
+      </c>
+      <c r="H10">
+        <v>2.8</v>
+      </c>
+      <c r="I10" t="str">
+        <v>mjkf</v>
+      </c>
+      <c r="J10" t="str">
+        <v>Mango Lassi (x1), Banana Shake (x1)</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>342</v>
+      </c>
+      <c r="B11" s="1">
+        <v>45718.22928240741</v>
+      </c>
+      <c r="C11" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D11">
+        <v>93</v>
+      </c>
+      <c r="E11">
+        <v>60</v>
+      </c>
+      <c r="F11">
+        <v>0.9</v>
+      </c>
+      <c r="G11">
+        <v>0.9</v>
+      </c>
+      <c r="H11">
+        <v>1.8</v>
+      </c>
+      <c r="I11" t="str">
+        <v>jjjk</v>
+      </c>
+      <c r="J11" t="str">
+        <v>Chicken Burger (x1)</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>252</v>
+      </c>
+      <c r="B12" s="1">
+        <v>45718.22928240741</v>
+      </c>
+      <c r="C12" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>280</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <v>4</v>
+      </c>
+      <c r="H12">
+        <v>8</v>
+      </c>
+      <c r="I12" t="str">
+        <v>rsfgff</v>
+      </c>
+      <c r="J12" t="str">
+        <v>Mango Lassi (x1), Chicken Burger (x1), Strawberry Lassi (x1), Butterscotch Lassi (x1), Chicken Wrap (x1)</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>222</v>
+      </c>
+      <c r="B13" s="1">
+        <v>45709.22928240741</v>
+      </c>
+      <c r="C13" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>160</v>
+      </c>
+      <c r="F13">
+        <v>2.2</v>
+      </c>
+      <c r="G13">
+        <v>2.2</v>
+      </c>
+      <c r="H13">
+        <v>4.4</v>
+      </c>
+      <c r="I13" t="str">
+        <v>I hate this</v>
+      </c>
+      <c r="J13" t="str">
+        <v>Strawberry Lassi (x1), Mango Lassi (x1), Butterscotch Lassi (x1)</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>220</v>
+      </c>
+      <c r="B14" s="1">
+        <v>45709.22928240741</v>
+      </c>
+      <c r="C14" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>120</v>
+      </c>
+      <c r="F14">
+        <v>1.8</v>
+      </c>
+      <c r="G14">
+        <v>1.8</v>
+      </c>
+      <c r="H14">
+        <v>3.6</v>
+      </c>
+      <c r="I14" t="str">
+        <v>I love this</v>
+      </c>
+      <c r="J14" t="str">
+        <v>Chicken Burger (x2)</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J14"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/export.xlsx
+++ b/export.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -408,452 +408,160 @@
         <v>Bill No</v>
       </c>
       <c r="B1" t="str">
+        <v>KOT</v>
+      </c>
+      <c r="C1" t="str">
         <v>Date</v>
       </c>
-      <c r="C1" t="str">
-        <v>Cashier</v>
-      </c>
       <c r="D1" t="str">
-        <v>KOT</v>
+        <v>Initial Price (₹)</v>
       </c>
       <c r="E1" t="str">
-        <v>Price (₹)</v>
+        <v>Discount (%)</v>
       </c>
       <c r="F1" t="str">
-        <v>SGST (₹)</v>
+        <v>Discount (₹)</v>
       </c>
       <c r="G1" t="str">
-        <v>CGST (₹)</v>
+        <v>Final Price (₹)</v>
       </c>
       <c r="H1" t="str">
-        <v>Tax (₹)</v>
-      </c>
-      <c r="I1" t="str">
-        <v>Reason</v>
-      </c>
-      <c r="J1" t="str">
         <v>Food Items</v>
       </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>412</v>
-      </c>
-      <c r="B2" s="1">
-        <v>45724.22928240741</v>
-      </c>
-      <c r="C2" t="str">
-        <v>Ajay Francis Anchan</v>
-      </c>
-      <c r="D2">
-        <v>4</v>
+        <v>405</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1">
+        <v>45723.22928240741</v>
+      </c>
+      <c r="D2" t="str">
+        <v>₹120.00</v>
       </c>
       <c r="E2">
-        <v>220</v>
-      </c>
-      <c r="F2">
-        <v>2.5</v>
-      </c>
-      <c r="G2">
-        <v>2.5</v>
-      </c>
-      <c r="H2">
-        <v>5</v>
-      </c>
-      <c r="I2" t="str">
-        <v>fdg</v>
-      </c>
-      <c r="J2" t="str">
-        <v>Chicken Burger (x1), Vanilla Shake (x4)</v>
+        <v>37.5</v>
+      </c>
+      <c r="F2" t="str">
+        <v>₹45.00</v>
+      </c>
+      <c r="G2" t="str">
+        <v>₹75.00</v>
+      </c>
+      <c r="H2" t="str">
+        <v>Vanilla Shake</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>391</v>
-      </c>
-      <c r="B3" s="1">
-        <v>45721.22928240741</v>
-      </c>
-      <c r="C3" t="str">
-        <v>Ajay Francis Anchan</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
+        <v>416</v>
+      </c>
+      <c r="B3">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1">
+        <v>45724.22928240741</v>
+      </c>
+      <c r="D3" t="str">
+        <v>₹180.00</v>
       </c>
       <c r="E3">
-        <v>300</v>
-      </c>
-      <c r="F3">
-        <v>4.5</v>
-      </c>
-      <c r="G3">
-        <v>4.5</v>
-      </c>
-      <c r="H3">
-        <v>9</v>
-      </c>
-      <c r="I3" t="str">
-        <v>fff</v>
-      </c>
-      <c r="J3" t="str">
-        <v>Chicken Burger (x5)</v>
+        <v>5</v>
+      </c>
+      <c r="F3" t="str">
+        <v>₹9.00</v>
+      </c>
+      <c r="G3" t="str">
+        <v>₹171.00</v>
+      </c>
+      <c r="H3" t="str">
+        <v>Chicken Wrap</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>389</v>
-      </c>
-      <c r="B4" s="1">
-        <v>45721.22928240741</v>
-      </c>
-      <c r="C4" t="str">
-        <v>Ajay Francis Anchan</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
+        <v>417</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1">
+        <v>45724.22928240741</v>
+      </c>
+      <c r="D4" t="str">
+        <v>₹120.00</v>
       </c>
       <c r="E4">
-        <v>380</v>
-      </c>
-      <c r="F4">
-        <v>4.35</v>
-      </c>
-      <c r="G4">
-        <v>4.35</v>
-      </c>
-      <c r="H4">
-        <v>10.5</v>
-      </c>
-      <c r="I4" t="str">
-        <v>er</v>
-      </c>
-      <c r="J4" t="str">
-        <v>Chicken Cheese Burger (x1), Vanilla Shake (x1), Butterscotch Lassi (x1), Chicken Wrap (x2), Oreo Shake (x2)</v>
+        <v>80</v>
+      </c>
+      <c r="F4" t="str">
+        <v>₹96.00</v>
+      </c>
+      <c r="G4" t="str">
+        <v>₹24.00</v>
+      </c>
+      <c r="H4" t="str">
+        <v>Strawberry Lassi</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>388</v>
-      </c>
-      <c r="B5" s="1">
-        <v>45721.22928240741</v>
-      </c>
-      <c r="C5" t="str">
-        <v>Ajay Francis Anchan</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
+        <v>418</v>
+      </c>
+      <c r="B5">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1">
+        <v>45724.22928240741</v>
+      </c>
+      <c r="D5" t="str">
+        <v>₹180.00</v>
       </c>
       <c r="E5">
-        <v>60</v>
-      </c>
-      <c r="F5">
-        <v>0.9</v>
-      </c>
-      <c r="G5">
-        <v>0.9</v>
-      </c>
-      <c r="H5">
-        <v>1.8</v>
-      </c>
-      <c r="I5" t="str">
-        <v>drg</v>
-      </c>
-      <c r="J5" t="str">
-        <v>Mango Lassi (x1)</v>
+        <v>78</v>
+      </c>
+      <c r="F5" t="str">
+        <v>₹140.40</v>
+      </c>
+      <c r="G5" t="str">
+        <v>₹39.60</v>
+      </c>
+      <c r="H5" t="str">
+        <v>Chicken Burger, Vanilla Shake</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>387</v>
-      </c>
-      <c r="B6" s="1">
-        <v>45721.22928240741</v>
-      </c>
-      <c r="C6" t="str">
-        <v>Ajay Francis Anchan</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
+        <v>419</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1">
+        <v>45724.22928240741</v>
+      </c>
+      <c r="D6" t="str">
+        <v>₹220.00</v>
       </c>
       <c r="E6">
-        <v>60</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>1.8</v>
-      </c>
-      <c r="I6" t="str">
-        <v>no</v>
-      </c>
-      <c r="J6" t="str">
-        <v>Chicken Cheese Burger (x1)</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7">
-        <v>386</v>
-      </c>
-      <c r="B7" s="1">
-        <v>45721.22928240741</v>
-      </c>
-      <c r="C7" t="str">
-        <v>Ajay Francis Anchan</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7">
-        <v>120</v>
-      </c>
-      <c r="F7">
-        <v>1.2</v>
-      </c>
-      <c r="G7">
-        <v>1.2</v>
-      </c>
-      <c r="H7">
-        <v>2.4</v>
-      </c>
-      <c r="I7" t="str">
-        <v>sdf</v>
-      </c>
-      <c r="J7" t="str">
-        <v>Strawberry Lassi (x3)</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8">
-        <v>385</v>
-      </c>
-      <c r="B8" s="1">
-        <v>45721.22928240741</v>
-      </c>
-      <c r="C8" t="str">
-        <v>Ajay Francis Anchan</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8">
-        <v>510</v>
-      </c>
-      <c r="F8">
-        <v>7.58</v>
-      </c>
-      <c r="G8">
-        <v>7.58</v>
-      </c>
-      <c r="H8">
-        <v>15.15</v>
-      </c>
-      <c r="I8" t="str">
-        <v>hate this</v>
-      </c>
-      <c r="J8" t="str">
-        <v>Vanilla Shake (x3), Chicken Wrap (x3), Veg Cheese Pops (x3)</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9">
-        <v>384</v>
-      </c>
-      <c r="B9" s="1">
-        <v>45721.22928240741</v>
-      </c>
-      <c r="C9" t="str">
-        <v>Ajay Francis Anchan</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>200</v>
-      </c>
-      <c r="F9">
-        <v>0.8</v>
-      </c>
-      <c r="G9">
-        <v>0.8</v>
-      </c>
-      <c r="H9">
-        <v>5.2</v>
-      </c>
-      <c r="I9" t="str">
-        <v>sf</v>
-      </c>
-      <c r="J9" t="str">
-        <v>Chicken Cheese Burger (x2), Vanilla Shake (x2)</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10">
-        <v>364</v>
-      </c>
-      <c r="B10" s="1">
-        <v>45719.22928240741</v>
-      </c>
-      <c r="C10" t="str">
-        <v>Ajay Francis Anchan</v>
-      </c>
-      <c r="D10">
-        <v>7</v>
-      </c>
-      <c r="E10">
-        <v>110</v>
-      </c>
-      <c r="F10">
-        <v>1.4</v>
-      </c>
-      <c r="G10">
-        <v>1.4</v>
-      </c>
-      <c r="H10">
-        <v>2.8</v>
-      </c>
-      <c r="I10" t="str">
-        <v>mjkf</v>
-      </c>
-      <c r="J10" t="str">
-        <v>Mango Lassi (x1), Banana Shake (x1)</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11">
-        <v>342</v>
-      </c>
-      <c r="B11" s="1">
-        <v>45718.22928240741</v>
-      </c>
-      <c r="C11" t="str">
-        <v>Ajay Francis Anchan</v>
-      </c>
-      <c r="D11">
-        <v>93</v>
-      </c>
-      <c r="E11">
-        <v>60</v>
-      </c>
-      <c r="F11">
-        <v>0.9</v>
-      </c>
-      <c r="G11">
-        <v>0.9</v>
-      </c>
-      <c r="H11">
-        <v>1.8</v>
-      </c>
-      <c r="I11" t="str">
-        <v>jjjk</v>
-      </c>
-      <c r="J11" t="str">
-        <v>Chicken Burger (x1)</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12">
-        <v>252</v>
-      </c>
-      <c r="B12" s="1">
-        <v>45718.22928240741</v>
-      </c>
-      <c r="C12" t="str">
-        <v>Ajay Francis Anchan</v>
-      </c>
-      <c r="D12">
-        <v>3</v>
-      </c>
-      <c r="E12">
-        <v>280</v>
-      </c>
-      <c r="F12">
-        <v>4</v>
-      </c>
-      <c r="G12">
-        <v>4</v>
-      </c>
-      <c r="H12">
-        <v>8</v>
-      </c>
-      <c r="I12" t="str">
-        <v>rsfgff</v>
-      </c>
-      <c r="J12" t="str">
-        <v>Mango Lassi (x1), Chicken Burger (x1), Strawberry Lassi (x1), Butterscotch Lassi (x1), Chicken Wrap (x1)</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13">
-        <v>222</v>
-      </c>
-      <c r="B13" s="1">
-        <v>45709.22928240741</v>
-      </c>
-      <c r="C13" t="str">
-        <v>Ajay Francis Anchan</v>
-      </c>
-      <c r="D13">
-        <v>3</v>
-      </c>
-      <c r="E13">
-        <v>160</v>
-      </c>
-      <c r="F13">
-        <v>2.2</v>
-      </c>
-      <c r="G13">
-        <v>2.2</v>
-      </c>
-      <c r="H13">
-        <v>4.4</v>
-      </c>
-      <c r="I13" t="str">
-        <v>I hate this</v>
-      </c>
-      <c r="J13" t="str">
-        <v>Strawberry Lassi (x1), Mango Lassi (x1), Butterscotch Lassi (x1)</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14">
-        <v>220</v>
-      </c>
-      <c r="B14" s="1">
-        <v>45709.22928240741</v>
-      </c>
-      <c r="C14" t="str">
-        <v>Ajay Francis Anchan</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>120</v>
-      </c>
-      <c r="F14">
-        <v>1.8</v>
-      </c>
-      <c r="G14">
-        <v>1.8</v>
-      </c>
-      <c r="H14">
-        <v>3.6</v>
-      </c>
-      <c r="I14" t="str">
-        <v>I love this</v>
-      </c>
-      <c r="J14" t="str">
-        <v>Chicken Burger (x2)</v>
+        <v>12</v>
+      </c>
+      <c r="F6" t="str">
+        <v>₹26.40</v>
+      </c>
+      <c r="G6" t="str">
+        <v>₹193.60</v>
+      </c>
+      <c r="H6" t="str">
+        <v>Strawberry Lassi, Chicken Cheese Pops, Veg Cheese Pops</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J14"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H6"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/export.xlsx
+++ b/export.xlsx
@@ -437,7 +437,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="1">
-        <v>45723.22928240741</v>
+        <v>45841.00011574074</v>
       </c>
       <c r="D2" t="str">
         <v>₹120.00</v>
@@ -463,7 +463,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="1">
-        <v>45724.22928240741</v>
+        <v>45872.00011574074</v>
       </c>
       <c r="D3" t="str">
         <v>₹180.00</v>
@@ -489,7 +489,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="1">
-        <v>45724.22928240741</v>
+        <v>45872.00011574074</v>
       </c>
       <c r="D4" t="str">
         <v>₹120.00</v>
@@ -504,7 +504,7 @@
         <v>₹24.00</v>
       </c>
       <c r="H4" t="str">
-        <v>Strawberry Lassi</v>
+        <v>Strawberry Lassi, Chicken Wrap</v>
       </c>
     </row>
     <row r="5">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="1">
-        <v>45724.22928240741</v>
+        <v>45872.00011574074</v>
       </c>
       <c r="D5" t="str">
         <v>₹180.00</v>
@@ -541,7 +541,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="1">
-        <v>45724.22928240741</v>
+        <v>45872.00011574074</v>
       </c>
       <c r="D6" t="str">
         <v>₹220.00</v>

--- a/export.xlsx
+++ b/export.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -408,160 +408,91 @@
         <v>Bill No</v>
       </c>
       <c r="B1" t="str">
+        <v>Date</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Cashier</v>
+      </c>
+      <c r="D1" t="str">
         <v>KOT</v>
       </c>
-      <c r="C1" t="str">
-        <v>Date</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Initial Price (₹)</v>
-      </c>
       <c r="E1" t="str">
-        <v>Discount (%)</v>
+        <v>Price (₹)</v>
       </c>
       <c r="F1" t="str">
-        <v>Discount (₹)</v>
+        <v>SGST (₹)</v>
       </c>
       <c r="G1" t="str">
-        <v>Final Price (₹)</v>
+        <v>CGST (₹)</v>
       </c>
       <c r="H1" t="str">
+        <v>Tax (₹)</v>
+      </c>
+      <c r="I1" t="str">
         <v>Food Items</v>
       </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>405</v>
-      </c>
-      <c r="B2">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1">
-        <v>45841.00011574074</v>
-      </c>
-      <c r="D2" t="str">
-        <v>₹120.00</v>
+        <v>432</v>
+      </c>
+      <c r="B2" s="1">
+        <v>45903.00011574074</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
       </c>
       <c r="E2">
-        <v>37.5</v>
-      </c>
-      <c r="F2" t="str">
-        <v>₹45.00</v>
-      </c>
-      <c r="G2" t="str">
-        <v>₹75.00</v>
-      </c>
-      <c r="H2" t="str">
-        <v>Vanilla Shake</v>
+        <v>99</v>
+      </c>
+      <c r="F2">
+        <v>1.93</v>
+      </c>
+      <c r="G2">
+        <v>1.93</v>
+      </c>
+      <c r="H2">
+        <v>3.85</v>
+      </c>
+      <c r="I2" t="str">
+        <v>Chicken Burger (x1), Strawberry Lassi (x1), Veg Wrap (x1)</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>416</v>
-      </c>
-      <c r="B3">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1">
-        <v>45872.00011574074</v>
-      </c>
-      <c r="D3" t="str">
-        <v>₹180.00</v>
+        <v>433</v>
+      </c>
+      <c r="B3" s="1">
+        <v>45903.00011574074</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
       </c>
       <c r="E3">
-        <v>5</v>
-      </c>
-      <c r="F3" t="str">
-        <v>₹9.00</v>
-      </c>
-      <c r="G3" t="str">
-        <v>₹171.00</v>
-      </c>
-      <c r="H3" t="str">
-        <v>Chicken Wrap</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4">
-        <v>417</v>
-      </c>
-      <c r="B4">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1">
-        <v>45872.00011574074</v>
-      </c>
-      <c r="D4" t="str">
-        <v>₹120.00</v>
-      </c>
-      <c r="E4">
-        <v>80</v>
-      </c>
-      <c r="F4" t="str">
-        <v>₹96.00</v>
-      </c>
-      <c r="G4" t="str">
-        <v>₹24.00</v>
-      </c>
-      <c r="H4" t="str">
-        <v>Strawberry Lassi, Chicken Wrap</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5">
-        <v>418</v>
-      </c>
-      <c r="B5">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1">
-        <v>45872.00011574074</v>
-      </c>
-      <c r="D5" t="str">
-        <v>₹180.00</v>
-      </c>
-      <c r="E5">
-        <v>78</v>
-      </c>
-      <c r="F5" t="str">
-        <v>₹140.40</v>
-      </c>
-      <c r="G5" t="str">
-        <v>₹39.60</v>
-      </c>
-      <c r="H5" t="str">
-        <v>Chicken Burger, Vanilla Shake</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6">
-        <v>419</v>
-      </c>
-      <c r="B6">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1">
-        <v>45872.00011574074</v>
-      </c>
-      <c r="D6" t="str">
-        <v>₹220.00</v>
-      </c>
-      <c r="E6">
-        <v>12</v>
-      </c>
-      <c r="F6" t="str">
-        <v>₹26.40</v>
-      </c>
-      <c r="G6" t="str">
-        <v>₹193.60</v>
-      </c>
-      <c r="H6" t="str">
-        <v>Strawberry Lassi, Chicken Cheese Pops, Veg Cheese Pops</v>
+        <v>500</v>
+      </c>
+      <c r="F3">
+        <v>7.1</v>
+      </c>
+      <c r="G3">
+        <v>7.1</v>
+      </c>
+      <c r="H3">
+        <v>16</v>
+      </c>
+      <c r="I3" t="str">
+        <v>Chicken Burger (x1), Chicken Cheese Burger (x1), Mango Lassi (x1), Strawberry Lassi (x1), Chicken Cheese Pops (x1), Veg Cheese Pops (x3)</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I3"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/export.xlsx
+++ b/export.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -434,65 +434,239 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>432</v>
+        <v>593</v>
       </c>
       <c r="B2" s="1">
-        <v>45903.00011574074</v>
+        <v>45692.00011574074</v>
       </c>
       <c r="C2" t="str">
         <v>Ajay Francis Anchan</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E2">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="F2">
-        <v>1.93</v>
+        <v>0.9</v>
       </c>
       <c r="G2">
-        <v>1.93</v>
+        <v>0.9</v>
       </c>
       <c r="H2">
-        <v>3.85</v>
+        <v>1.8</v>
       </c>
       <c r="I2" t="str">
-        <v>Chicken Burger (x1), Strawberry Lassi (x1), Veg Wrap (x1)</v>
+        <v>Chicken Burger (x1)</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>433</v>
+        <v>592</v>
       </c>
       <c r="B3" s="1">
-        <v>45903.00011574074</v>
+        <v>45692.00011574074</v>
       </c>
       <c r="C3" t="str">
         <v>Ajay Francis Anchan</v>
       </c>
       <c r="D3">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>200</v>
+      </c>
+      <c r="F3">
+        <v>3.5</v>
+      </c>
+      <c r="G3">
+        <v>3.5</v>
+      </c>
+      <c r="H3">
+        <v>7</v>
+      </c>
+      <c r="I3" t="str">
+        <v>Chicken Cheese Burger (x1), Vanilla Shake (x2), Chicken Wrap (x1)</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>591</v>
+      </c>
+      <c r="B4" s="1">
+        <v>45692.00011574074</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>80</v>
+      </c>
+      <c r="F4">
+        <v>0.8</v>
+      </c>
+      <c r="G4">
+        <v>0.8</v>
+      </c>
+      <c r="H4">
+        <v>1.6</v>
+      </c>
+      <c r="I4" t="str">
+        <v>Belgian Coffee (x2)</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>590</v>
+      </c>
+      <c r="B5" s="1">
+        <v>45692.00011574074</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D5">
         <v>5</v>
       </c>
-      <c r="E3">
-        <v>500</v>
-      </c>
-      <c r="F3">
-        <v>7.1</v>
-      </c>
-      <c r="G3">
-        <v>7.1</v>
-      </c>
-      <c r="H3">
-        <v>16</v>
-      </c>
-      <c r="I3" t="str">
-        <v>Chicken Burger (x1), Chicken Cheese Burger (x1), Mango Lassi (x1), Strawberry Lassi (x1), Chicken Cheese Pops (x1), Veg Cheese Pops (x3)</v>
+      <c r="E5">
+        <v>140</v>
+      </c>
+      <c r="F5">
+        <v>2.2</v>
+      </c>
+      <c r="G5">
+        <v>2.2</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5" t="str">
+        <v>Peri Peri Fries (x2), Watermelon Juice (x1), Belgian Coffee (x1), Lime Juice (x1)</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>589</v>
+      </c>
+      <c r="B6" s="1">
+        <v>45692.00011574074</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>220</v>
+      </c>
+      <c r="F6">
+        <v>3.1</v>
+      </c>
+      <c r="G6">
+        <v>3.1</v>
+      </c>
+      <c r="H6">
+        <v>6.2</v>
+      </c>
+      <c r="I6" t="str">
+        <v>Chicken Burger (x2), Mango Lassi (x1), Strawberry Lassi (x1)</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>588</v>
+      </c>
+      <c r="B7" s="1">
+        <v>45692.00011574074</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>180</v>
+      </c>
+      <c r="F7">
+        <v>1.2</v>
+      </c>
+      <c r="G7">
+        <v>1.2</v>
+      </c>
+      <c r="H7">
+        <v>4.2</v>
+      </c>
+      <c r="I7" t="str">
+        <v>Vanilla Shake (x3), Chicken Cheese Burger (x1)</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>587</v>
+      </c>
+      <c r="B8" s="1">
+        <v>45692.00011574074</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>370</v>
+      </c>
+      <c r="F8">
+        <v>5.03</v>
+      </c>
+      <c r="G8">
+        <v>5.03</v>
+      </c>
+      <c r="H8">
+        <v>10.05</v>
+      </c>
+      <c r="I8" t="str">
+        <v>Oreo Shake (x1), Vanilla Shake (x1), Chicken Wrap (x2), Butterscotch Lassi (x2), Strawberry Lassi (x1)</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>586</v>
+      </c>
+      <c r="B9" s="1">
+        <v>45692.00011574074</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Ajay Francis Anchan</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>300</v>
+      </c>
+      <c r="F9">
+        <v>3.6</v>
+      </c>
+      <c r="G9">
+        <v>3.6</v>
+      </c>
+      <c r="H9">
+        <v>9</v>
+      </c>
+      <c r="I9" t="str">
+        <v>Chicken Burger (x2), Chicken Cheese Burger (x1), Butterscotch Lassi (x2)</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I9"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/export.xlsx
+++ b/export.xlsx
@@ -64,9 +64,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -434,16 +433,16 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>593</v>
-      </c>
-      <c r="B2" s="1">
-        <v>45692.00011574074</v>
+        <v>675</v>
+      </c>
+      <c r="B2" t="str">
+        <v>20-04-25</v>
       </c>
       <c r="C2" t="str">
         <v>Ajay Francis Anchan</v>
       </c>
       <c r="D2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>60</v>
@@ -458,215 +457,12 @@
         <v>1.8</v>
       </c>
       <c r="I2" t="str">
-        <v>Chicken Burger (x1)</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>592</v>
-      </c>
-      <c r="B3" s="1">
-        <v>45692.00011574074</v>
-      </c>
-      <c r="C3" t="str">
-        <v>Ajay Francis Anchan</v>
-      </c>
-      <c r="D3">
-        <v>7</v>
-      </c>
-      <c r="E3">
-        <v>200</v>
-      </c>
-      <c r="F3">
-        <v>3.5</v>
-      </c>
-      <c r="G3">
-        <v>3.5</v>
-      </c>
-      <c r="H3">
-        <v>7</v>
-      </c>
-      <c r="I3" t="str">
-        <v>Chicken Cheese Burger (x1), Vanilla Shake (x2), Chicken Wrap (x1)</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4">
-        <v>591</v>
-      </c>
-      <c r="B4" s="1">
-        <v>45692.00011574074</v>
-      </c>
-      <c r="C4" t="str">
-        <v>Ajay Francis Anchan</v>
-      </c>
-      <c r="D4">
-        <v>6</v>
-      </c>
-      <c r="E4">
-        <v>80</v>
-      </c>
-      <c r="F4">
-        <v>0.8</v>
-      </c>
-      <c r="G4">
-        <v>0.8</v>
-      </c>
-      <c r="H4">
-        <v>1.6</v>
-      </c>
-      <c r="I4" t="str">
-        <v>Belgian Coffee (x2)</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5">
-        <v>590</v>
-      </c>
-      <c r="B5" s="1">
-        <v>45692.00011574074</v>
-      </c>
-      <c r="C5" t="str">
-        <v>Ajay Francis Anchan</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
-      <c r="E5">
-        <v>140</v>
-      </c>
-      <c r="F5">
-        <v>2.2</v>
-      </c>
-      <c r="G5">
-        <v>2.2</v>
-      </c>
-      <c r="H5">
-        <v>2</v>
-      </c>
-      <c r="I5" t="str">
-        <v>Peri Peri Fries (x2), Watermelon Juice (x1), Belgian Coffee (x1), Lime Juice (x1)</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6">
-        <v>589</v>
-      </c>
-      <c r="B6" s="1">
-        <v>45692.00011574074</v>
-      </c>
-      <c r="C6" t="str">
-        <v>Ajay Francis Anchan</v>
-      </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
-      <c r="E6">
-        <v>220</v>
-      </c>
-      <c r="F6">
-        <v>3.1</v>
-      </c>
-      <c r="G6">
-        <v>3.1</v>
-      </c>
-      <c r="H6">
-        <v>6.2</v>
-      </c>
-      <c r="I6" t="str">
-        <v>Chicken Burger (x2), Mango Lassi (x1), Strawberry Lassi (x1)</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7">
-        <v>588</v>
-      </c>
-      <c r="B7" s="1">
-        <v>45692.00011574074</v>
-      </c>
-      <c r="C7" t="str">
-        <v>Ajay Francis Anchan</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7">
-        <v>180</v>
-      </c>
-      <c r="F7">
-        <v>1.2</v>
-      </c>
-      <c r="G7">
-        <v>1.2</v>
-      </c>
-      <c r="H7">
-        <v>4.2</v>
-      </c>
-      <c r="I7" t="str">
-        <v>Vanilla Shake (x3), Chicken Cheese Burger (x1)</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8">
-        <v>587</v>
-      </c>
-      <c r="B8" s="1">
-        <v>45692.00011574074</v>
-      </c>
-      <c r="C8" t="str">
-        <v>Ajay Francis Anchan</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8">
-        <v>370</v>
-      </c>
-      <c r="F8">
-        <v>5.03</v>
-      </c>
-      <c r="G8">
-        <v>5.03</v>
-      </c>
-      <c r="H8">
-        <v>10.05</v>
-      </c>
-      <c r="I8" t="str">
-        <v>Oreo Shake (x1), Vanilla Shake (x1), Chicken Wrap (x2), Butterscotch Lassi (x2), Strawberry Lassi (x1)</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9">
-        <v>586</v>
-      </c>
-      <c r="B9" s="1">
-        <v>45692.00011574074</v>
-      </c>
-      <c r="C9" t="str">
-        <v>Ajay Francis Anchan</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>300</v>
-      </c>
-      <c r="F9">
-        <v>3.6</v>
-      </c>
-      <c r="G9">
-        <v>3.6</v>
-      </c>
-      <c r="H9">
-        <v>9</v>
-      </c>
-      <c r="I9" t="str">
-        <v>Chicken Burger (x2), Chicken Cheese Burger (x1), Butterscotch Lassi (x2)</v>
+        <v>Chicken Wrap (x1)</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I9"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I2"/>
   </ignoredErrors>
 </worksheet>
 </file>